--- a/phase2/README.xlsx
+++ b/phase2/README.xlsx
@@ -3,7 +3,7 @@
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:fileVersion appName="HCell" lastEdited="9.1" lowestEdited="9.1" rupBuild="1.3237"/>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="28305" windowHeight="11265" activeTab="2"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="28305" windowHeight="11265" activeTab="3"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="CUSTOMER" sheetId="1" r:id="rId4"/>
@@ -20,7 +20,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="94">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="96">
+  <x:si>
+    <x:t>create table customer(
+    Fname varchar2(2),
+    Lname varchar2(4),
+    Phone_number varchar2(11),
+    Customer_email varchar2(50) not null primary key,
+    Sex varchar2(10) not null,
+    Age number not null
+);</x:t>
+  </x:si>
   <x:si>
     <x:t>create table owner(
     Bnum number not null references store(bregnumber),
@@ -34,57 +44,11 @@
 );</x:t>
   </x:si>
   <x:si>
-    <x:t>create table customer(
-    Fname varchar2(2),
-    Lname varchar2(4),
-    Phone_number varchar2(11),
-    Customer_email varchar2(50) not null primary key,
-    Sex varchar2(10) not null,
-    Age number not null
-);</x:t>
-  </x:si>
-  <x:si>
-    <x:t>create table store(
-    Breg_number number not null primary key,
-    Store_name varchar2(40) not null,
-    Store_type varchar2(20),
-    Seat_number number not null,
-    Location varchar2(70) not null
-);</x:t>
-  </x:si>
-  <x:si>
-    <x:t>고객이 가게에 대한 평가를 담고 있는 테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>create table rating(
-    Bnum number not null references store(Breg_number),
-    Cemail varchar2(10) not null references customer(Customer_email),
-    Score number(2,1),
-    Id number not null unique,
-    constraint pk_rating primary key(Bnum, Cemail)
-);</x:t>
-  </x:si>
-  <x:si>
-    <x:t>create table origin(
-    Id number not null references food(Id),
-    Country_name varchar2(20),
-    constraint pk_origin_country primary key(Id, Country_name)
-);</x:t>
-  </x:si>
-  <x:si>
     <x:t>create table food(
     Bnum number not null references store(Breg_number),
     Id number not null unique,
     Price number not null,
     Food_name varchar2(50) not null
-);</x:t>
-  </x:si>
-  <x:si>
-    <x:t>create table cust_books_str(
-    Cemail varchar2(50) not null references customer(Customer_email),
-    Bnum number not null references store(Breg_number),
-    Time date not null,
-    constraint pk_cust_books_str primary key(Cemail, Bnum)
 );</x:t>
   </x:si>
   <x:si>
@@ -98,6 +62,39 @@
 );</x:t>
   </x:si>
   <x:si>
+    <x:t>create table origin(
+    Id number not null references food(Id),
+    Country_name varchar2(20),
+    constraint pk_origin_country primary key(Id, Country_name)
+);</x:t>
+  </x:si>
+  <x:si>
+    <x:t>create table cust_books_str(
+    Cemail varchar2(50) not null references customer(Customer_email),
+    Bnum number not null references store(Breg_number),
+    Time date not null,
+    constraint pk_cust_books_str primary key(Cemail, Bnum)
+);</x:t>
+  </x:si>
+  <x:si>
+    <x:t>create table store(
+    Breg_number number not null primary key,
+    Store_name varchar2(40) not null,
+    Store_type varchar2(20),
+    Seat_number number not null,
+    Location varchar2(70) not null
+);</x:t>
+  </x:si>
+  <x:si>
+    <x:t>not null, UNIQUE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>예약한 가게의 Brenumber</x:t>
+  </x:si>
+  <x:si>
+    <x:t>음식 정보를 가지고 있는 테이블</x:t>
+  </x:si>
+  <x:si>
     <x:t>점주 정보를 담고 있는 테이블</x:t>
   </x:si>
   <x:si>
@@ -113,13 +110,7 @@
     <x:t>고객 정보를 담고 있는 테이블</x:t>
   </x:si>
   <x:si>
-    <x:t>not null, UNIQUE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>예약한 가게의 Brenumber</x:t>
-  </x:si>
-  <x:si>
-    <x:t>음식 정보를 가지고 있는 테이블</x:t>
+    <x:t>고객이 가게에 대한 평가를 담고 있는 테이블</x:t>
   </x:si>
   <x:si>
     <x:t>size</x:t>
@@ -128,205 +119,216 @@
     <x:t>고객 전화번호</x:t>
   </x:si>
   <x:si>
+    <x:t>Fname</x:t>
+  </x:si>
+  <x:si>
+    <x:t>STORE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>고객의 성</x:t>
+  </x:si>
+  <x:si>
     <x:t>Time</x:t>
   </x:si>
   <x:si>
-    <x:t>Fname</x:t>
-  </x:si>
-  <x:si>
-    <x:t>고객의 성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>STORE</x:t>
+    <x:t>Cemail</x:t>
+  </x:si>
+  <x:si>
+    <x:t>원산지 국가명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>알코올 여부</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Score</x:t>
+  </x:si>
+  <x:si>
+    <x:t>점주의 나이</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ORIGIN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NUMBER</x:t>
+  </x:si>
+  <x:si>
+    <x:t>점주 전화번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>점주의 이메일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>점주의 성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>음식 이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가게 종류</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가게 이름</x:t>
   </x:si>
   <x:si>
     <x:t>Lname</x:t>
   </x:si>
   <x:si>
+    <x:t>음식 가격</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Alcohol</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RATING</x:t>
+  </x:si>
+  <x:si>
+    <x:t>음료 이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(2,1)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DATE</x:t>
+  </x:si>
+  <x:si>
     <x:t>고객의 이메일</x:t>
   </x:si>
   <x:si>
+    <x:t>음료 가격</x:t>
+  </x:si>
+  <x:si>
+    <x:t>점주의 이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PK, FK</x:t>
+  </x:si>
+  <x:si>
     <x:t>고객의 나이</x:t>
   </x:si>
   <x:si>
+    <x:t>Bnum</x:t>
+  </x:si>
+  <x:si>
     <x:t>고객의 이름</x:t>
   </x:si>
   <x:si>
-    <x:t>Cemail</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DATE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가게 종류</x:t>
+    <x:t>FOOD</x:t>
   </x:si>
   <x:si>
     <x:t>예약한 시간대</x:t>
   </x:si>
   <x:si>
-    <x:t>가게 이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NUMBER</x:t>
-  </x:si>
-  <x:si>
-    <x:t>음식 가격</x:t>
-  </x:si>
-  <x:si>
     <x:t>가게 좌석수</x:t>
   </x:si>
   <x:si>
-    <x:t>RATING</x:t>
-  </x:si>
-  <x:si>
-    <x:t>(2,1)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ORIGIN</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Alcohol</x:t>
-  </x:si>
-  <x:si>
-    <x:t>음료 이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>점주의 이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Bnum</x:t>
-  </x:si>
-  <x:si>
-    <x:t>원산지 국가명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>점주 전화번호</x:t>
-  </x:si>
-  <x:si>
     <x:t>가게 위치</x:t>
   </x:si>
   <x:si>
-    <x:t>FOOD</x:t>
-  </x:si>
-  <x:si>
     <x:t>Price</x:t>
   </x:si>
   <x:si>
-    <x:t>PK, FK</x:t>
-  </x:si>
-  <x:si>
-    <x:t>알코올 여부</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Score</x:t>
-  </x:si>
-  <x:si>
-    <x:t>음료 가격</x:t>
-  </x:si>
-  <x:si>
-    <x:t>점주의 이메일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>점주의 나이</x:t>
-  </x:si>
-  <x:si>
-    <x:t>점주의 성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>음식 이름</x:t>
-  </x:si>
-  <x:si>
     <x:t>OWNER</x:t>
   </x:si>
   <x:si>
+    <x:t>create table rating(
+    Bnum number not null references store(Breg_number),
+    Cemail varchar2(10) not null references customer(Customer_email),
+    Score number(2,1),
+    Id number not null primary key
+);</x:t>
+  </x:si>
+  <x:si>
+    <x:t>음료 tuple 일련번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>소유한 가게의 사업자등록번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FK, not null</x:t>
+  </x:si>
+  <x:si>
+    <x:t>원산지 tuple 일련번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Customer_email</x:t>
+  </x:si>
+  <x:si>
+    <x:t>음식 tuple 일련번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>예약한 고객의 Email</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Phone_number</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Country_name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CUST_BOOKS_STR</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가게의 사업자 등록번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>평가 tuple 일련번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Store_name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Store_type</x:t>
+  </x:si>
+  <x:si>
     <x:t>column name</x:t>
   </x:si>
   <x:si>
+    <x:t>CUSTOMER</x:t>
+  </x:si>
+  <x:si>
     <x:t>value type</x:t>
   </x:si>
   <x:si>
+    <x:t>Seat_number</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Location</x:t>
+  </x:si>
+  <x:si>
+    <x:t>not null</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VARCHAR2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Breg_number</x:t>
+  </x:si>
+  <x:si>
     <x:t>properties</x:t>
   </x:si>
   <x:si>
     <x:t>Description</x:t>
   </x:si>
   <x:si>
-    <x:t>CUSTOMER</x:t>
-  </x:si>
-  <x:si>
-    <x:t>VARCHAR2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Store_name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Store_type</x:t>
-  </x:si>
-  <x:si>
-    <x:t>not null</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Seat_number</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Location</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Breg_number</x:t>
-  </x:si>
-  <x:si>
     <x:t>가게의 사업자등록번호</x:t>
   </x:si>
   <x:si>
+    <x:t>가게 사업자등록번호</x:t>
+  </x:si>
+  <x:si>
     <x:t>Food_name</x:t>
   </x:si>
   <x:si>
-    <x:t>가게 사업자등록번호</x:t>
+    <x:t>BEVERAGE</x:t>
   </x:si>
   <x:si>
     <x:t>Drink_name</x:t>
   </x:si>
   <x:si>
-    <x:t>BEVERAGE</x:t>
-  </x:si>
-  <x:si>
     <x:t>Owner_email</x:t>
   </x:si>
   <x:si>
-    <x:t>평가 tuple 일련번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Country_name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FK, not null</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가게의 사업자 등록번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>음료 tuple 일련번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>소유한 가게의 사업자등록번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CUST_BOOKS_STR</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Customer_email</x:t>
-  </x:si>
-  <x:si>
-    <x:t>원산지 tuple 일련번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>음식 tuple 일련번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>예약한 고객의 Email</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Phone_number</x:t>
+    <x:t>FK not null</x:t>
   </x:si>
   <x:si>
     <x:t>고객의 예약 정보를 담고 있는 테이블</x:t>
@@ -335,22 +337,25 @@
     <x:t>-</x:t>
   </x:si>
   <x:si>
+    <x:t>Age</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DDL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Id</x:t>
+  </x:si>
+  <x:si>
+    <x:t>평점</x:t>
+  </x:si>
+  <x:si>
     <x:t>Sex</x:t>
   </x:si>
   <x:si>
     <x:t>PK</x:t>
   </x:si>
   <x:si>
-    <x:t>Age</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DDL</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Id</x:t>
-  </x:si>
-  <x:si>
-    <x:t>평점</x:t>
+    <x:t>PK</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -533,7 +538,7 @@
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="15">
+  <x:cellXfs count="16">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
@@ -706,6 +711,19 @@
       <mc:Fallback>
         <x:xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
@@ -1471,7 +1489,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:11">
       <x:c r="A1" s="6" t="s">
-        <x:v>60</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="B1" s="6"/>
       <x:c r="C1" s="6"/>
@@ -1499,7 +1517,7 @@
     </x:row>
     <x:row r="3" spans="1:11">
       <x:c r="A3" s="7" t="s">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="B3" s="7"/>
       <x:c r="C3" s="7"/>
@@ -1514,34 +1532,34 @@
     </x:row>
     <x:row r="4" spans="1:11">
       <x:c r="A4" s="6" t="s">
-        <x:v>56</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="B4" s="6"/>
       <x:c r="C4" s="6" t="s">
-        <x:v>57</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="D4" s="6"/>
       <x:c r="E4" s="8" t="s">
-        <x:v>17</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F4" s="9"/>
       <x:c r="G4" s="6" t="s">
-        <x:v>58</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="H4" s="6"/>
       <x:c r="I4" s="6" t="s">
-        <x:v>59</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="J4" s="6"/>
       <x:c r="K4" s="6"/>
     </x:row>
     <x:row r="5" spans="1:11">
       <x:c r="A5" s="10" t="s">
-        <x:v>20</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="B5" s="10"/>
       <x:c r="C5" s="10" t="s">
-        <x:v>61</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="D5" s="10"/>
       <x:c r="E5" s="10">
@@ -1551,18 +1569,18 @@
       <x:c r="G5" s="10"/>
       <x:c r="H5" s="10"/>
       <x:c r="I5" s="10" t="s">
-        <x:v>21</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="J5" s="10"/>
       <x:c r="K5" s="10"/>
     </x:row>
     <x:row r="6" spans="1:11">
       <x:c r="A6" s="10" t="s">
-        <x:v>23</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="B6" s="10"/>
       <x:c r="C6" s="10" t="s">
-        <x:v>61</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="D6" s="10"/>
       <x:c r="E6" s="10">
@@ -1572,18 +1590,18 @@
       <x:c r="G6" s="10"/>
       <x:c r="H6" s="10"/>
       <x:c r="I6" s="10" t="s">
-        <x:v>26</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="J6" s="10"/>
       <x:c r="K6" s="10"/>
     </x:row>
     <x:row r="7" spans="1:11">
       <x:c r="A7" s="10" t="s">
-        <x:v>85</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B7" s="10"/>
       <x:c r="C7" s="10" t="s">
-        <x:v>61</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="D7" s="10"/>
       <x:c r="E7" s="10">
@@ -1593,18 +1611,18 @@
       <x:c r="G7" s="10"/>
       <x:c r="H7" s="10"/>
       <x:c r="I7" s="10" t="s">
-        <x:v>18</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="J7" s="10"/>
       <x:c r="K7" s="10"/>
     </x:row>
     <x:row r="8" spans="1:11">
       <x:c r="A8" s="10" t="s">
-        <x:v>81</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="B8" s="10"/>
       <x:c r="C8" s="10" t="s">
-        <x:v>61</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="D8" s="10"/>
       <x:c r="E8" s="10">
@@ -1612,22 +1630,22 @@
       </x:c>
       <x:c r="F8" s="10"/>
       <x:c r="G8" s="10" t="s">
-        <x:v>89</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="H8" s="10"/>
       <x:c r="I8" s="10" t="s">
-        <x:v>24</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="J8" s="10"/>
       <x:c r="K8" s="10"/>
     </x:row>
     <x:row r="9" spans="1:11">
       <x:c r="A9" s="10" t="s">
-        <x:v>88</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="B9" s="10"/>
       <x:c r="C9" s="10" t="s">
-        <x:v>61</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="D9" s="10"/>
       <x:c r="E9" s="10">
@@ -1635,41 +1653,41 @@
       </x:c>
       <x:c r="F9" s="10"/>
       <x:c r="G9" s="10" t="s">
-        <x:v>64</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="H9" s="10"/>
       <x:c r="I9" s="10" t="s">
-        <x:v>21</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="J9" s="10"/>
       <x:c r="K9" s="10"/>
     </x:row>
     <x:row r="10" spans="1:11">
       <x:c r="A10" s="10" t="s">
-        <x:v>90</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="B10" s="10"/>
       <x:c r="C10" s="10" t="s">
-        <x:v>32</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D10" s="10"/>
       <x:c r="E10" s="10" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="F10" s="10"/>
       <x:c r="G10" s="10" t="s">
-        <x:v>64</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="H10" s="10"/>
       <x:c r="I10" s="10" t="s">
-        <x:v>25</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="J10" s="10"/>
       <x:c r="K10" s="10"/>
     </x:row>
     <x:row r="11" spans="1:11">
       <x:c r="A11" s="11" t="s">
-        <x:v>91</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="B11" s="11"/>
       <x:c r="C11" s="11"/>
@@ -1684,7 +1702,7 @@
     </x:row>
     <x:row r="12" spans="1:11">
       <x:c r="A12" s="12" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="B12" s="10"/>
       <x:c r="C12" s="10"/>
@@ -1859,7 +1877,7 @@
     <x:mergeCell ref="G5:H5"/>
     <x:mergeCell ref="G6:H6"/>
   </x:mergeCells>
-  <x:pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <x:pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="4294967293" verticalDpi="4294967293" copies="1"/>
 </x:worksheet>
 </file>
@@ -1877,7 +1895,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:11">
       <x:c r="A1" s="6" t="s">
-        <x:v>80</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="B1" s="6"/>
       <x:c r="C1" s="6"/>
@@ -1905,7 +1923,7 @@
     </x:row>
     <x:row r="3" spans="1:11">
       <x:c r="A3" s="7" t="s">
-        <x:v>86</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="B3" s="7"/>
       <x:c r="C3" s="7"/>
@@ -1920,34 +1938,34 @@
     </x:row>
     <x:row r="4" spans="1:11">
       <x:c r="A4" s="6" t="s">
-        <x:v>56</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="B4" s="6"/>
       <x:c r="C4" s="6" t="s">
-        <x:v>57</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="D4" s="6"/>
       <x:c r="E4" s="8" t="s">
-        <x:v>17</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F4" s="9"/>
       <x:c r="G4" s="6" t="s">
-        <x:v>58</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="H4" s="6"/>
       <x:c r="I4" s="6" t="s">
-        <x:v>59</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="J4" s="6"/>
       <x:c r="K4" s="6"/>
     </x:row>
     <x:row r="5" spans="1:11">
       <x:c r="A5" s="10" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B5" s="10"/>
       <x:c r="C5" s="10" t="s">
-        <x:v>61</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="D5" s="10"/>
       <x:c r="E5" s="10">
@@ -1955,64 +1973,64 @@
       </x:c>
       <x:c r="F5" s="10"/>
       <x:c r="G5" s="10" t="s">
-        <x:v>47</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="H5" s="10"/>
       <x:c r="I5" s="10" t="s">
-        <x:v>84</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="J5" s="10"/>
       <x:c r="K5" s="10"/>
     </x:row>
     <x:row r="6" spans="1:11">
       <x:c r="A6" s="10" t="s">
-        <x:v>41</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="B6" s="10"/>
       <x:c r="C6" s="10" t="s">
-        <x:v>32</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D6" s="10"/>
       <x:c r="E6" s="10" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="F6" s="10"/>
       <x:c r="G6" s="10" t="s">
-        <x:v>47</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="H6" s="10"/>
       <x:c r="I6" s="10" t="s">
-        <x:v>15</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="J6" s="10"/>
       <x:c r="K6" s="10"/>
     </x:row>
     <x:row r="7" spans="1:11">
       <x:c r="A7" s="10" t="s">
-        <x:v>19</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="B7" s="10"/>
       <x:c r="C7" s="10" t="s">
-        <x:v>28</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="D7" s="10"/>
       <x:c r="E7" s="10" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="F7" s="10"/>
       <x:c r="G7" s="10" t="s">
-        <x:v>64</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="H7" s="10"/>
       <x:c r="I7" s="10" t="s">
-        <x:v>30</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="J7" s="10"/>
       <x:c r="K7" s="10"/>
     </x:row>
     <x:row r="8" spans="1:11">
       <x:c r="A8" s="11" t="s">
-        <x:v>91</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="B8" s="11"/>
       <x:c r="C8" s="11"/>
@@ -2027,7 +2045,7 @@
     </x:row>
     <x:row r="9" spans="1:11">
       <x:c r="A9" s="12" t="s">
-        <x:v>7</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="B9" s="10"/>
       <x:c r="C9" s="10"/>
@@ -2187,7 +2205,7 @@
     <x:mergeCell ref="G7:H7"/>
     <x:mergeCell ref="I7:K7"/>
   </x:mergeCells>
-  <x:pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <x:pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="4294967293" verticalDpi="4294967293" copies="1"/>
 </x:worksheet>
 </file>
@@ -2197,7 +2215,7 @@
   <x:sheetPr codeName="Sheet3"/>
   <x:dimension ref="A1:M23"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="125" workbookViewId="0">
+    <x:sheetView topLeftCell="A1" zoomScaleNormal="125" workbookViewId="0">
       <x:selection activeCell="A11" activeCellId="0" sqref="A11:K20"/>
     </x:sheetView>
   </x:sheetViews>
@@ -2205,7 +2223,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:11">
       <x:c r="A1" s="6" t="s">
-        <x:v>22</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="B1" s="6"/>
       <x:c r="C1" s="6"/>
@@ -2233,7 +2251,7 @@
     </x:row>
     <x:row r="3" spans="1:11">
       <x:c r="A3" s="7" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="B3" s="7"/>
       <x:c r="C3" s="7"/>
@@ -2248,57 +2266,57 @@
     </x:row>
     <x:row r="4" spans="1:11">
       <x:c r="A4" s="6" t="s">
-        <x:v>56</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="B4" s="6"/>
       <x:c r="C4" s="6" t="s">
-        <x:v>57</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="D4" s="6"/>
       <x:c r="E4" s="8" t="s">
-        <x:v>17</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F4" s="9"/>
       <x:c r="G4" s="6" t="s">
-        <x:v>58</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="H4" s="6"/>
       <x:c r="I4" s="6" t="s">
-        <x:v>59</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="J4" s="6"/>
       <x:c r="K4" s="6"/>
     </x:row>
     <x:row r="5" spans="1:11">
       <x:c r="A5" s="10" t="s">
-        <x:v>67</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="B5" s="10"/>
       <x:c r="C5" s="10" t="s">
-        <x:v>32</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D5" s="10"/>
       <x:c r="E5" s="10" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="F5" s="10"/>
       <x:c r="G5" s="10" t="s">
-        <x:v>89</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="H5" s="10"/>
       <x:c r="I5" s="10" t="s">
-        <x:v>68</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="J5" s="10"/>
       <x:c r="K5" s="10"/>
     </x:row>
     <x:row r="6" spans="1:11">
       <x:c r="A6" s="10" t="s">
-        <x:v>62</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="B6" s="10"/>
       <x:c r="C6" s="10" t="s">
-        <x:v>61</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="D6" s="10"/>
       <x:c r="E6" s="10">
@@ -2306,22 +2324,22 @@
       </x:c>
       <x:c r="F6" s="10"/>
       <x:c r="G6" s="10" t="s">
-        <x:v>64</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="H6" s="10"/>
       <x:c r="I6" s="10" t="s">
-        <x:v>31</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="J6" s="10"/>
       <x:c r="K6" s="10"/>
     </x:row>
     <x:row r="7" spans="1:11">
       <x:c r="A7" s="10" t="s">
-        <x:v>63</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="B7" s="10"/>
       <x:c r="C7" s="10" t="s">
-        <x:v>61</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="D7" s="10"/>
       <x:c r="E7" s="10">
@@ -2331,41 +2349,41 @@
       <x:c r="G7" s="10"/>
       <x:c r="H7" s="10"/>
       <x:c r="I7" s="10" t="s">
-        <x:v>29</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="J7" s="10"/>
       <x:c r="K7" s="10"/>
     </x:row>
     <x:row r="8" spans="1:11">
       <x:c r="A8" s="10" t="s">
-        <x:v>65</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="B8" s="10"/>
       <x:c r="C8" s="10" t="s">
-        <x:v>32</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D8" s="10"/>
       <x:c r="E8" s="10" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="F8" s="10"/>
       <x:c r="G8" s="10" t="s">
-        <x:v>64</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="H8" s="10"/>
       <x:c r="I8" s="10" t="s">
-        <x:v>34</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="J8" s="10"/>
       <x:c r="K8" s="10"/>
     </x:row>
     <x:row r="9" spans="1:11">
       <x:c r="A9" s="10" t="s">
-        <x:v>66</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="B9" s="10"/>
       <x:c r="C9" s="10" t="s">
-        <x:v>61</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="D9" s="10"/>
       <x:c r="E9" s="10">
@@ -2373,18 +2391,18 @@
       </x:c>
       <x:c r="F9" s="10"/>
       <x:c r="G9" s="10" t="s">
-        <x:v>64</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="H9" s="10"/>
       <x:c r="I9" s="10" t="s">
-        <x:v>44</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="J9" s="10"/>
       <x:c r="K9" s="10"/>
     </x:row>
     <x:row r="10" spans="1:11">
       <x:c r="A10" s="11" t="s">
-        <x:v>91</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="B10" s="11"/>
       <x:c r="C10" s="11"/>
@@ -2399,7 +2417,7 @@
     </x:row>
     <x:row r="11" spans="1:11">
       <x:c r="A11" s="12" t="s">
-        <x:v>2</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B11" s="10"/>
       <x:c r="C11" s="10"/>
@@ -2569,7 +2587,7 @@
     <x:mergeCell ref="G9:H9"/>
     <x:mergeCell ref="I9:K9"/>
   </x:mergeCells>
-  <x:pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <x:pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="4294967293" verticalDpi="4294967293" copies="1"/>
 </x:worksheet>
 </file>
@@ -2579,15 +2597,15 @@
   <x:sheetPr codeName="Sheet4"/>
   <x:dimension ref="A1:M22"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A1" zoomScaleNormal="125" workbookViewId="0">
-      <x:selection activeCell="A9" activeCellId="0" sqref="A9:K9"/>
+    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="125" workbookViewId="0">
+      <x:selection activeCell="A10" activeCellId="0" sqref="A10:K19"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.399999999999999"/>
   <x:sheetData>
     <x:row r="1" spans="1:11">
       <x:c r="A1" s="6" t="s">
-        <x:v>35</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="B1" s="6"/>
       <x:c r="C1" s="6"/>
@@ -2615,7 +2633,7 @@
     </x:row>
     <x:row r="3" spans="1:11">
       <x:c r="A3" s="7" t="s">
-        <x:v>3</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="B3" s="7"/>
       <x:c r="C3" s="7"/>
@@ -2630,57 +2648,57 @@
     </x:row>
     <x:row r="4" spans="1:11">
       <x:c r="A4" s="6" t="s">
-        <x:v>56</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="B4" s="6"/>
       <x:c r="C4" s="6" t="s">
-        <x:v>57</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="D4" s="6"/>
       <x:c r="E4" s="8" t="s">
-        <x:v>17</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F4" s="9"/>
       <x:c r="G4" s="6" t="s">
-        <x:v>58</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="H4" s="6"/>
       <x:c r="I4" s="6" t="s">
-        <x:v>59</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="J4" s="6"/>
       <x:c r="K4" s="6"/>
     </x:row>
     <x:row r="5" spans="1:11">
       <x:c r="A5" s="10" t="s">
-        <x:v>41</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="B5" s="10"/>
       <x:c r="C5" s="10" t="s">
-        <x:v>32</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D5" s="10"/>
       <x:c r="E5" s="10" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="F5" s="10"/>
       <x:c r="G5" s="10" t="s">
-        <x:v>47</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="H5" s="10"/>
       <x:c r="I5" s="10" t="s">
-        <x:v>77</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="J5" s="10"/>
       <x:c r="K5" s="10"/>
     </x:row>
     <x:row r="6" spans="1:11">
       <x:c r="A6" s="10" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B6" s="10"/>
       <x:c r="C6" s="10" t="s">
-        <x:v>61</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="D6" s="10"/>
       <x:c r="E6" s="10">
@@ -2688,62 +2706,62 @@
       </x:c>
       <x:c r="F6" s="10"/>
       <x:c r="G6" s="10" t="s">
-        <x:v>47</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="H6" s="10"/>
       <x:c r="I6" s="10" t="s">
-        <x:v>24</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="J6" s="10"/>
       <x:c r="K6" s="10"/>
     </x:row>
     <x:row r="7" spans="1:11">
       <x:c r="A7" s="10" t="s">
-        <x:v>49</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="B7" s="10"/>
       <x:c r="C7" s="10" t="s">
-        <x:v>32</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D7" s="10"/>
       <x:c r="E7" s="10" t="s">
-        <x:v>36</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="F7" s="10"/>
       <x:c r="G7" s="10"/>
       <x:c r="H7" s="10"/>
       <x:c r="I7" s="10" t="s">
-        <x:v>93</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="J7" s="10"/>
       <x:c r="K7" s="10"/>
     </x:row>
     <x:row r="8" spans="1:11">
       <x:c r="A8" s="10" t="s">
-        <x:v>92</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="B8" s="10"/>
       <x:c r="C8" s="10" t="s">
-        <x:v>32</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D8" s="10"/>
       <x:c r="E8" s="10" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="F8" s="10"/>
       <x:c r="G8" s="10" t="s">
-        <x:v>14</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="H8" s="10"/>
       <x:c r="I8" s="10" t="s">
-        <x:v>74</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="J8" s="10"/>
       <x:c r="K8" s="10"/>
     </x:row>
     <x:row r="9" spans="1:11">
       <x:c r="A9" s="11" t="s">
-        <x:v>91</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="B9" s="11"/>
       <x:c r="C9" s="11"/>
@@ -2757,8 +2775,8 @@
       <x:c r="K9" s="11"/>
     </x:row>
     <x:row r="10" spans="1:11">
-      <x:c r="A10" s="12" t="s">
-        <x:v>4</x:v>
+      <x:c r="A10" s="15" t="s">
+        <x:v>55</x:v>
       </x:c>
       <x:c r="B10" s="10"/>
       <x:c r="C10" s="10"/>
@@ -2923,7 +2941,7 @@
     <x:mergeCell ref="G8:H8"/>
     <x:mergeCell ref="I8:K8"/>
   </x:mergeCells>
-  <x:pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <x:pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="4294967293" verticalDpi="4294967293" copies="1"/>
 </x:worksheet>
 </file>
@@ -2941,7 +2959,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:11">
       <x:c r="A1" s="6" t="s">
-        <x:v>45</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="B1" s="6"/>
       <x:c r="C1" s="6"/>
@@ -2969,7 +2987,7 @@
     </x:row>
     <x:row r="3" spans="1:11">
       <x:c r="A3" s="7" t="s">
-        <x:v>16</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B3" s="7"/>
       <x:c r="C3" s="7"/>
@@ -2984,103 +3002,103 @@
     </x:row>
     <x:row r="4" spans="1:11">
       <x:c r="A4" s="6" t="s">
-        <x:v>56</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="B4" s="6"/>
       <x:c r="C4" s="6" t="s">
-        <x:v>57</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="D4" s="6"/>
       <x:c r="E4" s="8" t="s">
-        <x:v>17</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F4" s="9"/>
       <x:c r="G4" s="6" t="s">
-        <x:v>58</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="H4" s="6"/>
       <x:c r="I4" s="6" t="s">
-        <x:v>59</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="J4" s="6"/>
       <x:c r="K4" s="6"/>
     </x:row>
     <x:row r="5" spans="1:11">
       <x:c r="A5" s="10" t="s">
-        <x:v>41</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="B5" s="10"/>
       <x:c r="C5" s="10" t="s">
-        <x:v>61</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="D5" s="10"/>
       <x:c r="E5" s="10" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="F5" s="10"/>
       <x:c r="G5" s="10" t="s">
-        <x:v>76</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="H5" s="10"/>
       <x:c r="I5" s="10" t="s">
-        <x:v>68</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="J5" s="10"/>
       <x:c r="K5" s="10"/>
     </x:row>
     <x:row r="6" spans="1:11">
       <x:c r="A6" s="10" t="s">
-        <x:v>92</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="B6" s="10"/>
       <x:c r="C6" s="10" t="s">
-        <x:v>61</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="D6" s="10"/>
       <x:c r="E6" s="10" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="F6" s="10"/>
       <x:c r="G6" s="10" t="s">
-        <x:v>14</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="H6" s="10"/>
       <x:c r="I6" s="10" t="s">
-        <x:v>83</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="J6" s="10"/>
       <x:c r="K6" s="10"/>
     </x:row>
     <x:row r="7" spans="1:11">
       <x:c r="A7" s="10" t="s">
-        <x:v>46</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="B7" s="10"/>
       <x:c r="C7" s="10" t="s">
-        <x:v>61</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="D7" s="10"/>
       <x:c r="E7" s="10" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="F7" s="10"/>
       <x:c r="G7" s="10" t="s">
-        <x:v>64</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="H7" s="10"/>
       <x:c r="I7" s="10" t="s">
-        <x:v>33</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="J7" s="10"/>
       <x:c r="K7" s="10"/>
     </x:row>
     <x:row r="8" spans="1:11">
       <x:c r="A8" s="10" t="s">
-        <x:v>69</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="B8" s="10"/>
       <x:c r="C8" s="10" t="s">
-        <x:v>61</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="D8" s="10"/>
       <x:c r="E8" s="10">
@@ -3088,18 +3106,18 @@
       </x:c>
       <x:c r="F8" s="10"/>
       <x:c r="G8" s="10" t="s">
-        <x:v>64</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="H8" s="10"/>
       <x:c r="I8" s="10" t="s">
-        <x:v>54</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="J8" s="10"/>
       <x:c r="K8" s="10"/>
     </x:row>
     <x:row r="9" spans="1:11">
       <x:c r="A9" s="11" t="s">
-        <x:v>91</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="B9" s="11"/>
       <x:c r="C9" s="11"/>
@@ -3114,7 +3132,7 @@
     </x:row>
     <x:row r="10" spans="1:11">
       <x:c r="A10" s="12" t="s">
-        <x:v>6</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="B10" s="10"/>
       <x:c r="C10" s="10"/>
@@ -3279,7 +3297,7 @@
     <x:mergeCell ref="G8:H8"/>
     <x:mergeCell ref="I8:K8"/>
   </x:mergeCells>
-  <x:pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <x:pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="4294967293" verticalDpi="4294967293" copies="1"/>
 </x:worksheet>
 </file>
@@ -3297,7 +3315,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:11">
       <x:c r="A1" s="6" t="s">
-        <x:v>37</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="B1" s="6"/>
       <x:c r="C1" s="6"/>
@@ -3325,7 +3343,7 @@
     </x:row>
     <x:row r="3" spans="1:11">
       <x:c r="A3" s="7" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="B3" s="7"/>
       <x:c r="C3" s="7"/>
@@ -3340,57 +3358,57 @@
     </x:row>
     <x:row r="4" spans="1:11">
       <x:c r="A4" s="6" t="s">
-        <x:v>56</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="B4" s="6"/>
       <x:c r="C4" s="6" t="s">
-        <x:v>57</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="D4" s="6"/>
       <x:c r="E4" s="8" t="s">
-        <x:v>17</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F4" s="9"/>
       <x:c r="G4" s="6" t="s">
-        <x:v>58</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="H4" s="6"/>
       <x:c r="I4" s="6" t="s">
-        <x:v>59</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="J4" s="6"/>
       <x:c r="K4" s="6"/>
     </x:row>
     <x:row r="5" spans="1:11">
       <x:c r="A5" s="10" t="s">
-        <x:v>92</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="B5" s="10"/>
       <x:c r="C5" s="10" t="s">
-        <x:v>32</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D5" s="10"/>
       <x:c r="E5" s="10" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="F5" s="10"/>
       <x:c r="G5" s="10" t="s">
-        <x:v>89</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="H5" s="10"/>
       <x:c r="I5" s="10" t="s">
-        <x:v>82</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="J5" s="10"/>
       <x:c r="K5" s="10"/>
     </x:row>
     <x:row r="6" spans="1:11">
       <x:c r="A6" s="10" t="s">
-        <x:v>75</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="B6" s="10"/>
       <x:c r="C6" s="10" t="s">
-        <x:v>61</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="D6" s="10"/>
       <x:c r="E6" s="10">
@@ -3398,18 +3416,18 @@
       </x:c>
       <x:c r="F6" s="10"/>
       <x:c r="G6" s="10" t="s">
-        <x:v>89</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="H6" s="10"/>
       <x:c r="I6" s="10" t="s">
-        <x:v>42</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="J6" s="10"/>
       <x:c r="K6" s="10"/>
     </x:row>
     <x:row r="7" spans="1:11">
       <x:c r="A7" s="11" t="s">
-        <x:v>91</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="B7" s="11"/>
       <x:c r="C7" s="11"/>
@@ -3424,7 +3442,7 @@
     </x:row>
     <x:row r="8" spans="1:11">
       <x:c r="A8" s="12" t="s">
-        <x:v>5</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="B8" s="10"/>
       <x:c r="C8" s="10"/>
@@ -3579,7 +3597,7 @@
     <x:mergeCell ref="G6:H6"/>
     <x:mergeCell ref="I6:K6"/>
   </x:mergeCells>
-  <x:pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <x:pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="4294967293" verticalDpi="4294967293" copies="1"/>
 </x:worksheet>
 </file>
@@ -3597,7 +3615,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:11">
       <x:c r="A1" s="6" t="s">
-        <x:v>72</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="B1" s="6"/>
       <x:c r="C1" s="6"/>
@@ -3625,7 +3643,7 @@
     </x:row>
     <x:row r="3" spans="1:11">
       <x:c r="A3" s="7" t="s">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="B3" s="7"/>
       <x:c r="C3" s="7"/>
@@ -3640,80 +3658,80 @@
     </x:row>
     <x:row r="4" spans="1:11">
       <x:c r="A4" s="6" t="s">
-        <x:v>56</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="B4" s="6"/>
       <x:c r="C4" s="6" t="s">
-        <x:v>57</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="D4" s="6"/>
       <x:c r="E4" s="8" t="s">
-        <x:v>17</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F4" s="9"/>
       <x:c r="G4" s="6" t="s">
-        <x:v>58</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="H4" s="6"/>
       <x:c r="I4" s="6" t="s">
-        <x:v>59</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="J4" s="6"/>
       <x:c r="K4" s="6"/>
     </x:row>
     <x:row r="5" spans="1:11">
       <x:c r="A5" s="10" t="s">
-        <x:v>41</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="B5" s="10"/>
       <x:c r="C5" s="10" t="s">
-        <x:v>32</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D5" s="10"/>
       <x:c r="E5" s="10" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="F5" s="10"/>
       <x:c r="G5" s="10" t="s">
-        <x:v>47</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="H5" s="10"/>
       <x:c r="I5" s="10" t="s">
-        <x:v>70</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="J5" s="10"/>
       <x:c r="K5" s="10"/>
     </x:row>
     <x:row r="6" spans="1:11">
       <x:c r="A6" s="10" t="s">
-        <x:v>92</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="B6" s="10"/>
       <x:c r="C6" s="10" t="s">
-        <x:v>32</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D6" s="10"/>
       <x:c r="E6" s="10" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="F6" s="10"/>
       <x:c r="G6" s="10" t="s">
-        <x:v>89</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="H6" s="10"/>
       <x:c r="I6" s="10" t="s">
-        <x:v>78</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="J6" s="10"/>
       <x:c r="K6" s="10"/>
     </x:row>
     <x:row r="7" spans="1:11">
       <x:c r="A7" s="10" t="s">
-        <x:v>38</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="B7" s="10"/>
       <x:c r="C7" s="10" t="s">
-        <x:v>61</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="D7" s="10"/>
       <x:c r="E7" s="10">
@@ -3723,18 +3741,18 @@
       <x:c r="G7" s="10"/>
       <x:c r="H7" s="10"/>
       <x:c r="I7" s="10" t="s">
-        <x:v>48</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="J7" s="10"/>
       <x:c r="K7" s="10"/>
     </x:row>
     <x:row r="8" spans="1:11">
       <x:c r="A8" s="10" t="s">
-        <x:v>71</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="B8" s="10"/>
       <x:c r="C8" s="10" t="s">
-        <x:v>61</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="D8" s="10"/>
       <x:c r="E8" s="10">
@@ -3742,7 +3760,7 @@
       </x:c>
       <x:c r="F8" s="10"/>
       <x:c r="G8" s="10" t="s">
-        <x:v>64</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="H8" s="10"/>
       <x:c r="I8" s="10" t="s">
@@ -3753,30 +3771,30 @@
     </x:row>
     <x:row r="9" spans="1:11">
       <x:c r="A9" s="10" t="s">
-        <x:v>46</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="B9" s="10"/>
       <x:c r="C9" s="10" t="s">
-        <x:v>32</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D9" s="10"/>
       <x:c r="E9" s="10" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="F9" s="10"/>
       <x:c r="G9" s="10" t="s">
-        <x:v>64</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="H9" s="10"/>
       <x:c r="I9" s="10" t="s">
-        <x:v>50</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="J9" s="10"/>
       <x:c r="K9" s="10"/>
     </x:row>
     <x:row r="10" spans="1:11">
       <x:c r="A10" s="11" t="s">
-        <x:v>91</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="B10" s="11"/>
       <x:c r="C10" s="11"/>
@@ -3791,7 +3809,7 @@
     </x:row>
     <x:row r="11" spans="1:11">
       <x:c r="A11" s="12" t="s">
-        <x:v>8</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B11" s="10"/>
       <x:c r="C11" s="10"/>
@@ -3961,7 +3979,7 @@
     <x:mergeCell ref="G9:H9"/>
     <x:mergeCell ref="I9:K9"/>
   </x:mergeCells>
-  <x:pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <x:pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="4294967293" verticalDpi="4294967293" copies="1"/>
 </x:worksheet>
 </file>
@@ -3979,7 +3997,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:11">
       <x:c r="A1" s="6" t="s">
-        <x:v>55</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="B1" s="6"/>
       <x:c r="C1" s="6"/>
@@ -4007,7 +4025,7 @@
     </x:row>
     <x:row r="3" spans="1:11">
       <x:c r="A3" s="7" t="s">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="B3" s="7"/>
       <x:c r="C3" s="7"/>
@@ -4022,57 +4040,57 @@
     </x:row>
     <x:row r="4" spans="1:11">
       <x:c r="A4" s="6" t="s">
-        <x:v>56</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="B4" s="6"/>
       <x:c r="C4" s="6" t="s">
-        <x:v>57</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="D4" s="6"/>
       <x:c r="E4" s="8" t="s">
-        <x:v>17</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F4" s="9"/>
       <x:c r="G4" s="6" t="s">
-        <x:v>58</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="H4" s="6"/>
       <x:c r="I4" s="6" t="s">
-        <x:v>59</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="J4" s="6"/>
       <x:c r="K4" s="6"/>
     </x:row>
     <x:row r="5" spans="1:11">
       <x:c r="A5" s="10" t="s">
-        <x:v>41</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="B5" s="10"/>
       <x:c r="C5" s="10" t="s">
-        <x:v>32</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D5" s="10"/>
       <x:c r="E5" s="10" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="F5" s="10"/>
       <x:c r="G5" s="10" t="s">
-        <x:v>47</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="H5" s="10"/>
       <x:c r="I5" s="10" t="s">
-        <x:v>79</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="J5" s="10"/>
       <x:c r="K5" s="10"/>
     </x:row>
     <x:row r="6" spans="1:11">
       <x:c r="A6" s="10" t="s">
-        <x:v>20</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="B6" s="10"/>
       <x:c r="C6" s="10" t="s">
-        <x:v>61</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="D6" s="10"/>
       <x:c r="E6" s="10">
@@ -4082,18 +4100,18 @@
       <x:c r="G6" s="13"/>
       <x:c r="H6" s="14"/>
       <x:c r="I6" s="10" t="s">
-        <x:v>53</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="J6" s="10"/>
       <x:c r="K6" s="10"/>
     </x:row>
     <x:row r="7" spans="1:11">
       <x:c r="A7" s="10" t="s">
-        <x:v>23</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="B7" s="10"/>
       <x:c r="C7" s="10" t="s">
-        <x:v>61</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="D7" s="10"/>
       <x:c r="E7" s="10">
@@ -4103,18 +4121,18 @@
       <x:c r="G7" s="10"/>
       <x:c r="H7" s="10"/>
       <x:c r="I7" s="10" t="s">
-        <x:v>40</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="J7" s="10"/>
       <x:c r="K7" s="10"/>
     </x:row>
     <x:row r="8" spans="1:11">
       <x:c r="A8" s="10" t="s">
-        <x:v>85</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B8" s="10"/>
       <x:c r="C8" s="10" t="s">
-        <x:v>61</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="D8" s="10"/>
       <x:c r="E8" s="10">
@@ -4124,18 +4142,18 @@
       <x:c r="G8" s="10"/>
       <x:c r="H8" s="10"/>
       <x:c r="I8" s="10" t="s">
-        <x:v>43</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="J8" s="10"/>
       <x:c r="K8" s="10"/>
     </x:row>
     <x:row r="9" spans="1:11">
       <x:c r="A9" s="10" t="s">
-        <x:v>73</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="B9" s="10"/>
       <x:c r="C9" s="10" t="s">
-        <x:v>61</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="D9" s="10"/>
       <x:c r="E9" s="10">
@@ -4143,22 +4161,22 @@
       </x:c>
       <x:c r="F9" s="10"/>
       <x:c r="G9" s="10" t="s">
-        <x:v>89</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="H9" s="10"/>
       <x:c r="I9" s="10" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="J9" s="10"/>
       <x:c r="K9" s="10"/>
     </x:row>
     <x:row r="10" spans="1:11">
       <x:c r="A10" s="10" t="s">
-        <x:v>88</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="B10" s="10"/>
       <x:c r="C10" s="10" t="s">
-        <x:v>61</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="D10" s="10"/>
       <x:c r="E10" s="10">
@@ -4166,41 +4184,41 @@
       </x:c>
       <x:c r="F10" s="10"/>
       <x:c r="G10" s="10" t="s">
-        <x:v>64</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="H10" s="10"/>
       <x:c r="I10" s="10" t="s">
-        <x:v>53</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="J10" s="10"/>
       <x:c r="K10" s="10"/>
     </x:row>
     <x:row r="11" spans="1:11">
       <x:c r="A11" s="10" t="s">
-        <x:v>90</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="B11" s="10"/>
       <x:c r="C11" s="10" t="s">
-        <x:v>32</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D11" s="10"/>
       <x:c r="E11" s="10" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="F11" s="10"/>
       <x:c r="G11" s="10" t="s">
-        <x:v>64</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="H11" s="10"/>
       <x:c r="I11" s="10" t="s">
-        <x:v>52</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="J11" s="10"/>
       <x:c r="K11" s="10"/>
     </x:row>
     <x:row r="12" spans="1:11">
       <x:c r="A12" s="11" t="s">
-        <x:v>91</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="B12" s="11"/>
       <x:c r="C12" s="11"/>
@@ -4215,7 +4233,7 @@
     </x:row>
     <x:row r="13" spans="1:11">
       <x:c r="A13" s="12" t="s">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="B13" s="10"/>
       <x:c r="C13" s="10"/>
@@ -4395,7 +4413,7 @@
     <x:mergeCell ref="E11:F11"/>
     <x:mergeCell ref="G11:H11"/>
   </x:mergeCells>
-  <x:pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <x:pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="4294967293" verticalDpi="4294967293" copies="1"/>
 </x:worksheet>
 </file>
--- a/phase2/README.xlsx
+++ b/phase2/README.xlsx
@@ -3,7 +3,7 @@
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:fileVersion appName="HCell" lastEdited="9.1" lowestEdited="9.1" rupBuild="1.3237"/>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="28305" windowHeight="11265" activeTab="3"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="13140" windowHeight="9180" firstSheet="5" activeTab="7"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="CUSTOMER" sheetId="1" r:id="rId4"/>
@@ -22,6 +22,332 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="96">
   <x:si>
+    <x:t>create table store(
+    Breg_number number not null primary key,
+    Store_name varchar2(40) not null,
+    Store_type varchar2(20),
+    Seat_number number not null,
+    Location varchar2(70) not null
+);</x:t>
+  </x:si>
+  <x:si>
+    <x:t>not null, UNIQUE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>예약한 가게의 Brenumber</x:t>
+  </x:si>
+  <x:si>
+    <x:t>음식 정보를 가지고 있는 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>점주 정보를 담고 있는 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>음료 정보를 담고 있는 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>원산지 정보를 담고 있는 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가게 정보를 담고 있는 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>고객 정보를 담고 있는 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>고객이 가게에 대한 평가를 담고 있는 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>size</x:t>
+  </x:si>
+  <x:si>
+    <x:t>고객 전화번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fname</x:t>
+  </x:si>
+  <x:si>
+    <x:t>STORE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>고객의 성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Time</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Cemail</x:t>
+  </x:si>
+  <x:si>
+    <x:t>원산지 국가명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>알코올 여부</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Score</x:t>
+  </x:si>
+  <x:si>
+    <x:t>점주의 나이</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ORIGIN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NUMBER</x:t>
+  </x:si>
+  <x:si>
+    <x:t>점주 전화번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>점주의 이메일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>점주의 성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>음식 이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가게 종류</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가게 이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lname</x:t>
+  </x:si>
+  <x:si>
+    <x:t>음식 가격</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Alcohol</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RATING</x:t>
+  </x:si>
+  <x:si>
+    <x:t>음료 이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(2,1)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DATE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>고객의 이메일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>음료 가격</x:t>
+  </x:si>
+  <x:si>
+    <x:t>점주의 이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PK, FK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>고객의 나이</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bnum</x:t>
+  </x:si>
+  <x:si>
+    <x:t>고객의 이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FOOD</x:t>
+  </x:si>
+  <x:si>
+    <x:t>예약한 시간대</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가게 좌석수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가게 위치</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Price</x:t>
+  </x:si>
+  <x:si>
+    <x:t>OWNER</x:t>
+  </x:si>
+  <x:si>
+    <x:t>create table cust_books_str(
+    Cemail varchar2(50) not null references customer(Customer_email),
+    Bnum number not null references store(Breg_number),
+    Time date not null,
+    constraint pk_cust_books_str primary key(Cemail, Bnum)
+);</x:t>
+  </x:si>
+  <x:si>
+    <x:t>음료 tuple 일련번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>소유한 가게의 사업자등록번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FK, not null</x:t>
+  </x:si>
+  <x:si>
+    <x:t>원산지 tuple 일련번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Customer_email</x:t>
+  </x:si>
+  <x:si>
+    <x:t>음식 tuple 일련번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>예약한 고객의 Email</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Phone_number</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Country_name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CUST_BOOKS_STR</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가게의 사업자 등록번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>평가 tuple 일련번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Store_name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Store_type</x:t>
+  </x:si>
+  <x:si>
+    <x:t>column name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CUSTOMER</x:t>
+  </x:si>
+  <x:si>
+    <x:t>value type</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Seat_number</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Location</x:t>
+  </x:si>
+  <x:si>
+    <x:t>not null</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VARCHAR2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Breg_number</x:t>
+  </x:si>
+  <x:si>
+    <x:t>properties</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Description</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가게의 사업자등록번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가게 사업자등록번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Food_name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BEVERAGE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Drink_name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Owner_email</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FK not null</x:t>
+  </x:si>
+  <x:si>
+    <x:t>create table owner(
+    Bnum number not null references store(breg_number),
+    Fname varchar2(2),
+    Lname varchar2(4),
+    Phone_number varchar2(11),
+    Owner_email varchar2(50) not null unique,
+    Sex char not null,
+    Age number not null, 
+    constraint pk_owner primary key(Bnum, Owner_email)
+);</x:t>
+  </x:si>
+  <x:si>
+    <x:t>고객의 예약 정보를 담고 있는 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Age</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DDL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Id</x:t>
+  </x:si>
+  <x:si>
+    <x:t>평점</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sex</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>create table origin(
+    Id number not null references food(Id),
+    Country_name varchar2(20),
+    constraint pk_origin_country primary key(Id, Country_name)
+);</x:t>
+  </x:si>
+  <x:si>
+    <x:t>create table beverage(
+    Bnum number not null references store(Breg_number),
+    Id number not null,
+    Alcohol varchar2(2),
+    Drink_name varchar2(30) not null,
+    Price number not null,
+    constraint pk_beverage primary key(Bnum, Id)
+);</x:t>
+  </x:si>
+  <x:si>
+    <x:t>create table food(
+    Bnum number not null references store(Breg_number),
+    Id number not null unique,
+    Price number not null,
+    Food_name varchar2(50) not null
+);</x:t>
+  </x:si>
+  <x:si>
+    <x:t>create table rating(
+    Bnum number not null references store(Breg_number),
+    Cemail varchar2(10) not null references customer(Customer_email),
+    Score number(2,1),
+    Id number not null primary key
+);</x:t>
+  </x:si>
+  <x:si>
     <x:t>create table customer(
     Fname varchar2(2),
     Lname varchar2(4),
@@ -30,332 +356,6 @@
     Sex varchar2(10) not null,
     Age number not null
 );</x:t>
-  </x:si>
-  <x:si>
-    <x:t>create table owner(
-    Bnum number not null references store(bregnumber),
-    Fname varchar2(2),
-    Lname varchar2(4),
-    Phone_number varchar2(11),
-    Owner_email varchar2(50) not null unique,
-    Sex char not null,
-    Age number not null, 
-    constraint pk_owner primary key(Bnum, Owner_email)
-);</x:t>
-  </x:si>
-  <x:si>
-    <x:t>create table food(
-    Bnum number not null references store(Breg_number),
-    Id number not null unique,
-    Price number not null,
-    Food_name varchar2(50) not null
-);</x:t>
-  </x:si>
-  <x:si>
-    <x:t>create table beverage(
-    Bnum number not null references store(Breg_number),
-    Id number not null,
-    Alcohol varchar2(2),
-    Drink_name varchar2(30) not null,
-    Price number not null,
-    constraint pk_beverage primary key(Bnum, Id)
-);</x:t>
-  </x:si>
-  <x:si>
-    <x:t>create table origin(
-    Id number not null references food(Id),
-    Country_name varchar2(20),
-    constraint pk_origin_country primary key(Id, Country_name)
-);</x:t>
-  </x:si>
-  <x:si>
-    <x:t>create table cust_books_str(
-    Cemail varchar2(50) not null references customer(Customer_email),
-    Bnum number not null references store(Breg_number),
-    Time date not null,
-    constraint pk_cust_books_str primary key(Cemail, Bnum)
-);</x:t>
-  </x:si>
-  <x:si>
-    <x:t>create table store(
-    Breg_number number not null primary key,
-    Store_name varchar2(40) not null,
-    Store_type varchar2(20),
-    Seat_number number not null,
-    Location varchar2(70) not null
-);</x:t>
-  </x:si>
-  <x:si>
-    <x:t>not null, UNIQUE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>예약한 가게의 Brenumber</x:t>
-  </x:si>
-  <x:si>
-    <x:t>음식 정보를 가지고 있는 테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>점주 정보를 담고 있는 테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>음료 정보를 담고 있는 테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>원산지 정보를 담고 있는 테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가게 정보를 담고 있는 테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>고객 정보를 담고 있는 테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>고객이 가게에 대한 평가를 담고 있는 테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>size</x:t>
-  </x:si>
-  <x:si>
-    <x:t>고객 전화번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fname</x:t>
-  </x:si>
-  <x:si>
-    <x:t>STORE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>고객의 성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Time</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Cemail</x:t>
-  </x:si>
-  <x:si>
-    <x:t>원산지 국가명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>알코올 여부</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Score</x:t>
-  </x:si>
-  <x:si>
-    <x:t>점주의 나이</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ORIGIN</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NUMBER</x:t>
-  </x:si>
-  <x:si>
-    <x:t>점주 전화번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>점주의 이메일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>점주의 성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>음식 이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가게 종류</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가게 이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lname</x:t>
-  </x:si>
-  <x:si>
-    <x:t>음식 가격</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Alcohol</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RATING</x:t>
-  </x:si>
-  <x:si>
-    <x:t>음료 이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>(2,1)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DATE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>고객의 이메일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>음료 가격</x:t>
-  </x:si>
-  <x:si>
-    <x:t>점주의 이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PK, FK</x:t>
-  </x:si>
-  <x:si>
-    <x:t>고객의 나이</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Bnum</x:t>
-  </x:si>
-  <x:si>
-    <x:t>고객의 이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FOOD</x:t>
-  </x:si>
-  <x:si>
-    <x:t>예약한 시간대</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가게 좌석수</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가게 위치</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Price</x:t>
-  </x:si>
-  <x:si>
-    <x:t>OWNER</x:t>
-  </x:si>
-  <x:si>
-    <x:t>create table rating(
-    Bnum number not null references store(Breg_number),
-    Cemail varchar2(10) not null references customer(Customer_email),
-    Score number(2,1),
-    Id number not null primary key
-);</x:t>
-  </x:si>
-  <x:si>
-    <x:t>음료 tuple 일련번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>소유한 가게의 사업자등록번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FK, not null</x:t>
-  </x:si>
-  <x:si>
-    <x:t>원산지 tuple 일련번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Customer_email</x:t>
-  </x:si>
-  <x:si>
-    <x:t>음식 tuple 일련번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>예약한 고객의 Email</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Phone_number</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Country_name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CUST_BOOKS_STR</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가게의 사업자 등록번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>평가 tuple 일련번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Store_name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Store_type</x:t>
-  </x:si>
-  <x:si>
-    <x:t>column name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CUSTOMER</x:t>
-  </x:si>
-  <x:si>
-    <x:t>value type</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Seat_number</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Location</x:t>
-  </x:si>
-  <x:si>
-    <x:t>not null</x:t>
-  </x:si>
-  <x:si>
-    <x:t>VARCHAR2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Breg_number</x:t>
-  </x:si>
-  <x:si>
-    <x:t>properties</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Description</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가게의 사업자등록번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가게 사업자등록번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Food_name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BEVERAGE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Drink_name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Owner_email</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FK not null</x:t>
-  </x:si>
-  <x:si>
-    <x:t>고객의 예약 정보를 담고 있는 테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>-</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Age</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DDL</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Id</x:t>
-  </x:si>
-  <x:si>
-    <x:t>평점</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sex</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PK</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PK</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -538,7 +538,7 @@
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="16">
+  <x:cellXfs count="20">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
@@ -711,6 +711,58 @@
       <mc:Fallback>
         <x:xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
@@ -1482,14 +1534,14 @@
   <x:dimension ref="A1:M24"/>
   <x:sheetViews>
     <x:sheetView topLeftCell="A1" zoomScaleNormal="125" workbookViewId="0">
-      <x:selection activeCell="M20" activeCellId="0" sqref="M20:M20"/>
+      <x:selection activeCell="A12" activeCellId="0" sqref="A12:K21"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.399999999999999"/>
   <x:sheetData>
     <x:row r="1" spans="1:11">
       <x:c r="A1" s="6" t="s">
-        <x:v>71</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="B1" s="6"/>
       <x:c r="C1" s="6"/>
@@ -1517,7 +1569,7 @@
     </x:row>
     <x:row r="3" spans="1:11">
       <x:c r="A3" s="7" t="s">
-        <x:v>14</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="B3" s="7"/>
       <x:c r="C3" s="7"/>
@@ -1532,34 +1584,34 @@
     </x:row>
     <x:row r="4" spans="1:11">
       <x:c r="A4" s="6" t="s">
-        <x:v>70</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="B4" s="6"/>
       <x:c r="C4" s="6" t="s">
-        <x:v>72</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="D4" s="6"/>
       <x:c r="E4" s="8" t="s">
-        <x:v>16</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F4" s="9"/>
       <x:c r="G4" s="6" t="s">
-        <x:v>78</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="H4" s="6"/>
       <x:c r="I4" s="6" t="s">
-        <x:v>79</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="J4" s="6"/>
       <x:c r="K4" s="6"/>
     </x:row>
     <x:row r="5" spans="1:11">
       <x:c r="A5" s="10" t="s">
-        <x:v>18</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="B5" s="10"/>
       <x:c r="C5" s="10" t="s">
-        <x:v>76</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="D5" s="10"/>
       <x:c r="E5" s="10">
@@ -1569,18 +1621,18 @@
       <x:c r="G5" s="10"/>
       <x:c r="H5" s="10"/>
       <x:c r="I5" s="10" t="s">
-        <x:v>20</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="J5" s="10"/>
       <x:c r="K5" s="10"/>
     </x:row>
     <x:row r="6" spans="1:11">
       <x:c r="A6" s="10" t="s">
-        <x:v>35</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="B6" s="10"/>
       <x:c r="C6" s="10" t="s">
-        <x:v>76</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="D6" s="10"/>
       <x:c r="E6" s="10">
@@ -1590,18 +1642,18 @@
       <x:c r="G6" s="10"/>
       <x:c r="H6" s="10"/>
       <x:c r="I6" s="10" t="s">
-        <x:v>48</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="J6" s="10"/>
       <x:c r="K6" s="10"/>
     </x:row>
     <x:row r="7" spans="1:11">
       <x:c r="A7" s="10" t="s">
-        <x:v>63</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="B7" s="10"/>
       <x:c r="C7" s="10" t="s">
-        <x:v>76</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="D7" s="10"/>
       <x:c r="E7" s="10">
@@ -1611,18 +1663,18 @@
       <x:c r="G7" s="10"/>
       <x:c r="H7" s="10"/>
       <x:c r="I7" s="10" t="s">
-        <x:v>17</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="J7" s="10"/>
       <x:c r="K7" s="10"/>
     </x:row>
     <x:row r="8" spans="1:11">
       <x:c r="A8" s="10" t="s">
-        <x:v>60</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="B8" s="10"/>
       <x:c r="C8" s="10" t="s">
-        <x:v>76</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="D8" s="10"/>
       <x:c r="E8" s="10">
@@ -1630,22 +1682,22 @@
       </x:c>
       <x:c r="F8" s="10"/>
       <x:c r="G8" s="10" t="s">
-        <x:v>94</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="H8" s="10"/>
       <x:c r="I8" s="10" t="s">
-        <x:v>42</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="J8" s="10"/>
       <x:c r="K8" s="10"/>
     </x:row>
     <x:row r="9" spans="1:11">
       <x:c r="A9" s="10" t="s">
-        <x:v>93</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="B9" s="10"/>
       <x:c r="C9" s="10" t="s">
-        <x:v>76</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="D9" s="10"/>
       <x:c r="E9" s="10">
@@ -1653,41 +1705,41 @@
       </x:c>
       <x:c r="F9" s="10"/>
       <x:c r="G9" s="10" t="s">
-        <x:v>75</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="H9" s="10"/>
       <x:c r="I9" s="10" t="s">
-        <x:v>20</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="J9" s="10"/>
       <x:c r="K9" s="10"/>
     </x:row>
     <x:row r="10" spans="1:11">
       <x:c r="A10" s="10" t="s">
-        <x:v>89</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="B10" s="10"/>
       <x:c r="C10" s="10" t="s">
-        <x:v>28</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="D10" s="10"/>
       <x:c r="E10" s="10" t="s">
-        <x:v>88</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="F10" s="10"/>
       <x:c r="G10" s="10" t="s">
-        <x:v>75</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="H10" s="10"/>
       <x:c r="I10" s="10" t="s">
-        <x:v>46</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="J10" s="10"/>
       <x:c r="K10" s="10"/>
     </x:row>
     <x:row r="11" spans="1:11">
       <x:c r="A11" s="11" t="s">
-        <x:v>90</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="B11" s="11"/>
       <x:c r="C11" s="11"/>
@@ -1701,8 +1753,8 @@
       <x:c r="K11" s="11"/>
     </x:row>
     <x:row r="12" spans="1:11">
-      <x:c r="A12" s="12" t="s">
-        <x:v>0</x:v>
+      <x:c r="A12" s="16" t="s">
+        <x:v>95</x:v>
       </x:c>
       <x:c r="B12" s="10"/>
       <x:c r="C12" s="10"/>
@@ -1888,14 +1940,14 @@
   <x:dimension ref="A1:M21"/>
   <x:sheetViews>
     <x:sheetView topLeftCell="A1" zoomScaleNormal="125" workbookViewId="0">
-      <x:selection activeCell="N12" activeCellId="0" sqref="N12:N12"/>
+      <x:selection activeCell="A9" activeCellId="0" sqref="A9:K18"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.399999999999999"/>
   <x:sheetData>
     <x:row r="1" spans="1:11">
       <x:c r="A1" s="6" t="s">
-        <x:v>65</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="B1" s="6"/>
       <x:c r="C1" s="6"/>
@@ -1923,7 +1975,7 @@
     </x:row>
     <x:row r="3" spans="1:11">
       <x:c r="A3" s="7" t="s">
-        <x:v>87</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="B3" s="7"/>
       <x:c r="C3" s="7"/>
@@ -1938,34 +1990,34 @@
     </x:row>
     <x:row r="4" spans="1:11">
       <x:c r="A4" s="6" t="s">
-        <x:v>70</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="B4" s="6"/>
       <x:c r="C4" s="6" t="s">
-        <x:v>72</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="D4" s="6"/>
       <x:c r="E4" s="8" t="s">
-        <x:v>16</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F4" s="9"/>
       <x:c r="G4" s="6" t="s">
-        <x:v>78</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="H4" s="6"/>
       <x:c r="I4" s="6" t="s">
-        <x:v>79</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="J4" s="6"/>
       <x:c r="K4" s="6"/>
     </x:row>
     <x:row r="5" spans="1:11">
       <x:c r="A5" s="10" t="s">
-        <x:v>22</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="B5" s="10"/>
       <x:c r="C5" s="10" t="s">
-        <x:v>76</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="D5" s="10"/>
       <x:c r="E5" s="10">
@@ -1973,64 +2025,64 @@
       </x:c>
       <x:c r="F5" s="10"/>
       <x:c r="G5" s="10" t="s">
-        <x:v>45</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="H5" s="10"/>
       <x:c r="I5" s="10" t="s">
-        <x:v>62</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="J5" s="10"/>
       <x:c r="K5" s="10"/>
     </x:row>
     <x:row r="6" spans="1:11">
       <x:c r="A6" s="10" t="s">
-        <x:v>47</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="B6" s="10"/>
       <x:c r="C6" s="10" t="s">
-        <x:v>28</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="D6" s="10"/>
       <x:c r="E6" s="10" t="s">
-        <x:v>88</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="F6" s="10"/>
       <x:c r="G6" s="10" t="s">
-        <x:v>45</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="H6" s="10"/>
       <x:c r="I6" s="10" t="s">
-        <x:v>8</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="J6" s="10"/>
       <x:c r="K6" s="10"/>
     </x:row>
     <x:row r="7" spans="1:11">
       <x:c r="A7" s="10" t="s">
-        <x:v>21</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="B7" s="10"/>
       <x:c r="C7" s="10" t="s">
-        <x:v>41</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="D7" s="10"/>
       <x:c r="E7" s="10" t="s">
-        <x:v>88</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="F7" s="10"/>
       <x:c r="G7" s="10" t="s">
-        <x:v>75</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="H7" s="10"/>
       <x:c r="I7" s="10" t="s">
-        <x:v>50</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="J7" s="10"/>
       <x:c r="K7" s="10"/>
     </x:row>
     <x:row r="8" spans="1:11">
       <x:c r="A8" s="11" t="s">
-        <x:v>90</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="B8" s="11"/>
       <x:c r="C8" s="11"/>
@@ -2044,8 +2096,8 @@
       <x:c r="K8" s="11"/>
     </x:row>
     <x:row r="9" spans="1:11">
-      <x:c r="A9" s="12" t="s">
-        <x:v>5</x:v>
+      <x:c r="A9" s="15" t="s">
+        <x:v>49</x:v>
       </x:c>
       <x:c r="B9" s="10"/>
       <x:c r="C9" s="10"/>
@@ -2223,7 +2275,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:11">
       <x:c r="A1" s="6" t="s">
-        <x:v>19</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="B1" s="6"/>
       <x:c r="C1" s="6"/>
@@ -2251,7 +2303,7 @@
     </x:row>
     <x:row r="3" spans="1:11">
       <x:c r="A3" s="7" t="s">
-        <x:v>13</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="B3" s="7"/>
       <x:c r="C3" s="7"/>
@@ -2266,57 +2318,57 @@
     </x:row>
     <x:row r="4" spans="1:11">
       <x:c r="A4" s="6" t="s">
-        <x:v>70</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="B4" s="6"/>
       <x:c r="C4" s="6" t="s">
-        <x:v>72</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="D4" s="6"/>
       <x:c r="E4" s="8" t="s">
-        <x:v>16</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F4" s="9"/>
       <x:c r="G4" s="6" t="s">
-        <x:v>78</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="H4" s="6"/>
       <x:c r="I4" s="6" t="s">
-        <x:v>79</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="J4" s="6"/>
       <x:c r="K4" s="6"/>
     </x:row>
     <x:row r="5" spans="1:11">
       <x:c r="A5" s="10" t="s">
-        <x:v>77</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="B5" s="10"/>
       <x:c r="C5" s="10" t="s">
-        <x:v>28</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="D5" s="10"/>
       <x:c r="E5" s="10" t="s">
-        <x:v>88</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="F5" s="10"/>
       <x:c r="G5" s="10" t="s">
-        <x:v>94</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="H5" s="10"/>
       <x:c r="I5" s="10" t="s">
-        <x:v>80</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="J5" s="10"/>
       <x:c r="K5" s="10"/>
     </x:row>
     <x:row r="6" spans="1:11">
       <x:c r="A6" s="10" t="s">
-        <x:v>68</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="B6" s="10"/>
       <x:c r="C6" s="10" t="s">
-        <x:v>76</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="D6" s="10"/>
       <x:c r="E6" s="10">
@@ -2324,22 +2376,22 @@
       </x:c>
       <x:c r="F6" s="10"/>
       <x:c r="G6" s="10" t="s">
-        <x:v>75</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="H6" s="10"/>
       <x:c r="I6" s="10" t="s">
-        <x:v>34</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="J6" s="10"/>
       <x:c r="K6" s="10"/>
     </x:row>
     <x:row r="7" spans="1:11">
       <x:c r="A7" s="10" t="s">
-        <x:v>69</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B7" s="10"/>
       <x:c r="C7" s="10" t="s">
-        <x:v>76</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="D7" s="10"/>
       <x:c r="E7" s="10">
@@ -2349,41 +2401,41 @@
       <x:c r="G7" s="10"/>
       <x:c r="H7" s="10"/>
       <x:c r="I7" s="10" t="s">
-        <x:v>33</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="J7" s="10"/>
       <x:c r="K7" s="10"/>
     </x:row>
     <x:row r="8" spans="1:11">
       <x:c r="A8" s="10" t="s">
-        <x:v>73</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="B8" s="10"/>
       <x:c r="C8" s="10" t="s">
-        <x:v>28</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="D8" s="10"/>
       <x:c r="E8" s="10" t="s">
-        <x:v>88</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="F8" s="10"/>
       <x:c r="G8" s="10" t="s">
-        <x:v>75</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="H8" s="10"/>
       <x:c r="I8" s="10" t="s">
-        <x:v>51</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="J8" s="10"/>
       <x:c r="K8" s="10"/>
     </x:row>
     <x:row r="9" spans="1:11">
       <x:c r="A9" s="10" t="s">
-        <x:v>74</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="B9" s="10"/>
       <x:c r="C9" s="10" t="s">
-        <x:v>76</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="D9" s="10"/>
       <x:c r="E9" s="10">
@@ -2391,18 +2443,18 @@
       </x:c>
       <x:c r="F9" s="10"/>
       <x:c r="G9" s="10" t="s">
-        <x:v>75</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="H9" s="10"/>
       <x:c r="I9" s="10" t="s">
-        <x:v>52</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="J9" s="10"/>
       <x:c r="K9" s="10"/>
     </x:row>
     <x:row r="10" spans="1:11">
       <x:c r="A10" s="11" t="s">
-        <x:v>90</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="B10" s="11"/>
       <x:c r="C10" s="11"/>
@@ -2416,8 +2468,8 @@
       <x:c r="K10" s="11"/>
     </x:row>
     <x:row r="11" spans="1:11">
-      <x:c r="A11" s="12" t="s">
-        <x:v>6</x:v>
+      <x:c r="A11" s="17" t="s">
+        <x:v>0</x:v>
       </x:c>
       <x:c r="B11" s="10"/>
       <x:c r="C11" s="10"/>
@@ -2597,7 +2649,7 @@
   <x:sheetPr codeName="Sheet4"/>
   <x:dimension ref="A1:M22"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="125" workbookViewId="0">
+    <x:sheetView topLeftCell="A1" zoomScaleNormal="125" workbookViewId="0">
       <x:selection activeCell="A10" activeCellId="0" sqref="A10:K19"/>
     </x:sheetView>
   </x:sheetViews>
@@ -2605,7 +2657,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:11">
       <x:c r="A1" s="6" t="s">
-        <x:v>38</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="B1" s="6"/>
       <x:c r="C1" s="6"/>
@@ -2633,7 +2685,7 @@
     </x:row>
     <x:row r="3" spans="1:11">
       <x:c r="A3" s="7" t="s">
-        <x:v>15</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B3" s="7"/>
       <x:c r="C3" s="7"/>
@@ -2648,57 +2700,57 @@
     </x:row>
     <x:row r="4" spans="1:11">
       <x:c r="A4" s="6" t="s">
-        <x:v>70</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="B4" s="6"/>
       <x:c r="C4" s="6" t="s">
-        <x:v>72</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="D4" s="6"/>
       <x:c r="E4" s="8" t="s">
-        <x:v>16</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F4" s="9"/>
       <x:c r="G4" s="6" t="s">
-        <x:v>78</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="H4" s="6"/>
       <x:c r="I4" s="6" t="s">
-        <x:v>79</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="J4" s="6"/>
       <x:c r="K4" s="6"/>
     </x:row>
     <x:row r="5" spans="1:11">
       <x:c r="A5" s="10" t="s">
-        <x:v>47</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="B5" s="10"/>
       <x:c r="C5" s="10" t="s">
-        <x:v>28</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="D5" s="10"/>
       <x:c r="E5" s="10" t="s">
-        <x:v>88</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="F5" s="10"/>
       <x:c r="G5" s="10" t="s">
-        <x:v>86</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="H5" s="10"/>
       <x:c r="I5" s="10" t="s">
-        <x:v>66</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="J5" s="10"/>
       <x:c r="K5" s="10"/>
     </x:row>
     <x:row r="6" spans="1:11">
       <x:c r="A6" s="10" t="s">
-        <x:v>22</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="B6" s="10"/>
       <x:c r="C6" s="10" t="s">
-        <x:v>76</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="D6" s="10"/>
       <x:c r="E6" s="10">
@@ -2706,62 +2758,62 @@
       </x:c>
       <x:c r="F6" s="10"/>
       <x:c r="G6" s="10" t="s">
-        <x:v>86</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="H6" s="10"/>
       <x:c r="I6" s="10" t="s">
-        <x:v>42</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="J6" s="10"/>
       <x:c r="K6" s="10"/>
     </x:row>
     <x:row r="7" spans="1:11">
       <x:c r="A7" s="10" t="s">
-        <x:v>25</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="B7" s="10"/>
       <x:c r="C7" s="10" t="s">
-        <x:v>28</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="D7" s="10"/>
       <x:c r="E7" s="10" t="s">
-        <x:v>40</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="F7" s="10"/>
       <x:c r="G7" s="10"/>
       <x:c r="H7" s="10"/>
       <x:c r="I7" s="10" t="s">
-        <x:v>92</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="J7" s="10"/>
       <x:c r="K7" s="10"/>
     </x:row>
     <x:row r="8" spans="1:11">
       <x:c r="A8" s="10" t="s">
-        <x:v>91</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="B8" s="10"/>
       <x:c r="C8" s="10" t="s">
-        <x:v>28</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="D8" s="10"/>
       <x:c r="E8" s="10" t="s">
-        <x:v>88</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="F8" s="10"/>
       <x:c r="G8" s="10" t="s">
-        <x:v>95</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="H8" s="10"/>
       <x:c r="I8" s="10" t="s">
-        <x:v>67</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="J8" s="10"/>
       <x:c r="K8" s="10"/>
     </x:row>
     <x:row r="9" spans="1:11">
       <x:c r="A9" s="11" t="s">
-        <x:v>90</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="B9" s="11"/>
       <x:c r="C9" s="11"/>
@@ -2775,8 +2827,8 @@
       <x:c r="K9" s="11"/>
     </x:row>
     <x:row r="10" spans="1:11">
-      <x:c r="A10" s="15" t="s">
-        <x:v>55</x:v>
+      <x:c r="A10" s="12" t="s">
+        <x:v>94</x:v>
       </x:c>
       <x:c r="B10" s="10"/>
       <x:c r="C10" s="10"/>
@@ -2952,14 +3004,14 @@
   <x:dimension ref="A1:M22"/>
   <x:sheetViews>
     <x:sheetView topLeftCell="A1" zoomScaleNormal="125" workbookViewId="0">
-      <x:selection activeCell="E7" activeCellId="0" sqref="E7:F7"/>
+      <x:selection activeCell="A10" activeCellId="0" sqref="A10:K19"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.399999999999999"/>
   <x:sheetData>
     <x:row r="1" spans="1:11">
       <x:c r="A1" s="6" t="s">
-        <x:v>49</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B1" s="6"/>
       <x:c r="C1" s="6"/>
@@ -2987,7 +3039,7 @@
     </x:row>
     <x:row r="3" spans="1:11">
       <x:c r="A3" s="7" t="s">
-        <x:v>9</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B3" s="7"/>
       <x:c r="C3" s="7"/>
@@ -3002,103 +3054,103 @@
     </x:row>
     <x:row r="4" spans="1:11">
       <x:c r="A4" s="6" t="s">
-        <x:v>70</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="B4" s="6"/>
       <x:c r="C4" s="6" t="s">
-        <x:v>72</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="D4" s="6"/>
       <x:c r="E4" s="8" t="s">
-        <x:v>16</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F4" s="9"/>
       <x:c r="G4" s="6" t="s">
-        <x:v>78</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="H4" s="6"/>
       <x:c r="I4" s="6" t="s">
-        <x:v>79</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="J4" s="6"/>
       <x:c r="K4" s="6"/>
     </x:row>
     <x:row r="5" spans="1:11">
       <x:c r="A5" s="10" t="s">
-        <x:v>47</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="B5" s="10"/>
       <x:c r="C5" s="10" t="s">
-        <x:v>76</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="D5" s="10"/>
       <x:c r="E5" s="10" t="s">
-        <x:v>88</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="F5" s="10"/>
       <x:c r="G5" s="10" t="s">
-        <x:v>58</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="H5" s="10"/>
       <x:c r="I5" s="10" t="s">
-        <x:v>80</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="J5" s="10"/>
       <x:c r="K5" s="10"/>
     </x:row>
     <x:row r="6" spans="1:11">
       <x:c r="A6" s="10" t="s">
-        <x:v>91</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="B6" s="10"/>
       <x:c r="C6" s="10" t="s">
-        <x:v>76</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="D6" s="10"/>
       <x:c r="E6" s="10" t="s">
-        <x:v>88</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="F6" s="10"/>
       <x:c r="G6" s="10" t="s">
-        <x:v>7</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H6" s="10"/>
       <x:c r="I6" s="10" t="s">
-        <x:v>61</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="J6" s="10"/>
       <x:c r="K6" s="10"/>
     </x:row>
     <x:row r="7" spans="1:11">
       <x:c r="A7" s="10" t="s">
-        <x:v>53</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="B7" s="10"/>
       <x:c r="C7" s="10" t="s">
-        <x:v>76</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="D7" s="10"/>
       <x:c r="E7" s="10" t="s">
-        <x:v>88</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="F7" s="10"/>
       <x:c r="G7" s="10" t="s">
-        <x:v>75</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="H7" s="10"/>
       <x:c r="I7" s="10" t="s">
-        <x:v>36</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="J7" s="10"/>
       <x:c r="K7" s="10"/>
     </x:row>
     <x:row r="8" spans="1:11">
       <x:c r="A8" s="10" t="s">
-        <x:v>82</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="B8" s="10"/>
       <x:c r="C8" s="10" t="s">
-        <x:v>76</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="D8" s="10"/>
       <x:c r="E8" s="10">
@@ -3106,18 +3158,18 @@
       </x:c>
       <x:c r="F8" s="10"/>
       <x:c r="G8" s="10" t="s">
-        <x:v>75</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="H8" s="10"/>
       <x:c r="I8" s="10" t="s">
-        <x:v>32</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="J8" s="10"/>
       <x:c r="K8" s="10"/>
     </x:row>
     <x:row r="9" spans="1:11">
       <x:c r="A9" s="11" t="s">
-        <x:v>90</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="B9" s="11"/>
       <x:c r="C9" s="11"/>
@@ -3131,8 +3183,8 @@
       <x:c r="K9" s="11"/>
     </x:row>
     <x:row r="10" spans="1:11">
-      <x:c r="A10" s="12" t="s">
-        <x:v>2</x:v>
+      <x:c r="A10" s="15" t="s">
+        <x:v>93</x:v>
       </x:c>
       <x:c r="B10" s="10"/>
       <x:c r="C10" s="10"/>
@@ -3308,14 +3360,14 @@
   <x:dimension ref="A1:M20"/>
   <x:sheetViews>
     <x:sheetView topLeftCell="A1" zoomScaleNormal="125" workbookViewId="0">
-      <x:selection activeCell="I5" activeCellId="0" sqref="I5:K5"/>
+      <x:selection activeCell="A8" activeCellId="0" sqref="A8:K17"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.399999999999999"/>
   <x:sheetData>
     <x:row r="1" spans="1:11">
       <x:c r="A1" s="6" t="s">
-        <x:v>27</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="B1" s="6"/>
       <x:c r="C1" s="6"/>
@@ -3343,7 +3395,7 @@
     </x:row>
     <x:row r="3" spans="1:11">
       <x:c r="A3" s="7" t="s">
-        <x:v>12</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B3" s="7"/>
       <x:c r="C3" s="7"/>
@@ -3358,57 +3410,57 @@
     </x:row>
     <x:row r="4" spans="1:11">
       <x:c r="A4" s="6" t="s">
-        <x:v>70</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="B4" s="6"/>
       <x:c r="C4" s="6" t="s">
-        <x:v>72</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="D4" s="6"/>
       <x:c r="E4" s="8" t="s">
-        <x:v>16</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F4" s="9"/>
       <x:c r="G4" s="6" t="s">
-        <x:v>78</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="H4" s="6"/>
       <x:c r="I4" s="6" t="s">
-        <x:v>79</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="J4" s="6"/>
       <x:c r="K4" s="6"/>
     </x:row>
     <x:row r="5" spans="1:11">
       <x:c r="A5" s="10" t="s">
-        <x:v>91</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="B5" s="10"/>
       <x:c r="C5" s="10" t="s">
-        <x:v>28</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="D5" s="10"/>
       <x:c r="E5" s="10" t="s">
-        <x:v>88</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="F5" s="10"/>
       <x:c r="G5" s="10" t="s">
-        <x:v>94</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="H5" s="10"/>
       <x:c r="I5" s="10" t="s">
-        <x:v>59</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="J5" s="10"/>
       <x:c r="K5" s="10"/>
     </x:row>
     <x:row r="6" spans="1:11">
       <x:c r="A6" s="10" t="s">
-        <x:v>64</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="B6" s="10"/>
       <x:c r="C6" s="10" t="s">
-        <x:v>76</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="D6" s="10"/>
       <x:c r="E6" s="10">
@@ -3416,18 +3468,18 @@
       </x:c>
       <x:c r="F6" s="10"/>
       <x:c r="G6" s="10" t="s">
-        <x:v>94</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="H6" s="10"/>
       <x:c r="I6" s="10" t="s">
-        <x:v>23</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="J6" s="10"/>
       <x:c r="K6" s="10"/>
     </x:row>
     <x:row r="7" spans="1:11">
       <x:c r="A7" s="11" t="s">
-        <x:v>90</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="B7" s="11"/>
       <x:c r="C7" s="11"/>
@@ -3441,8 +3493,8 @@
       <x:c r="K7" s="11"/>
     </x:row>
     <x:row r="8" spans="1:11">
-      <x:c r="A8" s="12" t="s">
-        <x:v>4</x:v>
+      <x:c r="A8" s="18" t="s">
+        <x:v>91</x:v>
       </x:c>
       <x:c r="B8" s="10"/>
       <x:c r="C8" s="10"/>
@@ -3615,7 +3667,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:11">
       <x:c r="A1" s="6" t="s">
-        <x:v>83</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="B1" s="6"/>
       <x:c r="C1" s="6"/>
@@ -3643,7 +3695,7 @@
     </x:row>
     <x:row r="3" spans="1:11">
       <x:c r="A3" s="7" t="s">
-        <x:v>11</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="B3" s="7"/>
       <x:c r="C3" s="7"/>
@@ -3658,80 +3710,80 @@
     </x:row>
     <x:row r="4" spans="1:11">
       <x:c r="A4" s="6" t="s">
-        <x:v>70</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="B4" s="6"/>
       <x:c r="C4" s="6" t="s">
-        <x:v>72</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="D4" s="6"/>
       <x:c r="E4" s="8" t="s">
-        <x:v>16</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F4" s="9"/>
       <x:c r="G4" s="6" t="s">
-        <x:v>78</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="H4" s="6"/>
       <x:c r="I4" s="6" t="s">
-        <x:v>79</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="J4" s="6"/>
       <x:c r="K4" s="6"/>
     </x:row>
     <x:row r="5" spans="1:11">
       <x:c r="A5" s="10" t="s">
-        <x:v>47</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="B5" s="10"/>
       <x:c r="C5" s="10" t="s">
-        <x:v>28</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="D5" s="10"/>
       <x:c r="E5" s="10" t="s">
-        <x:v>88</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="F5" s="10"/>
       <x:c r="G5" s="10" t="s">
-        <x:v>45</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="H5" s="10"/>
       <x:c r="I5" s="10" t="s">
-        <x:v>81</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="J5" s="10"/>
       <x:c r="K5" s="10"/>
     </x:row>
     <x:row r="6" spans="1:11">
       <x:c r="A6" s="10" t="s">
-        <x:v>91</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="B6" s="10"/>
       <x:c r="C6" s="10" t="s">
-        <x:v>28</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="D6" s="10"/>
       <x:c r="E6" s="10" t="s">
-        <x:v>88</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="F6" s="10"/>
       <x:c r="G6" s="10" t="s">
-        <x:v>94</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="H6" s="10"/>
       <x:c r="I6" s="10" t="s">
-        <x:v>56</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="J6" s="10"/>
       <x:c r="K6" s="10"/>
     </x:row>
     <x:row r="7" spans="1:11">
       <x:c r="A7" s="10" t="s">
-        <x:v>37</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="B7" s="10"/>
       <x:c r="C7" s="10" t="s">
-        <x:v>76</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="D7" s="10"/>
       <x:c r="E7" s="10">
@@ -3741,18 +3793,18 @@
       <x:c r="G7" s="10"/>
       <x:c r="H7" s="10"/>
       <x:c r="I7" s="10" t="s">
-        <x:v>24</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="J7" s="10"/>
       <x:c r="K7" s="10"/>
     </x:row>
     <x:row r="8" spans="1:11">
       <x:c r="A8" s="10" t="s">
-        <x:v>84</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="B8" s="10"/>
       <x:c r="C8" s="10" t="s">
-        <x:v>76</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="D8" s="10"/>
       <x:c r="E8" s="10">
@@ -3760,41 +3812,41 @@
       </x:c>
       <x:c r="F8" s="10"/>
       <x:c r="G8" s="10" t="s">
-        <x:v>75</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="H8" s="10"/>
       <x:c r="I8" s="10" t="s">
-        <x:v>39</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="J8" s="10"/>
       <x:c r="K8" s="10"/>
     </x:row>
     <x:row r="9" spans="1:11">
       <x:c r="A9" s="10" t="s">
-        <x:v>53</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="B9" s="10"/>
       <x:c r="C9" s="10" t="s">
-        <x:v>28</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="D9" s="10"/>
       <x:c r="E9" s="10" t="s">
-        <x:v>88</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="F9" s="10"/>
       <x:c r="G9" s="10" t="s">
-        <x:v>75</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="H9" s="10"/>
       <x:c r="I9" s="10" t="s">
-        <x:v>43</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="J9" s="10"/>
       <x:c r="K9" s="10"/>
     </x:row>
     <x:row r="10" spans="1:11">
       <x:c r="A10" s="11" t="s">
-        <x:v>90</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="B10" s="11"/>
       <x:c r="C10" s="11"/>
@@ -3808,8 +3860,8 @@
       <x:c r="K10" s="11"/>
     </x:row>
     <x:row r="11" spans="1:11">
-      <x:c r="A11" s="12" t="s">
-        <x:v>3</x:v>
+      <x:c r="A11" s="16" t="s">
+        <x:v>92</x:v>
       </x:c>
       <x:c r="B11" s="10"/>
       <x:c r="C11" s="10"/>
@@ -3989,15 +4041,15 @@
   <x:sheetPr codeName="Sheet8"/>
   <x:dimension ref="A1:M25"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A4" zoomScaleNormal="125" workbookViewId="0">
-      <x:selection activeCell="M10" activeCellId="0" sqref="M10:M10"/>
+    <x:sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="125" workbookViewId="0">
+      <x:selection activeCell="A13" activeCellId="0" sqref="A13:K22"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.399999999999999"/>
   <x:sheetData>
     <x:row r="1" spans="1:11">
       <x:c r="A1" s="6" t="s">
-        <x:v>54</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="B1" s="6"/>
       <x:c r="C1" s="6"/>
@@ -4025,7 +4077,7 @@
     </x:row>
     <x:row r="3" spans="1:11">
       <x:c r="A3" s="7" t="s">
-        <x:v>10</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="B3" s="7"/>
       <x:c r="C3" s="7"/>
@@ -4040,57 +4092,57 @@
     </x:row>
     <x:row r="4" spans="1:11">
       <x:c r="A4" s="6" t="s">
-        <x:v>70</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="B4" s="6"/>
       <x:c r="C4" s="6" t="s">
-        <x:v>72</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="D4" s="6"/>
       <x:c r="E4" s="8" t="s">
-        <x:v>16</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F4" s="9"/>
       <x:c r="G4" s="6" t="s">
-        <x:v>78</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="H4" s="6"/>
       <x:c r="I4" s="6" t="s">
-        <x:v>79</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="J4" s="6"/>
       <x:c r="K4" s="6"/>
     </x:row>
     <x:row r="5" spans="1:11">
       <x:c r="A5" s="10" t="s">
-        <x:v>47</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="B5" s="10"/>
       <x:c r="C5" s="10" t="s">
-        <x:v>28</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="D5" s="10"/>
       <x:c r="E5" s="10" t="s">
-        <x:v>88</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="F5" s="10"/>
       <x:c r="G5" s="10" t="s">
-        <x:v>45</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="H5" s="10"/>
       <x:c r="I5" s="10" t="s">
-        <x:v>57</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="J5" s="10"/>
       <x:c r="K5" s="10"/>
     </x:row>
     <x:row r="6" spans="1:11">
       <x:c r="A6" s="10" t="s">
-        <x:v>18</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="B6" s="10"/>
       <x:c r="C6" s="10" t="s">
-        <x:v>76</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="D6" s="10"/>
       <x:c r="E6" s="10">
@@ -4100,18 +4152,18 @@
       <x:c r="G6" s="13"/>
       <x:c r="H6" s="14"/>
       <x:c r="I6" s="10" t="s">
-        <x:v>31</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="J6" s="10"/>
       <x:c r="K6" s="10"/>
     </x:row>
     <x:row r="7" spans="1:11">
       <x:c r="A7" s="10" t="s">
-        <x:v>35</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="B7" s="10"/>
       <x:c r="C7" s="10" t="s">
-        <x:v>76</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="D7" s="10"/>
       <x:c r="E7" s="10">
@@ -4121,18 +4173,18 @@
       <x:c r="G7" s="10"/>
       <x:c r="H7" s="10"/>
       <x:c r="I7" s="10" t="s">
-        <x:v>44</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="J7" s="10"/>
       <x:c r="K7" s="10"/>
     </x:row>
     <x:row r="8" spans="1:11">
       <x:c r="A8" s="10" t="s">
-        <x:v>63</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="B8" s="10"/>
       <x:c r="C8" s="10" t="s">
-        <x:v>76</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="D8" s="10"/>
       <x:c r="E8" s="10">
@@ -4142,18 +4194,18 @@
       <x:c r="G8" s="10"/>
       <x:c r="H8" s="10"/>
       <x:c r="I8" s="10" t="s">
-        <x:v>29</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="J8" s="10"/>
       <x:c r="K8" s="10"/>
     </x:row>
     <x:row r="9" spans="1:11">
       <x:c r="A9" s="10" t="s">
-        <x:v>85</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="B9" s="10"/>
       <x:c r="C9" s="10" t="s">
-        <x:v>76</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="D9" s="10"/>
       <x:c r="E9" s="10">
@@ -4161,22 +4213,22 @@
       </x:c>
       <x:c r="F9" s="10"/>
       <x:c r="G9" s="10" t="s">
-        <x:v>94</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="H9" s="10"/>
       <x:c r="I9" s="10" t="s">
-        <x:v>30</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="J9" s="10"/>
       <x:c r="K9" s="10"/>
     </x:row>
     <x:row r="10" spans="1:11">
       <x:c r="A10" s="10" t="s">
-        <x:v>93</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="B10" s="10"/>
       <x:c r="C10" s="10" t="s">
-        <x:v>76</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="D10" s="10"/>
       <x:c r="E10" s="10">
@@ -4184,41 +4236,41 @@
       </x:c>
       <x:c r="F10" s="10"/>
       <x:c r="G10" s="10" t="s">
-        <x:v>75</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="H10" s="10"/>
       <x:c r="I10" s="10" t="s">
-        <x:v>31</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="J10" s="10"/>
       <x:c r="K10" s="10"/>
     </x:row>
     <x:row r="11" spans="1:11">
       <x:c r="A11" s="10" t="s">
-        <x:v>89</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="B11" s="10"/>
       <x:c r="C11" s="10" t="s">
-        <x:v>28</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="D11" s="10"/>
       <x:c r="E11" s="10" t="s">
-        <x:v>88</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="F11" s="10"/>
       <x:c r="G11" s="10" t="s">
-        <x:v>75</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="H11" s="10"/>
       <x:c r="I11" s="10" t="s">
-        <x:v>26</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="J11" s="10"/>
       <x:c r="K11" s="10"/>
     </x:row>
     <x:row r="12" spans="1:11">
       <x:c r="A12" s="11" t="s">
-        <x:v>90</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="B12" s="11"/>
       <x:c r="C12" s="11"/>
@@ -4232,8 +4284,8 @@
       <x:c r="K12" s="11"/>
     </x:row>
     <x:row r="13" spans="1:11">
-      <x:c r="A13" s="12" t="s">
-        <x:v>1</x:v>
+      <x:c r="A13" s="19" t="s">
+        <x:v>81</x:v>
       </x:c>
       <x:c r="B13" s="10"/>
       <x:c r="C13" s="10"/>

--- a/phase2/README.xlsx
+++ b/phase2/README.xlsx
@@ -3,7 +3,7 @@
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:fileVersion appName="HCell" lastEdited="9.1" lowestEdited="9.1" rupBuild="1.3237"/>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="13140" windowHeight="9180" firstSheet="5" activeTab="7"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="28305" windowHeight="11265" firstSheet="2" activeTab="3"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="CUSTOMER" sheetId="1" r:id="rId4"/>
@@ -20,307 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="96">
-  <x:si>
-    <x:t>create table store(
-    Breg_number number not null primary key,
-    Store_name varchar2(40) not null,
-    Store_type varchar2(20),
-    Seat_number number not null,
-    Location varchar2(70) not null
-);</x:t>
-  </x:si>
-  <x:si>
-    <x:t>not null, UNIQUE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>예약한 가게의 Brenumber</x:t>
-  </x:si>
-  <x:si>
-    <x:t>음식 정보를 가지고 있는 테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>점주 정보를 담고 있는 테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>음료 정보를 담고 있는 테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>원산지 정보를 담고 있는 테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가게 정보를 담고 있는 테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>고객 정보를 담고 있는 테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>고객이 가게에 대한 평가를 담고 있는 테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>size</x:t>
-  </x:si>
-  <x:si>
-    <x:t>고객 전화번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fname</x:t>
-  </x:si>
-  <x:si>
-    <x:t>STORE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>고객의 성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Time</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Cemail</x:t>
-  </x:si>
-  <x:si>
-    <x:t>원산지 국가명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>알코올 여부</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Score</x:t>
-  </x:si>
-  <x:si>
-    <x:t>점주의 나이</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ORIGIN</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NUMBER</x:t>
-  </x:si>
-  <x:si>
-    <x:t>점주 전화번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>점주의 이메일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>점주의 성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>음식 이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가게 종류</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가게 이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lname</x:t>
-  </x:si>
-  <x:si>
-    <x:t>음식 가격</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Alcohol</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RATING</x:t>
-  </x:si>
-  <x:si>
-    <x:t>음료 이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>(2,1)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DATE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>고객의 이메일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>음료 가격</x:t>
-  </x:si>
-  <x:si>
-    <x:t>점주의 이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PK, FK</x:t>
-  </x:si>
-  <x:si>
-    <x:t>고객의 나이</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Bnum</x:t>
-  </x:si>
-  <x:si>
-    <x:t>고객의 이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FOOD</x:t>
-  </x:si>
-  <x:si>
-    <x:t>예약한 시간대</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가게 좌석수</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가게 위치</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Price</x:t>
-  </x:si>
-  <x:si>
-    <x:t>OWNER</x:t>
-  </x:si>
-  <x:si>
-    <x:t>create table cust_books_str(
-    Cemail varchar2(50) not null references customer(Customer_email),
-    Bnum number not null references store(Breg_number),
-    Time date not null,
-    constraint pk_cust_books_str primary key(Cemail, Bnum)
-);</x:t>
-  </x:si>
-  <x:si>
-    <x:t>음료 tuple 일련번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>소유한 가게의 사업자등록번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FK, not null</x:t>
-  </x:si>
-  <x:si>
-    <x:t>원산지 tuple 일련번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Customer_email</x:t>
-  </x:si>
-  <x:si>
-    <x:t>음식 tuple 일련번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>예약한 고객의 Email</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Phone_number</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Country_name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CUST_BOOKS_STR</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가게의 사업자 등록번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>평가 tuple 일련번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Store_name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Store_type</x:t>
-  </x:si>
-  <x:si>
-    <x:t>column name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CUSTOMER</x:t>
-  </x:si>
-  <x:si>
-    <x:t>value type</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Seat_number</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Location</x:t>
-  </x:si>
-  <x:si>
-    <x:t>not null</x:t>
-  </x:si>
-  <x:si>
-    <x:t>VARCHAR2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Breg_number</x:t>
-  </x:si>
-  <x:si>
-    <x:t>properties</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Description</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가게의 사업자등록번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가게 사업자등록번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Food_name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BEVERAGE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Drink_name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Owner_email</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FK not null</x:t>
-  </x:si>
-  <x:si>
-    <x:t>create table owner(
-    Bnum number not null references store(breg_number),
-    Fname varchar2(2),
-    Lname varchar2(4),
-    Phone_number varchar2(11),
-    Owner_email varchar2(50) not null unique,
-    Sex char not null,
-    Age number not null, 
-    constraint pk_owner primary key(Bnum, Owner_email)
-);</x:t>
-  </x:si>
-  <x:si>
-    <x:t>고객의 예약 정보를 담고 있는 테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>-</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Age</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DDL</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Id</x:t>
-  </x:si>
-  <x:si>
-    <x:t>평점</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sex</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PK</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PK</x:t>
-  </x:si>
-  <x:si>
-    <x:t>create table origin(
-    Id number not null references food(Id),
-    Country_name varchar2(20),
-    constraint pk_origin_country primary key(Id, Country_name)
-);</x:t>
-  </x:si>
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="95">
   <x:si>
     <x:t>create table beverage(
     Bnum number not null references store(Breg_number),
@@ -340,14 +40,6 @@
 );</x:t>
   </x:si>
   <x:si>
-    <x:t>create table rating(
-    Bnum number not null references store(Breg_number),
-    Cemail varchar2(10) not null references customer(Customer_email),
-    Score number(2,1),
-    Id number not null primary key
-);</x:t>
-  </x:si>
-  <x:si>
     <x:t>create table customer(
     Fname varchar2(2),
     Lname varchar2(4),
@@ -355,6 +47,312 @@
     Customer_email varchar2(50) not null primary key,
     Sex varchar2(10) not null,
     Age number not null
+);</x:t>
+  </x:si>
+  <x:si>
+    <x:t>create table store(
+    Breg_number number not null primary key,
+    Store_name varchar2(40) not null,
+    Store_type varchar2(20),
+    Seat_number number not null,
+    Location varchar2(70) not null
+);</x:t>
+  </x:si>
+  <x:si>
+    <x:t>not null, UNIQUE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>예약한 가게의 Brenumber</x:t>
+  </x:si>
+  <x:si>
+    <x:t>고객 정보를 담고 있는 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>음료 정보를 담고 있는 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>원산지 정보를 담고 있는 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가게 정보를 담고 있는 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>음식 정보를 가지고 있는 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>점주 정보를 담고 있는 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>고객이 가게에 대한 평가를 담고 있는 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>create table owner(
+    Bnum number not null references store(breg_number),
+    Fname varchar2(2),
+    Lname varchar2(4),
+    Phone_number varchar2(15),
+    Owner_email varchar2(50) not null unique,
+    Sex char not null,
+    Age number not null, 
+    constraint pk_owner primary key(Bnum, Owner_email)
+);</x:t>
+  </x:si>
+  <x:si>
+    <x:t>고객의 이메일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RATING</x:t>
+  </x:si>
+  <x:si>
+    <x:t>원산지 국가명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>점주의 이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>음식 가격</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ORIGIN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Alcohol</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fname</x:t>
+  </x:si>
+  <x:si>
+    <x:t>고객의 성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>STORE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>점주의 나이</x:t>
+  </x:si>
+  <x:si>
+    <x:t>알코올 여부</x:t>
+  </x:si>
+  <x:si>
+    <x:t>점주의 이메일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>점주의 성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>size</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Score</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NUMBER</x:t>
+  </x:si>
+  <x:si>
+    <x:t>음식 이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Cemail</x:t>
+  </x:si>
+  <x:si>
+    <x:t>고객 전화번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Time</x:t>
+  </x:si>
+  <x:si>
+    <x:t>점주 전화번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가게 종류</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가게 이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lname</x:t>
+  </x:si>
+  <x:si>
+    <x:t>음료 이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>음료 가격</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(2,1)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DATE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FOOD</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Price</x:t>
+  </x:si>
+  <x:si>
+    <x:t>고객의 나이</x:t>
+  </x:si>
+  <x:si>
+    <x:t>고객의 이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가게 위치</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PK, FK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>OWNER</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bnum</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가게 좌석수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>예약한 시간대</x:t>
+  </x:si>
+  <x:si>
+    <x:t>create table cust_books_str(
+    Cemail varchar2(50) not null references customer(Customer_email),
+    Bnum number not null references store(Breg_number),
+    Time date not null,
+    constraint pk_cust_books_str primary key(Cemail, Bnum)
+);</x:t>
+  </x:si>
+  <x:si>
+    <x:t>create table origin(
+    Id number not null references food(Id),
+    Country_name varchar2(20),
+    constraint pk_origin_country primary key(Id, Country_name)
+);</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가게의 사업자 등록번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FK, not null</x:t>
+  </x:si>
+  <x:si>
+    <x:t>평가 tuple 일련번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Country_name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>소유한 가게의 사업자등록번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>원산지 tuple 일련번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Customer_email</x:t>
+  </x:si>
+  <x:si>
+    <x:t>예약한 고객의 Email</x:t>
+  </x:si>
+  <x:si>
+    <x:t>음료 tuple 일련번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CUST_BOOKS_STR</x:t>
+  </x:si>
+  <x:si>
+    <x:t>음식 tuple 일련번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Phone_number</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Store_name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VARCHAR2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>column name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>value type</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CUSTOMER</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Seat_number</x:t>
+  </x:si>
+  <x:si>
+    <x:t>not null</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Store_type</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Location</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Owner_email</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Drink_name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FK not null</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Food_name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Breg_number</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Description</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가게 사업자등록번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BEVERAGE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가게의 사업자등록번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>properties</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Age</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Id</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DDL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sex</x:t>
+  </x:si>
+  <x:si>
+    <x:t>평점</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>고객의 예약 정보를 담고 있는 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>create table rating(
+    Bnum number not null references store(Breg_number),
+    Cemail varchar2(10) not null references customer(Customer_email),
+    Score number(2,1),
+    Id number not null,
+    constraint pk_rating primary key(Bnum, Cemail, Id)
 );</x:t>
   </x:si>
 </x:sst>
@@ -538,7 +536,7 @@
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="20">
+  <x:cellXfs count="16">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
@@ -711,58 +709,6 @@
       <mc:Fallback>
         <x:xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
@@ -1541,7 +1487,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:11">
       <x:c r="A1" s="6" t="s">
-        <x:v>65</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="B1" s="6"/>
       <x:c r="C1" s="6"/>
@@ -1569,7 +1515,7 @@
     </x:row>
     <x:row r="3" spans="1:11">
       <x:c r="A3" s="7" t="s">
-        <x:v>8</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B3" s="7"/>
       <x:c r="C3" s="7"/>
@@ -1584,34 +1530,34 @@
     </x:row>
     <x:row r="4" spans="1:11">
       <x:c r="A4" s="6" t="s">
-        <x:v>64</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="B4" s="6"/>
       <x:c r="C4" s="6" t="s">
-        <x:v>66</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="D4" s="6"/>
       <x:c r="E4" s="8" t="s">
-        <x:v>10</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="F4" s="9"/>
       <x:c r="G4" s="6" t="s">
-        <x:v>72</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="H4" s="6"/>
       <x:c r="I4" s="6" t="s">
-        <x:v>73</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="J4" s="6"/>
       <x:c r="K4" s="6"/>
     </x:row>
     <x:row r="5" spans="1:11">
       <x:c r="A5" s="10" t="s">
-        <x:v>12</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="B5" s="10"/>
       <x:c r="C5" s="10" t="s">
-        <x:v>70</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="D5" s="10"/>
       <x:c r="E5" s="10">
@@ -1621,18 +1567,18 @@
       <x:c r="G5" s="10"/>
       <x:c r="H5" s="10"/>
       <x:c r="I5" s="10" t="s">
-        <x:v>14</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="J5" s="10"/>
       <x:c r="K5" s="10"/>
     </x:row>
     <x:row r="6" spans="1:11">
       <x:c r="A6" s="10" t="s">
-        <x:v>29</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="B6" s="10"/>
       <x:c r="C6" s="10" t="s">
-        <x:v>70</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="D6" s="10"/>
       <x:c r="E6" s="10">
@@ -1642,18 +1588,18 @@
       <x:c r="G6" s="10"/>
       <x:c r="H6" s="10"/>
       <x:c r="I6" s="10" t="s">
-        <x:v>42</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="J6" s="10"/>
       <x:c r="K6" s="10"/>
     </x:row>
     <x:row r="7" spans="1:11">
       <x:c r="A7" s="10" t="s">
-        <x:v>57</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="B7" s="10"/>
       <x:c r="C7" s="10" t="s">
-        <x:v>70</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="D7" s="10"/>
       <x:c r="E7" s="10">
@@ -1663,18 +1609,18 @@
       <x:c r="G7" s="10"/>
       <x:c r="H7" s="10"/>
       <x:c r="I7" s="10" t="s">
-        <x:v>11</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="J7" s="10"/>
       <x:c r="K7" s="10"/>
     </x:row>
     <x:row r="8" spans="1:11">
       <x:c r="A8" s="10" t="s">
-        <x:v>54</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="B8" s="10"/>
       <x:c r="C8" s="10" t="s">
-        <x:v>70</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="D8" s="10"/>
       <x:c r="E8" s="10">
@@ -1682,22 +1628,22 @@
       </x:c>
       <x:c r="F8" s="10"/>
       <x:c r="G8" s="10" t="s">
-        <x:v>89</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="H8" s="10"/>
       <x:c r="I8" s="10" t="s">
-        <x:v>36</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="J8" s="10"/>
       <x:c r="K8" s="10"/>
     </x:row>
     <x:row r="9" spans="1:11">
       <x:c r="A9" s="10" t="s">
-        <x:v>88</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="B9" s="10"/>
       <x:c r="C9" s="10" t="s">
-        <x:v>70</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="D9" s="10"/>
       <x:c r="E9" s="10">
@@ -1705,41 +1651,41 @@
       </x:c>
       <x:c r="F9" s="10"/>
       <x:c r="G9" s="10" t="s">
-        <x:v>69</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="H9" s="10"/>
       <x:c r="I9" s="10" t="s">
-        <x:v>14</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="J9" s="10"/>
       <x:c r="K9" s="10"/>
     </x:row>
     <x:row r="10" spans="1:11">
       <x:c r="A10" s="10" t="s">
-        <x:v>84</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="B10" s="10"/>
       <x:c r="C10" s="10" t="s">
-        <x:v>22</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="D10" s="10"/>
       <x:c r="E10" s="10" t="s">
-        <x:v>83</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="F10" s="10"/>
       <x:c r="G10" s="10" t="s">
-        <x:v>69</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="H10" s="10"/>
       <x:c r="I10" s="10" t="s">
-        <x:v>40</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="J10" s="10"/>
       <x:c r="K10" s="10"/>
     </x:row>
     <x:row r="11" spans="1:11">
       <x:c r="A11" s="11" t="s">
-        <x:v>85</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="B11" s="11"/>
       <x:c r="C11" s="11"/>
@@ -1753,8 +1699,8 @@
       <x:c r="K11" s="11"/>
     </x:row>
     <x:row r="12" spans="1:11">
-      <x:c r="A12" s="16" t="s">
-        <x:v>95</x:v>
+      <x:c r="A12" s="12" t="s">
+        <x:v>2</x:v>
       </x:c>
       <x:c r="B12" s="10"/>
       <x:c r="C12" s="10"/>
@@ -1929,7 +1875,7 @@
     <x:mergeCell ref="G5:H5"/>
     <x:mergeCell ref="G6:H6"/>
   </x:mergeCells>
-  <x:pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <x:pageMargins left="0.69972223043441772" right="0.69972223043441772" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="4294967293" verticalDpi="4294967293" copies="1"/>
 </x:worksheet>
 </file>
@@ -1947,7 +1893,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:11">
       <x:c r="A1" s="6" t="s">
-        <x:v>59</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="B1" s="6"/>
       <x:c r="C1" s="6"/>
@@ -1975,7 +1921,7 @@
     </x:row>
     <x:row r="3" spans="1:11">
       <x:c r="A3" s="7" t="s">
-        <x:v>82</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="B3" s="7"/>
       <x:c r="C3" s="7"/>
@@ -1990,34 +1936,34 @@
     </x:row>
     <x:row r="4" spans="1:11">
       <x:c r="A4" s="6" t="s">
-        <x:v>64</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="B4" s="6"/>
       <x:c r="C4" s="6" t="s">
-        <x:v>66</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="D4" s="6"/>
       <x:c r="E4" s="8" t="s">
-        <x:v>10</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="F4" s="9"/>
       <x:c r="G4" s="6" t="s">
-        <x:v>72</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="H4" s="6"/>
       <x:c r="I4" s="6" t="s">
-        <x:v>73</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="J4" s="6"/>
       <x:c r="K4" s="6"/>
     </x:row>
     <x:row r="5" spans="1:11">
       <x:c r="A5" s="10" t="s">
-        <x:v>16</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="B5" s="10"/>
       <x:c r="C5" s="10" t="s">
-        <x:v>70</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="D5" s="10"/>
       <x:c r="E5" s="10">
@@ -2025,64 +1971,64 @@
       </x:c>
       <x:c r="F5" s="10"/>
       <x:c r="G5" s="10" t="s">
-        <x:v>39</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="H5" s="10"/>
       <x:c r="I5" s="10" t="s">
-        <x:v>56</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="J5" s="10"/>
       <x:c r="K5" s="10"/>
     </x:row>
     <x:row r="6" spans="1:11">
       <x:c r="A6" s="10" t="s">
-        <x:v>41</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="B6" s="10"/>
       <x:c r="C6" s="10" t="s">
-        <x:v>22</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="D6" s="10"/>
       <x:c r="E6" s="10" t="s">
-        <x:v>83</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="F6" s="10"/>
       <x:c r="G6" s="10" t="s">
-        <x:v>39</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="H6" s="10"/>
       <x:c r="I6" s="10" t="s">
-        <x:v>2</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="J6" s="10"/>
       <x:c r="K6" s="10"/>
     </x:row>
     <x:row r="7" spans="1:11">
       <x:c r="A7" s="10" t="s">
-        <x:v>15</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="B7" s="10"/>
       <x:c r="C7" s="10" t="s">
-        <x:v>35</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D7" s="10"/>
       <x:c r="E7" s="10" t="s">
-        <x:v>83</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="F7" s="10"/>
       <x:c r="G7" s="10" t="s">
-        <x:v>69</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="H7" s="10"/>
       <x:c r="I7" s="10" t="s">
-        <x:v>44</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="J7" s="10"/>
       <x:c r="K7" s="10"/>
     </x:row>
     <x:row r="8" spans="1:11">
       <x:c r="A8" s="11" t="s">
-        <x:v>85</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="B8" s="11"/>
       <x:c r="C8" s="11"/>
@@ -2096,8 +2042,8 @@
       <x:c r="K8" s="11"/>
     </x:row>
     <x:row r="9" spans="1:11">
-      <x:c r="A9" s="15" t="s">
-        <x:v>49</x:v>
+      <x:c r="A9" s="12" t="s">
+        <x:v>53</x:v>
       </x:c>
       <x:c r="B9" s="10"/>
       <x:c r="C9" s="10"/>
@@ -2257,7 +2203,7 @@
     <x:mergeCell ref="G7:H7"/>
     <x:mergeCell ref="I7:K7"/>
   </x:mergeCells>
-  <x:pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <x:pageMargins left="0.69972223043441772" right="0.69972223043441772" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="4294967293" verticalDpi="4294967293" copies="1"/>
 </x:worksheet>
 </file>
@@ -2275,7 +2221,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:11">
       <x:c r="A1" s="6" t="s">
-        <x:v>13</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B1" s="6"/>
       <x:c r="C1" s="6"/>
@@ -2303,7 +2249,7 @@
     </x:row>
     <x:row r="3" spans="1:11">
       <x:c r="A3" s="7" t="s">
-        <x:v>7</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B3" s="7"/>
       <x:c r="C3" s="7"/>
@@ -2318,57 +2264,57 @@
     </x:row>
     <x:row r="4" spans="1:11">
       <x:c r="A4" s="6" t="s">
-        <x:v>64</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="B4" s="6"/>
       <x:c r="C4" s="6" t="s">
-        <x:v>66</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="D4" s="6"/>
       <x:c r="E4" s="8" t="s">
-        <x:v>10</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="F4" s="9"/>
       <x:c r="G4" s="6" t="s">
-        <x:v>72</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="H4" s="6"/>
       <x:c r="I4" s="6" t="s">
-        <x:v>73</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="J4" s="6"/>
       <x:c r="K4" s="6"/>
     </x:row>
     <x:row r="5" spans="1:11">
       <x:c r="A5" s="10" t="s">
-        <x:v>71</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="B5" s="10"/>
       <x:c r="C5" s="10" t="s">
-        <x:v>22</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="D5" s="10"/>
       <x:c r="E5" s="10" t="s">
-        <x:v>83</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="F5" s="10"/>
       <x:c r="G5" s="10" t="s">
-        <x:v>89</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="H5" s="10"/>
       <x:c r="I5" s="10" t="s">
-        <x:v>74</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="J5" s="10"/>
       <x:c r="K5" s="10"/>
     </x:row>
     <x:row r="6" spans="1:11">
       <x:c r="A6" s="10" t="s">
-        <x:v>62</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="B6" s="10"/>
       <x:c r="C6" s="10" t="s">
-        <x:v>70</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="D6" s="10"/>
       <x:c r="E6" s="10">
@@ -2376,22 +2322,22 @@
       </x:c>
       <x:c r="F6" s="10"/>
       <x:c r="G6" s="10" t="s">
-        <x:v>69</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="H6" s="10"/>
       <x:c r="I6" s="10" t="s">
-        <x:v>28</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="J6" s="10"/>
       <x:c r="K6" s="10"/>
     </x:row>
     <x:row r="7" spans="1:11">
       <x:c r="A7" s="10" t="s">
-        <x:v>63</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="B7" s="10"/>
       <x:c r="C7" s="10" t="s">
-        <x:v>70</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="D7" s="10"/>
       <x:c r="E7" s="10">
@@ -2401,41 +2347,41 @@
       <x:c r="G7" s="10"/>
       <x:c r="H7" s="10"/>
       <x:c r="I7" s="10" t="s">
-        <x:v>27</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="J7" s="10"/>
       <x:c r="K7" s="10"/>
     </x:row>
     <x:row r="8" spans="1:11">
       <x:c r="A8" s="10" t="s">
-        <x:v>67</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="B8" s="10"/>
       <x:c r="C8" s="10" t="s">
-        <x:v>22</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="D8" s="10"/>
       <x:c r="E8" s="10" t="s">
-        <x:v>83</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="F8" s="10"/>
       <x:c r="G8" s="10" t="s">
-        <x:v>69</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="H8" s="10"/>
       <x:c r="I8" s="10" t="s">
-        <x:v>45</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="J8" s="10"/>
       <x:c r="K8" s="10"/>
     </x:row>
     <x:row r="9" spans="1:11">
       <x:c r="A9" s="10" t="s">
-        <x:v>68</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="B9" s="10"/>
       <x:c r="C9" s="10" t="s">
-        <x:v>70</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="D9" s="10"/>
       <x:c r="E9" s="10">
@@ -2443,18 +2389,18 @@
       </x:c>
       <x:c r="F9" s="10"/>
       <x:c r="G9" s="10" t="s">
-        <x:v>69</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="H9" s="10"/>
       <x:c r="I9" s="10" t="s">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="J9" s="10"/>
       <x:c r="K9" s="10"/>
     </x:row>
     <x:row r="10" spans="1:11">
       <x:c r="A10" s="11" t="s">
-        <x:v>85</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="B10" s="11"/>
       <x:c r="C10" s="11"/>
@@ -2468,8 +2414,8 @@
       <x:c r="K10" s="11"/>
     </x:row>
     <x:row r="11" spans="1:11">
-      <x:c r="A11" s="17" t="s">
-        <x:v>0</x:v>
+      <x:c r="A11" s="12" t="s">
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B11" s="10"/>
       <x:c r="C11" s="10"/>
@@ -2639,7 +2585,7 @@
     <x:mergeCell ref="G9:H9"/>
     <x:mergeCell ref="I9:K9"/>
   </x:mergeCells>
-  <x:pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <x:pageMargins left="0.69972223043441772" right="0.69972223043441772" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="4294967293" verticalDpi="4294967293" copies="1"/>
 </x:worksheet>
 </file>
@@ -2649,15 +2595,15 @@
   <x:sheetPr codeName="Sheet4"/>
   <x:dimension ref="A1:M22"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A1" zoomScaleNormal="125" workbookViewId="0">
-      <x:selection activeCell="A10" activeCellId="0" sqref="A10:K19"/>
+    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="125" workbookViewId="0">
+      <x:selection activeCell="G23" activeCellId="0" sqref="G23:G23"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.399999999999999"/>
   <x:sheetData>
     <x:row r="1" spans="1:11">
       <x:c r="A1" s="6" t="s">
-        <x:v>32</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="B1" s="6"/>
       <x:c r="C1" s="6"/>
@@ -2685,7 +2631,7 @@
     </x:row>
     <x:row r="3" spans="1:11">
       <x:c r="A3" s="7" t="s">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="B3" s="7"/>
       <x:c r="C3" s="7"/>
@@ -2700,57 +2646,57 @@
     </x:row>
     <x:row r="4" spans="1:11">
       <x:c r="A4" s="6" t="s">
-        <x:v>64</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="B4" s="6"/>
       <x:c r="C4" s="6" t="s">
-        <x:v>66</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="D4" s="6"/>
       <x:c r="E4" s="8" t="s">
-        <x:v>10</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="F4" s="9"/>
       <x:c r="G4" s="6" t="s">
-        <x:v>72</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="H4" s="6"/>
       <x:c r="I4" s="6" t="s">
-        <x:v>73</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="J4" s="6"/>
       <x:c r="K4" s="6"/>
     </x:row>
     <x:row r="5" spans="1:11">
       <x:c r="A5" s="10" t="s">
-        <x:v>41</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="B5" s="10"/>
       <x:c r="C5" s="10" t="s">
-        <x:v>22</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="D5" s="10"/>
       <x:c r="E5" s="10" t="s">
-        <x:v>83</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="F5" s="10"/>
       <x:c r="G5" s="10" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="H5" s="10"/>
       <x:c r="I5" s="10" t="s">
-        <x:v>60</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="J5" s="10"/>
       <x:c r="K5" s="10"/>
     </x:row>
     <x:row r="6" spans="1:11">
       <x:c r="A6" s="10" t="s">
-        <x:v>16</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="B6" s="10"/>
       <x:c r="C6" s="10" t="s">
-        <x:v>70</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="D6" s="10"/>
       <x:c r="E6" s="10">
@@ -2758,63 +2704,61 @@
       </x:c>
       <x:c r="F6" s="10"/>
       <x:c r="G6" s="10" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="H6" s="10"/>
       <x:c r="I6" s="10" t="s">
-        <x:v>36</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="J6" s="10"/>
       <x:c r="K6" s="10"/>
     </x:row>
     <x:row r="7" spans="1:11">
       <x:c r="A7" s="10" t="s">
-        <x:v>19</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="B7" s="10"/>
       <x:c r="C7" s="10" t="s">
-        <x:v>22</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="D7" s="10"/>
       <x:c r="E7" s="10" t="s">
-        <x:v>34</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="F7" s="10"/>
       <x:c r="G7" s="10"/>
       <x:c r="H7" s="10"/>
       <x:c r="I7" s="10" t="s">
-        <x:v>87</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="J7" s="10"/>
       <x:c r="K7" s="10"/>
     </x:row>
     <x:row r="8" spans="1:11">
       <x:c r="A8" s="10" t="s">
-        <x:v>86</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="B8" s="10"/>
       <x:c r="C8" s="10" t="s">
-        <x:v>22</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="D8" s="10"/>
       <x:c r="E8" s="10" t="s">
-        <x:v>83</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="F8" s="10"/>
       <x:c r="G8" s="10" t="s">
-        <x:v>90</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="H8" s="10"/>
       <x:c r="I8" s="10" t="s">
-        <x:v>61</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="J8" s="10"/>
       <x:c r="K8" s="10"/>
     </x:row>
     <x:row r="9" spans="1:11">
-      <x:c r="A9" s="11" t="s">
-        <x:v>85</x:v>
-      </x:c>
+      <x:c r="A9" s="11"/>
       <x:c r="B9" s="11"/>
       <x:c r="C9" s="11"/>
       <x:c r="D9" s="11"/>
@@ -2827,7 +2771,7 @@
       <x:c r="K9" s="11"/>
     </x:row>
     <x:row r="10" spans="1:11">
-      <x:c r="A10" s="12" t="s">
+      <x:c r="A10" s="15" t="s">
         <x:v>94</x:v>
       </x:c>
       <x:c r="B10" s="10"/>
@@ -2993,7 +2937,7 @@
     <x:mergeCell ref="G8:H8"/>
     <x:mergeCell ref="I8:K8"/>
   </x:mergeCells>
-  <x:pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <x:pageMargins left="0.69972223043441772" right="0.69972223043441772" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="4294967293" verticalDpi="4294967293" copies="1"/>
 </x:worksheet>
 </file>
@@ -3039,7 +2983,7 @@
     </x:row>
     <x:row r="3" spans="1:11">
       <x:c r="A3" s="7" t="s">
-        <x:v>3</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="B3" s="7"/>
       <x:c r="C3" s="7"/>
@@ -3054,103 +2998,103 @@
     </x:row>
     <x:row r="4" spans="1:11">
       <x:c r="A4" s="6" t="s">
-        <x:v>64</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="B4" s="6"/>
       <x:c r="C4" s="6" t="s">
-        <x:v>66</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="D4" s="6"/>
       <x:c r="E4" s="8" t="s">
-        <x:v>10</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="F4" s="9"/>
       <x:c r="G4" s="6" t="s">
-        <x:v>72</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="H4" s="6"/>
       <x:c r="I4" s="6" t="s">
-        <x:v>73</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="J4" s="6"/>
       <x:c r="K4" s="6"/>
     </x:row>
     <x:row r="5" spans="1:11">
       <x:c r="A5" s="10" t="s">
-        <x:v>41</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="B5" s="10"/>
       <x:c r="C5" s="10" t="s">
-        <x:v>70</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="D5" s="10"/>
       <x:c r="E5" s="10" t="s">
-        <x:v>83</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="F5" s="10"/>
       <x:c r="G5" s="10" t="s">
-        <x:v>52</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="H5" s="10"/>
       <x:c r="I5" s="10" t="s">
-        <x:v>74</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="J5" s="10"/>
       <x:c r="K5" s="10"/>
     </x:row>
     <x:row r="6" spans="1:11">
       <x:c r="A6" s="10" t="s">
-        <x:v>86</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="B6" s="10"/>
       <x:c r="C6" s="10" t="s">
-        <x:v>70</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="D6" s="10"/>
       <x:c r="E6" s="10" t="s">
-        <x:v>83</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="F6" s="10"/>
       <x:c r="G6" s="10" t="s">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H6" s="10"/>
       <x:c r="I6" s="10" t="s">
-        <x:v>55</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="J6" s="10"/>
       <x:c r="K6" s="10"/>
     </x:row>
     <x:row r="7" spans="1:11">
       <x:c r="A7" s="10" t="s">
-        <x:v>47</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="B7" s="10"/>
       <x:c r="C7" s="10" t="s">
-        <x:v>70</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="D7" s="10"/>
       <x:c r="E7" s="10" t="s">
-        <x:v>83</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="F7" s="10"/>
       <x:c r="G7" s="10" t="s">
-        <x:v>69</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="H7" s="10"/>
       <x:c r="I7" s="10" t="s">
-        <x:v>30</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="J7" s="10"/>
       <x:c r="K7" s="10"/>
     </x:row>
     <x:row r="8" spans="1:11">
       <x:c r="A8" s="10" t="s">
-        <x:v>76</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="B8" s="10"/>
       <x:c r="C8" s="10" t="s">
-        <x:v>70</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="D8" s="10"/>
       <x:c r="E8" s="10">
@@ -3158,18 +3102,18 @@
       </x:c>
       <x:c r="F8" s="10"/>
       <x:c r="G8" s="10" t="s">
-        <x:v>69</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="H8" s="10"/>
       <x:c r="I8" s="10" t="s">
-        <x:v>26</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="J8" s="10"/>
       <x:c r="K8" s="10"/>
     </x:row>
     <x:row r="9" spans="1:11">
       <x:c r="A9" s="11" t="s">
-        <x:v>85</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="B9" s="11"/>
       <x:c r="C9" s="11"/>
@@ -3183,8 +3127,8 @@
       <x:c r="K9" s="11"/>
     </x:row>
     <x:row r="10" spans="1:11">
-      <x:c r="A10" s="15" t="s">
-        <x:v>93</x:v>
+      <x:c r="A10" s="12" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="B10" s="10"/>
       <x:c r="C10" s="10"/>
@@ -3349,7 +3293,7 @@
     <x:mergeCell ref="G8:H8"/>
     <x:mergeCell ref="I8:K8"/>
   </x:mergeCells>
-  <x:pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <x:pageMargins left="0.69972223043441772" right="0.69972223043441772" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="4294967293" verticalDpi="4294967293" copies="1"/>
 </x:worksheet>
 </file>
@@ -3367,7 +3311,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:11">
       <x:c r="A1" s="6" t="s">
-        <x:v>21</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="B1" s="6"/>
       <x:c r="C1" s="6"/>
@@ -3395,7 +3339,7 @@
     </x:row>
     <x:row r="3" spans="1:11">
       <x:c r="A3" s="7" t="s">
-        <x:v>6</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="B3" s="7"/>
       <x:c r="C3" s="7"/>
@@ -3410,46 +3354,46 @@
     </x:row>
     <x:row r="4" spans="1:11">
       <x:c r="A4" s="6" t="s">
-        <x:v>64</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="B4" s="6"/>
       <x:c r="C4" s="6" t="s">
-        <x:v>66</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="D4" s="6"/>
       <x:c r="E4" s="8" t="s">
-        <x:v>10</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="F4" s="9"/>
       <x:c r="G4" s="6" t="s">
-        <x:v>72</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="H4" s="6"/>
       <x:c r="I4" s="6" t="s">
-        <x:v>73</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="J4" s="6"/>
       <x:c r="K4" s="6"/>
     </x:row>
     <x:row r="5" spans="1:11">
       <x:c r="A5" s="10" t="s">
-        <x:v>86</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="B5" s="10"/>
       <x:c r="C5" s="10" t="s">
-        <x:v>22</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="D5" s="10"/>
       <x:c r="E5" s="10" t="s">
-        <x:v>83</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="F5" s="10"/>
       <x:c r="G5" s="10" t="s">
-        <x:v>89</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="H5" s="10"/>
       <x:c r="I5" s="10" t="s">
-        <x:v>53</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="J5" s="10"/>
       <x:c r="K5" s="10"/>
@@ -3460,7 +3404,7 @@
       </x:c>
       <x:c r="B6" s="10"/>
       <x:c r="C6" s="10" t="s">
-        <x:v>70</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="D6" s="10"/>
       <x:c r="E6" s="10">
@@ -3468,18 +3412,18 @@
       </x:c>
       <x:c r="F6" s="10"/>
       <x:c r="G6" s="10" t="s">
-        <x:v>89</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="H6" s="10"/>
       <x:c r="I6" s="10" t="s">
-        <x:v>17</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="J6" s="10"/>
       <x:c r="K6" s="10"/>
     </x:row>
     <x:row r="7" spans="1:11">
       <x:c r="A7" s="11" t="s">
-        <x:v>85</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="B7" s="11"/>
       <x:c r="C7" s="11"/>
@@ -3493,8 +3437,8 @@
       <x:c r="K7" s="11"/>
     </x:row>
     <x:row r="8" spans="1:11">
-      <x:c r="A8" s="18" t="s">
-        <x:v>91</x:v>
+      <x:c r="A8" s="12" t="s">
+        <x:v>54</x:v>
       </x:c>
       <x:c r="B8" s="10"/>
       <x:c r="C8" s="10"/>
@@ -3649,7 +3593,7 @@
     <x:mergeCell ref="G6:H6"/>
     <x:mergeCell ref="I6:K6"/>
   </x:mergeCells>
-  <x:pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <x:pageMargins left="0.69972223043441772" right="0.69972223043441772" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="4294967293" verticalDpi="4294967293" copies="1"/>
 </x:worksheet>
 </file>
@@ -3667,7 +3611,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:11">
       <x:c r="A1" s="6" t="s">
-        <x:v>77</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="B1" s="6"/>
       <x:c r="C1" s="6"/>
@@ -3695,7 +3639,7 @@
     </x:row>
     <x:row r="3" spans="1:11">
       <x:c r="A3" s="7" t="s">
-        <x:v>5</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="B3" s="7"/>
       <x:c r="C3" s="7"/>
@@ -3710,80 +3654,80 @@
     </x:row>
     <x:row r="4" spans="1:11">
       <x:c r="A4" s="6" t="s">
-        <x:v>64</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="B4" s="6"/>
       <x:c r="C4" s="6" t="s">
-        <x:v>66</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="D4" s="6"/>
       <x:c r="E4" s="8" t="s">
-        <x:v>10</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="F4" s="9"/>
       <x:c r="G4" s="6" t="s">
-        <x:v>72</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="H4" s="6"/>
       <x:c r="I4" s="6" t="s">
-        <x:v>73</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="J4" s="6"/>
       <x:c r="K4" s="6"/>
     </x:row>
     <x:row r="5" spans="1:11">
       <x:c r="A5" s="10" t="s">
-        <x:v>41</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="B5" s="10"/>
       <x:c r="C5" s="10" t="s">
-        <x:v>22</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="D5" s="10"/>
       <x:c r="E5" s="10" t="s">
-        <x:v>83</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="F5" s="10"/>
       <x:c r="G5" s="10" t="s">
-        <x:v>39</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="H5" s="10"/>
       <x:c r="I5" s="10" t="s">
-        <x:v>75</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="J5" s="10"/>
       <x:c r="K5" s="10"/>
     </x:row>
     <x:row r="6" spans="1:11">
       <x:c r="A6" s="10" t="s">
-        <x:v>86</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="B6" s="10"/>
       <x:c r="C6" s="10" t="s">
-        <x:v>22</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="D6" s="10"/>
       <x:c r="E6" s="10" t="s">
-        <x:v>83</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="F6" s="10"/>
       <x:c r="G6" s="10" t="s">
-        <x:v>89</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="H6" s="10"/>
       <x:c r="I6" s="10" t="s">
-        <x:v>50</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="J6" s="10"/>
       <x:c r="K6" s="10"/>
     </x:row>
     <x:row r="7" spans="1:11">
       <x:c r="A7" s="10" t="s">
-        <x:v>31</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="B7" s="10"/>
       <x:c r="C7" s="10" t="s">
-        <x:v>70</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="D7" s="10"/>
       <x:c r="E7" s="10">
@@ -3793,18 +3737,18 @@
       <x:c r="G7" s="10"/>
       <x:c r="H7" s="10"/>
       <x:c r="I7" s="10" t="s">
-        <x:v>18</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="J7" s="10"/>
       <x:c r="K7" s="10"/>
     </x:row>
     <x:row r="8" spans="1:11">
       <x:c r="A8" s="10" t="s">
-        <x:v>78</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="B8" s="10"/>
       <x:c r="C8" s="10" t="s">
-        <x:v>70</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="D8" s="10"/>
       <x:c r="E8" s="10">
@@ -3812,41 +3756,41 @@
       </x:c>
       <x:c r="F8" s="10"/>
       <x:c r="G8" s="10" t="s">
-        <x:v>69</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="H8" s="10"/>
       <x:c r="I8" s="10" t="s">
-        <x:v>33</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="J8" s="10"/>
       <x:c r="K8" s="10"/>
     </x:row>
     <x:row r="9" spans="1:11">
       <x:c r="A9" s="10" t="s">
-        <x:v>47</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="B9" s="10"/>
       <x:c r="C9" s="10" t="s">
-        <x:v>22</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="D9" s="10"/>
       <x:c r="E9" s="10" t="s">
-        <x:v>83</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="F9" s="10"/>
       <x:c r="G9" s="10" t="s">
-        <x:v>69</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="H9" s="10"/>
       <x:c r="I9" s="10" t="s">
-        <x:v>37</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="J9" s="10"/>
       <x:c r="K9" s="10"/>
     </x:row>
     <x:row r="10" spans="1:11">
       <x:c r="A10" s="11" t="s">
-        <x:v>85</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="B10" s="11"/>
       <x:c r="C10" s="11"/>
@@ -3860,8 +3804,8 @@
       <x:c r="K10" s="11"/>
     </x:row>
     <x:row r="11" spans="1:11">
-      <x:c r="A11" s="16" t="s">
-        <x:v>92</x:v>
+      <x:c r="A11" s="12" t="s">
+        <x:v>0</x:v>
       </x:c>
       <x:c r="B11" s="10"/>
       <x:c r="C11" s="10"/>
@@ -4031,7 +3975,7 @@
     <x:mergeCell ref="G9:H9"/>
     <x:mergeCell ref="I9:K9"/>
   </x:mergeCells>
-  <x:pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <x:pageMargins left="0.69972223043441772" right="0.69972223043441772" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="4294967293" verticalDpi="4294967293" copies="1"/>
 </x:worksheet>
 </file>
@@ -4041,15 +3985,15 @@
   <x:sheetPr codeName="Sheet8"/>
   <x:dimension ref="A1:M25"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="125" workbookViewId="0">
-      <x:selection activeCell="A13" activeCellId="0" sqref="A13:K22"/>
+    <x:sheetView topLeftCell="A1" zoomScaleNormal="125" workbookViewId="0">
+      <x:selection activeCell="A12" activeCellId="0" sqref="A12:K12"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.399999999999999"/>
   <x:sheetData>
     <x:row r="1" spans="1:11">
       <x:c r="A1" s="6" t="s">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="B1" s="6"/>
       <x:c r="C1" s="6"/>
@@ -4077,7 +4021,7 @@
     </x:row>
     <x:row r="3" spans="1:11">
       <x:c r="A3" s="7" t="s">
-        <x:v>4</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="B3" s="7"/>
       <x:c r="C3" s="7"/>
@@ -4092,57 +4036,57 @@
     </x:row>
     <x:row r="4" spans="1:11">
       <x:c r="A4" s="6" t="s">
-        <x:v>64</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="B4" s="6"/>
       <x:c r="C4" s="6" t="s">
-        <x:v>66</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="D4" s="6"/>
       <x:c r="E4" s="8" t="s">
-        <x:v>10</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="F4" s="9"/>
       <x:c r="G4" s="6" t="s">
-        <x:v>72</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="H4" s="6"/>
       <x:c r="I4" s="6" t="s">
-        <x:v>73</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="J4" s="6"/>
       <x:c r="K4" s="6"/>
     </x:row>
     <x:row r="5" spans="1:11">
       <x:c r="A5" s="10" t="s">
-        <x:v>41</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="B5" s="10"/>
       <x:c r="C5" s="10" t="s">
-        <x:v>22</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="D5" s="10"/>
       <x:c r="E5" s="10" t="s">
-        <x:v>83</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="F5" s="10"/>
       <x:c r="G5" s="10" t="s">
-        <x:v>39</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="H5" s="10"/>
       <x:c r="I5" s="10" t="s">
-        <x:v>51</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="J5" s="10"/>
       <x:c r="K5" s="10"/>
     </x:row>
     <x:row r="6" spans="1:11">
       <x:c r="A6" s="10" t="s">
-        <x:v>12</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="B6" s="10"/>
       <x:c r="C6" s="10" t="s">
-        <x:v>70</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="D6" s="10"/>
       <x:c r="E6" s="10">
@@ -4152,18 +4096,18 @@
       <x:c r="G6" s="13"/>
       <x:c r="H6" s="14"/>
       <x:c r="I6" s="10" t="s">
-        <x:v>25</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="J6" s="10"/>
       <x:c r="K6" s="10"/>
     </x:row>
     <x:row r="7" spans="1:11">
       <x:c r="A7" s="10" t="s">
-        <x:v>29</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="B7" s="10"/>
       <x:c r="C7" s="10" t="s">
-        <x:v>70</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="D7" s="10"/>
       <x:c r="E7" s="10">
@@ -4173,18 +4117,18 @@
       <x:c r="G7" s="10"/>
       <x:c r="H7" s="10"/>
       <x:c r="I7" s="10" t="s">
-        <x:v>38</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="J7" s="10"/>
       <x:c r="K7" s="10"/>
     </x:row>
     <x:row r="8" spans="1:11">
       <x:c r="A8" s="10" t="s">
-        <x:v>57</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="B8" s="10"/>
       <x:c r="C8" s="10" t="s">
-        <x:v>70</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="D8" s="10"/>
       <x:c r="E8" s="10">
@@ -4194,18 +4138,18 @@
       <x:c r="G8" s="10"/>
       <x:c r="H8" s="10"/>
       <x:c r="I8" s="10" t="s">
-        <x:v>23</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="J8" s="10"/>
       <x:c r="K8" s="10"/>
     </x:row>
     <x:row r="9" spans="1:11">
       <x:c r="A9" s="10" t="s">
-        <x:v>79</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="B9" s="10"/>
       <x:c r="C9" s="10" t="s">
-        <x:v>70</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="D9" s="10"/>
       <x:c r="E9" s="10">
@@ -4213,22 +4157,22 @@
       </x:c>
       <x:c r="F9" s="10"/>
       <x:c r="G9" s="10" t="s">
-        <x:v>89</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="H9" s="10"/>
       <x:c r="I9" s="10" t="s">
-        <x:v>24</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="J9" s="10"/>
       <x:c r="K9" s="10"/>
     </x:row>
     <x:row r="10" spans="1:11">
       <x:c r="A10" s="10" t="s">
-        <x:v>88</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="B10" s="10"/>
       <x:c r="C10" s="10" t="s">
-        <x:v>70</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="D10" s="10"/>
       <x:c r="E10" s="10">
@@ -4236,41 +4180,41 @@
       </x:c>
       <x:c r="F10" s="10"/>
       <x:c r="G10" s="10" t="s">
-        <x:v>69</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="H10" s="10"/>
       <x:c r="I10" s="10" t="s">
-        <x:v>25</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="J10" s="10"/>
       <x:c r="K10" s="10"/>
     </x:row>
     <x:row r="11" spans="1:11">
       <x:c r="A11" s="10" t="s">
-        <x:v>84</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="B11" s="10"/>
       <x:c r="C11" s="10" t="s">
-        <x:v>22</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="D11" s="10"/>
       <x:c r="E11" s="10" t="s">
-        <x:v>83</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="F11" s="10"/>
       <x:c r="G11" s="10" t="s">
-        <x:v>69</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="H11" s="10"/>
       <x:c r="I11" s="10" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="J11" s="10"/>
       <x:c r="K11" s="10"/>
     </x:row>
     <x:row r="12" spans="1:11">
       <x:c r="A12" s="11" t="s">
-        <x:v>85</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="B12" s="11"/>
       <x:c r="C12" s="11"/>
@@ -4284,8 +4228,8 @@
       <x:c r="K12" s="11"/>
     </x:row>
     <x:row r="13" spans="1:11">
-      <x:c r="A13" s="19" t="s">
-        <x:v>81</x:v>
+      <x:c r="A13" s="12" t="s">
+        <x:v>13</x:v>
       </x:c>
       <x:c r="B13" s="10"/>
       <x:c r="C13" s="10"/>
@@ -4465,7 +4409,7 @@
     <x:mergeCell ref="E11:F11"/>
     <x:mergeCell ref="G11:H11"/>
   </x:mergeCells>
-  <x:pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <x:pageMargins left="0.69972223043441772" right="0.69972223043441772" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="4294967293" verticalDpi="4294967293" copies="1"/>
 </x:worksheet>
 </file>
--- a/phase2/README.xlsx
+++ b/phase2/README.xlsx
@@ -22,34 +22,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="95">
   <x:si>
-    <x:t>create table beverage(
-    Bnum number not null references store(Breg_number),
-    Id number not null,
-    Alcohol varchar2(2),
-    Drink_name varchar2(30) not null,
-    Price number not null,
-    constraint pk_beverage primary key(Bnum, Id)
-);</x:t>
-  </x:si>
-  <x:si>
-    <x:t>create table food(
-    Bnum number not null references store(Breg_number),
-    Id number not null unique,
-    Price number not null,
-    Food_name varchar2(50) not null
-);</x:t>
-  </x:si>
-  <x:si>
-    <x:t>create table customer(
-    Fname varchar2(2),
-    Lname varchar2(4),
-    Phone_number varchar2(11),
-    Customer_email varchar2(50) not null primary key,
-    Sex varchar2(10) not null,
-    Age number not null
-);</x:t>
-  </x:si>
-  <x:si>
     <x:t>create table store(
     Breg_number number not null primary key,
     Store_name varchar2(40) not null,
@@ -57,33 +29,6 @@
     Seat_number number not null,
     Location varchar2(70) not null
 );</x:t>
-  </x:si>
-  <x:si>
-    <x:t>not null, UNIQUE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>예약한 가게의 Brenumber</x:t>
-  </x:si>
-  <x:si>
-    <x:t>고객 정보를 담고 있는 테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>음료 정보를 담고 있는 테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>원산지 정보를 담고 있는 테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가게 정보를 담고 있는 테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>음식 정보를 가지고 있는 테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>점주 정보를 담고 있는 테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>고객이 가게에 대한 평가를 담고 있는 테이블</x:t>
   </x:si>
   <x:si>
     <x:t>create table owner(
@@ -98,6 +43,40 @@
 );</x:t>
   </x:si>
   <x:si>
+    <x:t>create table origin(
+    Id number not null references food(Id),
+    Country_name varchar2(20),
+    constraint pk_origin_country primary key(Id, Country_name)
+);</x:t>
+  </x:si>
+  <x:si>
+    <x:t>고객이 가게에 대한 평가를 담고 있는 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>not null, UNIQUE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>예약한 가게의 Brenumber</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가게 정보를 담고 있는 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>원산지 정보를 담고 있는 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>고객 정보를 담고 있는 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>음료 정보를 담고 있는 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>음식 정보를 가지고 있는 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>점주 정보를 담고 있는 테이블</x:t>
+  </x:si>
+  <x:si>
     <x:t>고객의 이메일</x:t>
   </x:si>
   <x:si>
@@ -110,109 +89,109 @@
     <x:t>점주의 이름</x:t>
   </x:si>
   <x:si>
+    <x:t>ORIGIN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>고객의 성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Cemail</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가게 종류</x:t>
+  </x:si>
+  <x:si>
+    <x:t>음료 이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>고객의 나이</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가게 이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>STORE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>음식 이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>점주 전화번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>점주의 나이</x:t>
+  </x:si>
+  <x:si>
+    <x:t>음료 가격</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DATE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가게 위치</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Alcohol</x:t>
+  </x:si>
+  <x:si>
+    <x:t>고객 전화번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Time</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fname</x:t>
+  </x:si>
+  <x:si>
+    <x:t>알코올 여부</x:t>
+  </x:si>
+  <x:si>
+    <x:t>점주의 이메일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NUMBER</x:t>
+  </x:si>
+  <x:si>
+    <x:t>size</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(2,1)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FOOD</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Price</x:t>
+  </x:si>
+  <x:si>
+    <x:t>고객의 이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PK, FK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>점주의 성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>OWNER</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lname</x:t>
+  </x:si>
+  <x:si>
     <x:t>음식 가격</x:t>
   </x:si>
   <x:si>
-    <x:t>ORIGIN</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Alcohol</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fname</x:t>
-  </x:si>
-  <x:si>
-    <x:t>고객의 성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>STORE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>점주의 나이</x:t>
-  </x:si>
-  <x:si>
-    <x:t>알코올 여부</x:t>
-  </x:si>
-  <x:si>
-    <x:t>점주의 이메일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>점주의 성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>size</x:t>
-  </x:si>
-  <x:si>
     <x:t>Score</x:t>
   </x:si>
   <x:si>
-    <x:t>NUMBER</x:t>
-  </x:si>
-  <x:si>
-    <x:t>음식 이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Cemail</x:t>
-  </x:si>
-  <x:si>
-    <x:t>고객 전화번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Time</x:t>
-  </x:si>
-  <x:si>
-    <x:t>점주 전화번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가게 종류</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가게 이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lname</x:t>
-  </x:si>
-  <x:si>
-    <x:t>음료 이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>음료 가격</x:t>
-  </x:si>
-  <x:si>
-    <x:t>(2,1)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DATE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FOOD</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Price</x:t>
-  </x:si>
-  <x:si>
-    <x:t>고객의 나이</x:t>
-  </x:si>
-  <x:si>
-    <x:t>고객의 이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가게 위치</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PK, FK</x:t>
-  </x:si>
-  <x:si>
-    <x:t>OWNER</x:t>
+    <x:t>예약한 시간대</x:t>
   </x:si>
   <x:si>
     <x:t>Bnum</x:t>
   </x:si>
   <x:si>
     <x:t>가게 좌석수</x:t>
-  </x:si>
-  <x:si>
-    <x:t>예약한 시간대</x:t>
   </x:si>
   <x:si>
     <x:t>create table cust_books_str(
@@ -223,137 +202,158 @@
 );</x:t>
   </x:si>
   <x:si>
-    <x:t>create table origin(
-    Id number not null references food(Id),
-    Country_name varchar2(20),
-    constraint pk_origin_country primary key(Id, Country_name)
+    <x:t>create table beverage(
+    Bnum number not null references store(Breg_number),
+    Id number not null,
+    Alcohol varchar2(2),
+    Drink_name varchar2(30) not null,
+    Price number not null,
+    constraint pk_beverage primary key(Bnum, Id)
 );</x:t>
   </x:si>
   <x:si>
-    <x:t>가게의 사업자 등록번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FK, not null</x:t>
-  </x:si>
-  <x:si>
-    <x:t>평가 tuple 일련번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Country_name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>소유한 가게의 사업자등록번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>원산지 tuple 일련번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Customer_email</x:t>
-  </x:si>
-  <x:si>
-    <x:t>예약한 고객의 Email</x:t>
-  </x:si>
-  <x:si>
-    <x:t>음료 tuple 일련번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CUST_BOOKS_STR</x:t>
-  </x:si>
-  <x:si>
-    <x:t>음식 tuple 일련번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Phone_number</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Store_name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>VARCHAR2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>column name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>value type</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CUSTOMER</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Seat_number</x:t>
-  </x:si>
-  <x:si>
-    <x:t>not null</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Store_type</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Location</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Owner_email</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Drink_name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FK not null</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Food_name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Breg_number</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Description</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가게 사업자등록번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BEVERAGE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가게의 사업자등록번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>properties</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Age</x:t>
-  </x:si>
-  <x:si>
-    <x:t>-</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Id</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DDL</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sex</x:t>
-  </x:si>
-  <x:si>
-    <x:t>평점</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PK</x:t>
-  </x:si>
-  <x:si>
-    <x:t>고객의 예약 정보를 담고 있는 테이블</x:t>
+    <x:t>create table food(
+    Bnum number not null references store(Breg_number),
+    Id number not null unique,
+    Price number not null,
+    Food_name varchar2(50) not null
+);</x:t>
   </x:si>
   <x:si>
     <x:t>create table rating(
     Bnum number not null references store(Breg_number),
-    Cemail varchar2(10) not null references customer(Customer_email),
+    Cemail varchar2(50) not null references customer(Customer_email),
     Score number(2,1),
     Id number not null,
     constraint pk_rating primary key(Bnum, Cemail, Id)
 );</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Country_name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가게의 사업자 등록번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Phone_number</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Customer_email</x:t>
+  </x:si>
+  <x:si>
+    <x:t>음식 tuple 일련번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FK, not null</x:t>
+  </x:si>
+  <x:si>
+    <x:t>평가 tuple 일련번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>소유한 가게의 사업자등록번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>원산지 tuple 일련번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>예약한 고객의 Email</x:t>
+  </x:si>
+  <x:si>
+    <x:t>음료 tuple 일련번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CUST_BOOKS_STR</x:t>
+  </x:si>
+  <x:si>
+    <x:t>value type</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CUSTOMER</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Store_name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Seat_number</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VARCHAR2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>not null</x:t>
+  </x:si>
+  <x:si>
+    <x:t>column name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Breg_number</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BEVERAGE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Location</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가게 사업자등록번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Store_type</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FK not null</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Food_name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Description</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가게의 사업자등록번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Owner_email</x:t>
+  </x:si>
+  <x:si>
+    <x:t>properties</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Drink_name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>create table customer(
+    Fname varchar2(2),
+    Lname varchar2(4),
+    Phone_number varchar2(11),
+    Customer_email varchar2(50) not null primary key,
+    Sex varchar2(10) not null,
+    Age number not null
+);</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DDL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>평점</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Id</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sex</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Age</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-</x:t>
+  </x:si>
+  <x:si>
+    <x:t>고객의 예약 정보를 담고 있는 테이블</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1487,7 +1487,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:11">
       <x:c r="A1" s="6" t="s">
-        <x:v>71</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="B1" s="6"/>
       <x:c r="C1" s="6"/>
@@ -1515,7 +1515,7 @@
     </x:row>
     <x:row r="3" spans="1:11">
       <x:c r="A3" s="7" t="s">
-        <x:v>6</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="B3" s="7"/>
       <x:c r="C3" s="7"/>
@@ -1530,19 +1530,19 @@
     </x:row>
     <x:row r="4" spans="1:11">
       <x:c r="A4" s="6" t="s">
-        <x:v>69</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="B4" s="6"/>
       <x:c r="C4" s="6" t="s">
-        <x:v>70</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="D4" s="6"/>
       <x:c r="E4" s="8" t="s">
-        <x:v>28</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="F4" s="9"/>
       <x:c r="G4" s="6" t="s">
-        <x:v>85</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="H4" s="6"/>
       <x:c r="I4" s="6" t="s">
@@ -1553,11 +1553,11 @@
     </x:row>
     <x:row r="5" spans="1:11">
       <x:c r="A5" s="10" t="s">
-        <x:v>21</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="B5" s="10"/>
       <x:c r="C5" s="10" t="s">
-        <x:v>68</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="D5" s="10"/>
       <x:c r="E5" s="10">
@@ -1567,18 +1567,18 @@
       <x:c r="G5" s="10"/>
       <x:c r="H5" s="10"/>
       <x:c r="I5" s="10" t="s">
-        <x:v>22</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="J5" s="10"/>
       <x:c r="K5" s="10"/>
     </x:row>
     <x:row r="6" spans="1:11">
       <x:c r="A6" s="10" t="s">
-        <x:v>38</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="B6" s="10"/>
       <x:c r="C6" s="10" t="s">
-        <x:v>68</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="D6" s="10"/>
       <x:c r="E6" s="10">
@@ -1588,18 +1588,18 @@
       <x:c r="G6" s="10"/>
       <x:c r="H6" s="10"/>
       <x:c r="I6" s="10" t="s">
-        <x:v>46</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="J6" s="10"/>
       <x:c r="K6" s="10"/>
     </x:row>
     <x:row r="7" spans="1:11">
       <x:c r="A7" s="10" t="s">
-        <x:v>66</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="B7" s="10"/>
       <x:c r="C7" s="10" t="s">
-        <x:v>68</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="D7" s="10"/>
       <x:c r="E7" s="10">
@@ -1609,18 +1609,18 @@
       <x:c r="G7" s="10"/>
       <x:c r="H7" s="10"/>
       <x:c r="I7" s="10" t="s">
-        <x:v>33</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="J7" s="10"/>
       <x:c r="K7" s="10"/>
     </x:row>
     <x:row r="8" spans="1:11">
       <x:c r="A8" s="10" t="s">
-        <x:v>61</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="B8" s="10"/>
       <x:c r="C8" s="10" t="s">
-        <x:v>68</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="D8" s="10"/>
       <x:c r="E8" s="10">
@@ -1628,11 +1628,11 @@
       </x:c>
       <x:c r="F8" s="10"/>
       <x:c r="G8" s="10" t="s">
-        <x:v>92</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="H8" s="10"/>
       <x:c r="I8" s="10" t="s">
-        <x:v>14</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="J8" s="10"/>
       <x:c r="K8" s="10"/>
@@ -1643,7 +1643,7 @@
       </x:c>
       <x:c r="B9" s="10"/>
       <x:c r="C9" s="10" t="s">
-        <x:v>68</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="D9" s="10"/>
       <x:c r="E9" s="10">
@@ -1651,41 +1651,41 @@
       </x:c>
       <x:c r="F9" s="10"/>
       <x:c r="G9" s="10" t="s">
-        <x:v>73</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="H9" s="10"/>
       <x:c r="I9" s="10" t="s">
-        <x:v>22</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="J9" s="10"/>
       <x:c r="K9" s="10"/>
     </x:row>
     <x:row r="10" spans="1:11">
       <x:c r="A10" s="10" t="s">
-        <x:v>86</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="B10" s="10"/>
       <x:c r="C10" s="10" t="s">
-        <x:v>30</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="D10" s="10"/>
       <x:c r="E10" s="10" t="s">
-        <x:v>87</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="F10" s="10"/>
       <x:c r="G10" s="10" t="s">
-        <x:v>73</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="H10" s="10"/>
       <x:c r="I10" s="10" t="s">
-        <x:v>45</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="J10" s="10"/>
       <x:c r="K10" s="10"/>
     </x:row>
     <x:row r="11" spans="1:11">
       <x:c r="A11" s="11" t="s">
-        <x:v>89</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="B11" s="11"/>
       <x:c r="C11" s="11"/>
@@ -1700,7 +1700,7 @@
     </x:row>
     <x:row r="12" spans="1:11">
       <x:c r="A12" s="12" t="s">
-        <x:v>2</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="B12" s="10"/>
       <x:c r="C12" s="10"/>
@@ -1893,7 +1893,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:11">
       <x:c r="A1" s="6" t="s">
-        <x:v>64</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="B1" s="6"/>
       <x:c r="C1" s="6"/>
@@ -1921,7 +1921,7 @@
     </x:row>
     <x:row r="3" spans="1:11">
       <x:c r="A3" s="7" t="s">
-        <x:v>93</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="B3" s="7"/>
       <x:c r="C3" s="7"/>
@@ -1936,19 +1936,19 @@
     </x:row>
     <x:row r="4" spans="1:11">
       <x:c r="A4" s="6" t="s">
-        <x:v>69</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="B4" s="6"/>
       <x:c r="C4" s="6" t="s">
-        <x:v>70</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="D4" s="6"/>
       <x:c r="E4" s="8" t="s">
-        <x:v>28</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="F4" s="9"/>
       <x:c r="G4" s="6" t="s">
-        <x:v>85</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="H4" s="6"/>
       <x:c r="I4" s="6" t="s">
@@ -1959,11 +1959,11 @@
     </x:row>
     <x:row r="5" spans="1:11">
       <x:c r="A5" s="10" t="s">
-        <x:v>32</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="B5" s="10"/>
       <x:c r="C5" s="10" t="s">
-        <x:v>68</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="D5" s="10"/>
       <x:c r="E5" s="10">
@@ -1971,30 +1971,30 @@
       </x:c>
       <x:c r="F5" s="10"/>
       <x:c r="G5" s="10" t="s">
-        <x:v>48</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="H5" s="10"/>
       <x:c r="I5" s="10" t="s">
-        <x:v>62</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="J5" s="10"/>
       <x:c r="K5" s="10"/>
     </x:row>
     <x:row r="6" spans="1:11">
       <x:c r="A6" s="10" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="B6" s="10"/>
       <x:c r="C6" s="10" t="s">
-        <x:v>30</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="D6" s="10"/>
       <x:c r="E6" s="10" t="s">
-        <x:v>87</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="F6" s="10"/>
       <x:c r="G6" s="10" t="s">
-        <x:v>48</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="H6" s="10"/>
       <x:c r="I6" s="10" t="s">
@@ -2005,30 +2005,30 @@
     </x:row>
     <x:row r="7" spans="1:11">
       <x:c r="A7" s="10" t="s">
-        <x:v>34</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="B7" s="10"/>
       <x:c r="C7" s="10" t="s">
-        <x:v>42</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D7" s="10"/>
       <x:c r="E7" s="10" t="s">
-        <x:v>87</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="F7" s="10"/>
       <x:c r="G7" s="10" t="s">
-        <x:v>73</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="H7" s="10"/>
       <x:c r="I7" s="10" t="s">
-        <x:v>52</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="J7" s="10"/>
       <x:c r="K7" s="10"/>
     </x:row>
     <x:row r="8" spans="1:11">
       <x:c r="A8" s="11" t="s">
-        <x:v>89</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="B8" s="11"/>
       <x:c r="C8" s="11"/>
@@ -2043,7 +2043,7 @@
     </x:row>
     <x:row r="9" spans="1:11">
       <x:c r="A9" s="12" t="s">
-        <x:v>53</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="B9" s="10"/>
       <x:c r="C9" s="10"/>
@@ -2249,7 +2249,7 @@
     </x:row>
     <x:row r="3" spans="1:11">
       <x:c r="A3" s="7" t="s">
-        <x:v>9</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B3" s="7"/>
       <x:c r="C3" s="7"/>
@@ -2264,19 +2264,19 @@
     </x:row>
     <x:row r="4" spans="1:11">
       <x:c r="A4" s="6" t="s">
-        <x:v>69</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="B4" s="6"/>
       <x:c r="C4" s="6" t="s">
-        <x:v>70</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="D4" s="6"/>
       <x:c r="E4" s="8" t="s">
-        <x:v>28</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="F4" s="9"/>
       <x:c r="G4" s="6" t="s">
-        <x:v>85</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="H4" s="6"/>
       <x:c r="I4" s="6" t="s">
@@ -2287,34 +2287,34 @@
     </x:row>
     <x:row r="5" spans="1:11">
       <x:c r="A5" s="10" t="s">
-        <x:v>80</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="B5" s="10"/>
       <x:c r="C5" s="10" t="s">
-        <x:v>30</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="D5" s="10"/>
       <x:c r="E5" s="10" t="s">
-        <x:v>87</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="F5" s="10"/>
       <x:c r="G5" s="10" t="s">
-        <x:v>92</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="H5" s="10"/>
       <x:c r="I5" s="10" t="s">
-        <x:v>84</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="J5" s="10"/>
       <x:c r="K5" s="10"/>
     </x:row>
     <x:row r="6" spans="1:11">
       <x:c r="A6" s="10" t="s">
-        <x:v>67</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="B6" s="10"/>
       <x:c r="C6" s="10" t="s">
-        <x:v>68</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="D6" s="10"/>
       <x:c r="E6" s="10">
@@ -2322,22 +2322,22 @@
       </x:c>
       <x:c r="F6" s="10"/>
       <x:c r="G6" s="10" t="s">
-        <x:v>73</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="H6" s="10"/>
       <x:c r="I6" s="10" t="s">
-        <x:v>37</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="J6" s="10"/>
       <x:c r="K6" s="10"/>
     </x:row>
     <x:row r="7" spans="1:11">
       <x:c r="A7" s="10" t="s">
-        <x:v>74</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="B7" s="10"/>
       <x:c r="C7" s="10" t="s">
-        <x:v>68</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="D7" s="10"/>
       <x:c r="E7" s="10">
@@ -2347,41 +2347,41 @@
       <x:c r="G7" s="10"/>
       <x:c r="H7" s="10"/>
       <x:c r="I7" s="10" t="s">
-        <x:v>36</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="J7" s="10"/>
       <x:c r="K7" s="10"/>
     </x:row>
     <x:row r="8" spans="1:11">
       <x:c r="A8" s="10" t="s">
-        <x:v>72</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="B8" s="10"/>
       <x:c r="C8" s="10" t="s">
-        <x:v>30</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="D8" s="10"/>
       <x:c r="E8" s="10" t="s">
-        <x:v>87</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="F8" s="10"/>
       <x:c r="G8" s="10" t="s">
-        <x:v>73</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="H8" s="10"/>
       <x:c r="I8" s="10" t="s">
-        <x:v>51</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="J8" s="10"/>
       <x:c r="K8" s="10"/>
     </x:row>
     <x:row r="9" spans="1:11">
       <x:c r="A9" s="10" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="B9" s="10"/>
       <x:c r="C9" s="10" t="s">
-        <x:v>68</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="D9" s="10"/>
       <x:c r="E9" s="10">
@@ -2389,18 +2389,18 @@
       </x:c>
       <x:c r="F9" s="10"/>
       <x:c r="G9" s="10" t="s">
-        <x:v>73</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="H9" s="10"/>
       <x:c r="I9" s="10" t="s">
-        <x:v>47</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="J9" s="10"/>
       <x:c r="K9" s="10"/>
     </x:row>
     <x:row r="10" spans="1:11">
       <x:c r="A10" s="11" t="s">
-        <x:v>89</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="B10" s="11"/>
       <x:c r="C10" s="11"/>
@@ -2415,7 +2415,7 @@
     </x:row>
     <x:row r="11" spans="1:11">
       <x:c r="A11" s="12" t="s">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="B11" s="10"/>
       <x:c r="C11" s="10"/>
@@ -2596,14 +2596,14 @@
   <x:dimension ref="A1:M22"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="125" workbookViewId="0">
-      <x:selection activeCell="G23" activeCellId="0" sqref="G23:G23"/>
+      <x:selection activeCell="A10" activeCellId="0" sqref="A10:K19"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.399999999999999"/>
   <x:sheetData>
     <x:row r="1" spans="1:11">
       <x:c r="A1" s="6" t="s">
-        <x:v>15</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="B1" s="6"/>
       <x:c r="C1" s="6"/>
@@ -2631,7 +2631,7 @@
     </x:row>
     <x:row r="3" spans="1:11">
       <x:c r="A3" s="7" t="s">
-        <x:v>12</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B3" s="7"/>
       <x:c r="C3" s="7"/>
@@ -2646,19 +2646,19 @@
     </x:row>
     <x:row r="4" spans="1:11">
       <x:c r="A4" s="6" t="s">
-        <x:v>69</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="B4" s="6"/>
       <x:c r="C4" s="6" t="s">
-        <x:v>70</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="D4" s="6"/>
       <x:c r="E4" s="8" t="s">
-        <x:v>28</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="F4" s="9"/>
       <x:c r="G4" s="6" t="s">
-        <x:v>85</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="H4" s="6"/>
       <x:c r="I4" s="6" t="s">
@@ -2669,34 +2669,34 @@
     </x:row>
     <x:row r="5" spans="1:11">
       <x:c r="A5" s="10" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="B5" s="10"/>
       <x:c r="C5" s="10" t="s">
-        <x:v>30</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="D5" s="10"/>
       <x:c r="E5" s="10" t="s">
-        <x:v>87</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="F5" s="10"/>
       <x:c r="G5" s="10" t="s">
-        <x:v>78</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="H5" s="10"/>
       <x:c r="I5" s="10" t="s">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="J5" s="10"/>
       <x:c r="K5" s="10"/>
     </x:row>
     <x:row r="6" spans="1:11">
       <x:c r="A6" s="10" t="s">
-        <x:v>32</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="B6" s="10"/>
       <x:c r="C6" s="10" t="s">
-        <x:v>68</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="D6" s="10"/>
       <x:c r="E6" s="10">
@@ -2704,55 +2704,55 @@
       </x:c>
       <x:c r="F6" s="10"/>
       <x:c r="G6" s="10" t="s">
-        <x:v>78</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="H6" s="10"/>
       <x:c r="I6" s="10" t="s">
-        <x:v>14</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="J6" s="10"/>
       <x:c r="K6" s="10"/>
     </x:row>
     <x:row r="7" spans="1:11">
       <x:c r="A7" s="10" t="s">
-        <x:v>29</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="B7" s="10"/>
       <x:c r="C7" s="10" t="s">
-        <x:v>30</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="D7" s="10"/>
       <x:c r="E7" s="10" t="s">
-        <x:v>41</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="F7" s="10"/>
       <x:c r="G7" s="10"/>
       <x:c r="H7" s="10"/>
       <x:c r="I7" s="10" t="s">
-        <x:v>91</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="J7" s="10"/>
       <x:c r="K7" s="10"/>
     </x:row>
     <x:row r="8" spans="1:11">
       <x:c r="A8" s="10" t="s">
-        <x:v>88</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="B8" s="10"/>
       <x:c r="C8" s="10" t="s">
-        <x:v>30</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="D8" s="10"/>
       <x:c r="E8" s="10" t="s">
-        <x:v>87</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="F8" s="10"/>
       <x:c r="G8" s="10" t="s">
-        <x:v>92</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="H8" s="10"/>
       <x:c r="I8" s="10" t="s">
-        <x:v>57</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="J8" s="10"/>
       <x:c r="K8" s="10"/>
@@ -2772,7 +2772,7 @@
     </x:row>
     <x:row r="10" spans="1:11">
       <x:c r="A10" s="15" t="s">
-        <x:v>94</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="B10" s="10"/>
       <x:c r="C10" s="10"/>
@@ -2955,7 +2955,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:11">
       <x:c r="A1" s="6" t="s">
-        <x:v>43</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="B1" s="6"/>
       <x:c r="C1" s="6"/>
@@ -2998,19 +2998,19 @@
     </x:row>
     <x:row r="4" spans="1:11">
       <x:c r="A4" s="6" t="s">
-        <x:v>69</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="B4" s="6"/>
       <x:c r="C4" s="6" t="s">
-        <x:v>70</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="D4" s="6"/>
       <x:c r="E4" s="8" t="s">
-        <x:v>28</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="F4" s="9"/>
       <x:c r="G4" s="6" t="s">
-        <x:v>85</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="H4" s="6"/>
       <x:c r="I4" s="6" t="s">
@@ -3021,38 +3021,38 @@
     </x:row>
     <x:row r="5" spans="1:11">
       <x:c r="A5" s="10" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="B5" s="10"/>
       <x:c r="C5" s="10" t="s">
-        <x:v>68</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="D5" s="10"/>
       <x:c r="E5" s="10" t="s">
-        <x:v>87</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="F5" s="10"/>
       <x:c r="G5" s="10" t="s">
-        <x:v>56</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="H5" s="10"/>
       <x:c r="I5" s="10" t="s">
-        <x:v>84</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="J5" s="10"/>
       <x:c r="K5" s="10"/>
     </x:row>
     <x:row r="6" spans="1:11">
       <x:c r="A6" s="10" t="s">
-        <x:v>88</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="B6" s="10"/>
       <x:c r="C6" s="10" t="s">
-        <x:v>68</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="D6" s="10"/>
       <x:c r="E6" s="10" t="s">
-        <x:v>87</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="F6" s="10"/>
       <x:c r="G6" s="10" t="s">
@@ -3060,41 +3060,41 @@
       </x:c>
       <x:c r="H6" s="10"/>
       <x:c r="I6" s="10" t="s">
-        <x:v>65</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="J6" s="10"/>
       <x:c r="K6" s="10"/>
     </x:row>
     <x:row r="7" spans="1:11">
       <x:c r="A7" s="10" t="s">
-        <x:v>44</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="B7" s="10"/>
       <x:c r="C7" s="10" t="s">
-        <x:v>68</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="D7" s="10"/>
       <x:c r="E7" s="10" t="s">
-        <x:v>87</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="F7" s="10"/>
       <x:c r="G7" s="10" t="s">
-        <x:v>73</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="H7" s="10"/>
       <x:c r="I7" s="10" t="s">
-        <x:v>18</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="J7" s="10"/>
       <x:c r="K7" s="10"/>
     </x:row>
     <x:row r="8" spans="1:11">
       <x:c r="A8" s="10" t="s">
-        <x:v>79</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="B8" s="10"/>
       <x:c r="C8" s="10" t="s">
-        <x:v>68</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="D8" s="10"/>
       <x:c r="E8" s="10">
@@ -3102,18 +3102,18 @@
       </x:c>
       <x:c r="F8" s="10"/>
       <x:c r="G8" s="10" t="s">
-        <x:v>73</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="H8" s="10"/>
       <x:c r="I8" s="10" t="s">
-        <x:v>31</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="J8" s="10"/>
       <x:c r="K8" s="10"/>
     </x:row>
     <x:row r="9" spans="1:11">
       <x:c r="A9" s="11" t="s">
-        <x:v>89</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="B9" s="11"/>
       <x:c r="C9" s="11"/>
@@ -3128,7 +3128,7 @@
     </x:row>
     <x:row r="10" spans="1:11">
       <x:c r="A10" s="12" t="s">
-        <x:v>1</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="B10" s="10"/>
       <x:c r="C10" s="10"/>
@@ -3311,7 +3311,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:11">
       <x:c r="A1" s="6" t="s">
-        <x:v>19</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="B1" s="6"/>
       <x:c r="C1" s="6"/>
@@ -3339,7 +3339,7 @@
     </x:row>
     <x:row r="3" spans="1:11">
       <x:c r="A3" s="7" t="s">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="B3" s="7"/>
       <x:c r="C3" s="7"/>
@@ -3354,19 +3354,19 @@
     </x:row>
     <x:row r="4" spans="1:11">
       <x:c r="A4" s="6" t="s">
-        <x:v>69</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="B4" s="6"/>
       <x:c r="C4" s="6" t="s">
-        <x:v>70</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="D4" s="6"/>
       <x:c r="E4" s="8" t="s">
-        <x:v>28</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="F4" s="9"/>
       <x:c r="G4" s="6" t="s">
-        <x:v>85</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="H4" s="6"/>
       <x:c r="I4" s="6" t="s">
@@ -3377,34 +3377,34 @@
     </x:row>
     <x:row r="5" spans="1:11">
       <x:c r="A5" s="10" t="s">
-        <x:v>88</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="B5" s="10"/>
       <x:c r="C5" s="10" t="s">
-        <x:v>30</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="D5" s="10"/>
       <x:c r="E5" s="10" t="s">
-        <x:v>87</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="F5" s="10"/>
       <x:c r="G5" s="10" t="s">
-        <x:v>92</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="H5" s="10"/>
       <x:c r="I5" s="10" t="s">
-        <x:v>60</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="J5" s="10"/>
       <x:c r="K5" s="10"/>
     </x:row>
     <x:row r="6" spans="1:11">
       <x:c r="A6" s="10" t="s">
-        <x:v>58</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="B6" s="10"/>
       <x:c r="C6" s="10" t="s">
-        <x:v>68</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="D6" s="10"/>
       <x:c r="E6" s="10">
@@ -3412,18 +3412,18 @@
       </x:c>
       <x:c r="F6" s="10"/>
       <x:c r="G6" s="10" t="s">
-        <x:v>92</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="H6" s="10"/>
       <x:c r="I6" s="10" t="s">
-        <x:v>16</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="J6" s="10"/>
       <x:c r="K6" s="10"/>
     </x:row>
     <x:row r="7" spans="1:11">
       <x:c r="A7" s="11" t="s">
-        <x:v>89</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="B7" s="11"/>
       <x:c r="C7" s="11"/>
@@ -3438,7 +3438,7 @@
     </x:row>
     <x:row r="8" spans="1:11">
       <x:c r="A8" s="12" t="s">
-        <x:v>54</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="B8" s="10"/>
       <x:c r="C8" s="10"/>
@@ -3611,7 +3611,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:11">
       <x:c r="A1" s="6" t="s">
-        <x:v>83</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="B1" s="6"/>
       <x:c r="C1" s="6"/>
@@ -3639,7 +3639,7 @@
     </x:row>
     <x:row r="3" spans="1:11">
       <x:c r="A3" s="7" t="s">
-        <x:v>7</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B3" s="7"/>
       <x:c r="C3" s="7"/>
@@ -3654,19 +3654,19 @@
     </x:row>
     <x:row r="4" spans="1:11">
       <x:c r="A4" s="6" t="s">
-        <x:v>69</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="B4" s="6"/>
       <x:c r="C4" s="6" t="s">
-        <x:v>70</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="D4" s="6"/>
       <x:c r="E4" s="8" t="s">
-        <x:v>28</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="F4" s="9"/>
       <x:c r="G4" s="6" t="s">
-        <x:v>85</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="H4" s="6"/>
       <x:c r="I4" s="6" t="s">
@@ -3677,57 +3677,57 @@
     </x:row>
     <x:row r="5" spans="1:11">
       <x:c r="A5" s="10" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="B5" s="10"/>
       <x:c r="C5" s="10" t="s">
-        <x:v>30</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="D5" s="10"/>
       <x:c r="E5" s="10" t="s">
-        <x:v>87</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="F5" s="10"/>
       <x:c r="G5" s="10" t="s">
-        <x:v>48</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="H5" s="10"/>
       <x:c r="I5" s="10" t="s">
-        <x:v>82</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="J5" s="10"/>
       <x:c r="K5" s="10"/>
     </x:row>
     <x:row r="6" spans="1:11">
       <x:c r="A6" s="10" t="s">
-        <x:v>88</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="B6" s="10"/>
       <x:c r="C6" s="10" t="s">
-        <x:v>30</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="D6" s="10"/>
       <x:c r="E6" s="10" t="s">
-        <x:v>87</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="F6" s="10"/>
       <x:c r="G6" s="10" t="s">
-        <x:v>92</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="H6" s="10"/>
       <x:c r="I6" s="10" t="s">
-        <x:v>63</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="J6" s="10"/>
       <x:c r="K6" s="10"/>
     </x:row>
     <x:row r="7" spans="1:11">
       <x:c r="A7" s="10" t="s">
-        <x:v>20</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="B7" s="10"/>
       <x:c r="C7" s="10" t="s">
-        <x:v>68</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="D7" s="10"/>
       <x:c r="E7" s="10">
@@ -3737,18 +3737,18 @@
       <x:c r="G7" s="10"/>
       <x:c r="H7" s="10"/>
       <x:c r="I7" s="10" t="s">
-        <x:v>25</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="J7" s="10"/>
       <x:c r="K7" s="10"/>
     </x:row>
     <x:row r="8" spans="1:11">
       <x:c r="A8" s="10" t="s">
-        <x:v>77</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="B8" s="10"/>
       <x:c r="C8" s="10" t="s">
-        <x:v>68</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="D8" s="10"/>
       <x:c r="E8" s="10">
@@ -3756,41 +3756,41 @@
       </x:c>
       <x:c r="F8" s="10"/>
       <x:c r="G8" s="10" t="s">
-        <x:v>73</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="H8" s="10"/>
       <x:c r="I8" s="10" t="s">
-        <x:v>39</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="J8" s="10"/>
       <x:c r="K8" s="10"/>
     </x:row>
     <x:row r="9" spans="1:11">
       <x:c r="A9" s="10" t="s">
-        <x:v>44</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="B9" s="10"/>
       <x:c r="C9" s="10" t="s">
-        <x:v>30</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="D9" s="10"/>
       <x:c r="E9" s="10" t="s">
-        <x:v>87</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="F9" s="10"/>
       <x:c r="G9" s="10" t="s">
-        <x:v>73</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="H9" s="10"/>
       <x:c r="I9" s="10" t="s">
-        <x:v>40</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="J9" s="10"/>
       <x:c r="K9" s="10"/>
     </x:row>
     <x:row r="10" spans="1:11">
       <x:c r="A10" s="11" t="s">
-        <x:v>89</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="B10" s="11"/>
       <x:c r="C10" s="11"/>
@@ -3805,7 +3805,7 @@
     </x:row>
     <x:row r="11" spans="1:11">
       <x:c r="A11" s="12" t="s">
-        <x:v>0</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="B11" s="10"/>
       <x:c r="C11" s="10"/>
@@ -3993,7 +3993,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:11">
       <x:c r="A1" s="6" t="s">
-        <x:v>49</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="B1" s="6"/>
       <x:c r="C1" s="6"/>
@@ -4036,19 +4036,19 @@
     </x:row>
     <x:row r="4" spans="1:11">
       <x:c r="A4" s="6" t="s">
-        <x:v>69</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="B4" s="6"/>
       <x:c r="C4" s="6" t="s">
-        <x:v>70</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="D4" s="6"/>
       <x:c r="E4" s="8" t="s">
-        <x:v>28</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="F4" s="9"/>
       <x:c r="G4" s="6" t="s">
-        <x:v>85</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="H4" s="6"/>
       <x:c r="I4" s="6" t="s">
@@ -4059,34 +4059,34 @@
     </x:row>
     <x:row r="5" spans="1:11">
       <x:c r="A5" s="10" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="B5" s="10"/>
       <x:c r="C5" s="10" t="s">
-        <x:v>30</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="D5" s="10"/>
       <x:c r="E5" s="10" t="s">
-        <x:v>87</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="F5" s="10"/>
       <x:c r="G5" s="10" t="s">
-        <x:v>48</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="H5" s="10"/>
       <x:c r="I5" s="10" t="s">
-        <x:v>59</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="J5" s="10"/>
       <x:c r="K5" s="10"/>
     </x:row>
     <x:row r="6" spans="1:11">
       <x:c r="A6" s="10" t="s">
-        <x:v>21</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="B6" s="10"/>
       <x:c r="C6" s="10" t="s">
-        <x:v>68</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="D6" s="10"/>
       <x:c r="E6" s="10">
@@ -4096,18 +4096,18 @@
       <x:c r="G6" s="13"/>
       <x:c r="H6" s="14"/>
       <x:c r="I6" s="10" t="s">
-        <x:v>27</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="J6" s="10"/>
       <x:c r="K6" s="10"/>
     </x:row>
     <x:row r="7" spans="1:11">
       <x:c r="A7" s="10" t="s">
-        <x:v>38</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="B7" s="10"/>
       <x:c r="C7" s="10" t="s">
-        <x:v>68</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="D7" s="10"/>
       <x:c r="E7" s="10">
@@ -4117,18 +4117,18 @@
       <x:c r="G7" s="10"/>
       <x:c r="H7" s="10"/>
       <x:c r="I7" s="10" t="s">
-        <x:v>17</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="J7" s="10"/>
       <x:c r="K7" s="10"/>
     </x:row>
     <x:row r="8" spans="1:11">
       <x:c r="A8" s="10" t="s">
-        <x:v>66</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="B8" s="10"/>
       <x:c r="C8" s="10" t="s">
-        <x:v>68</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="D8" s="10"/>
       <x:c r="E8" s="10">
@@ -4138,18 +4138,18 @@
       <x:c r="G8" s="10"/>
       <x:c r="H8" s="10"/>
       <x:c r="I8" s="10" t="s">
-        <x:v>35</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="J8" s="10"/>
       <x:c r="K8" s="10"/>
     </x:row>
     <x:row r="9" spans="1:11">
       <x:c r="A9" s="10" t="s">
-        <x:v>76</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="B9" s="10"/>
       <x:c r="C9" s="10" t="s">
-        <x:v>68</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="D9" s="10"/>
       <x:c r="E9" s="10">
@@ -4157,11 +4157,11 @@
       </x:c>
       <x:c r="F9" s="10"/>
       <x:c r="G9" s="10" t="s">
-        <x:v>92</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="H9" s="10"/>
       <x:c r="I9" s="10" t="s">
-        <x:v>26</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="J9" s="10"/>
       <x:c r="K9" s="10"/>
@@ -4172,7 +4172,7 @@
       </x:c>
       <x:c r="B10" s="10"/>
       <x:c r="C10" s="10" t="s">
-        <x:v>68</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="D10" s="10"/>
       <x:c r="E10" s="10">
@@ -4180,41 +4180,41 @@
       </x:c>
       <x:c r="F10" s="10"/>
       <x:c r="G10" s="10" t="s">
-        <x:v>73</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="H10" s="10"/>
       <x:c r="I10" s="10" t="s">
-        <x:v>27</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="J10" s="10"/>
       <x:c r="K10" s="10"/>
     </x:row>
     <x:row r="11" spans="1:11">
       <x:c r="A11" s="10" t="s">
-        <x:v>86</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="B11" s="10"/>
       <x:c r="C11" s="10" t="s">
-        <x:v>30</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="D11" s="10"/>
       <x:c r="E11" s="10" t="s">
-        <x:v>87</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="F11" s="10"/>
       <x:c r="G11" s="10" t="s">
-        <x:v>73</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="H11" s="10"/>
       <x:c r="I11" s="10" t="s">
-        <x:v>24</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="J11" s="10"/>
       <x:c r="K11" s="10"/>
     </x:row>
     <x:row r="12" spans="1:11">
       <x:c r="A12" s="11" t="s">
-        <x:v>89</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="B12" s="11"/>
       <x:c r="C12" s="11"/>
@@ -4229,7 +4229,7 @@
     </x:row>
     <x:row r="13" spans="1:11">
       <x:c r="A13" s="12" t="s">
-        <x:v>13</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="B13" s="10"/>
       <x:c r="C13" s="10"/>

--- a/phase2/README.xlsx
+++ b/phase2/README.xlsx
@@ -3,7 +3,7 @@
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:fileVersion appName="HCell" lastEdited="9.1" lowestEdited="9.1" rupBuild="1.3237"/>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="28305" windowHeight="11265" firstSheet="2" activeTab="3"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="28305" windowHeight="11265"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="CUSTOMER" sheetId="1" r:id="rId4"/>
@@ -22,6 +22,16 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="95">
   <x:si>
+    <x:t>create table customer(
+    Fname varchar2(2),
+    Lname varchar2(4),
+    Phone_number varchar2(15),
+    Customer_email varchar2(50) not null primary key,
+    Sex varchar2(10) not null,
+    Age number not null
+);</x:t>
+  </x:si>
+  <x:si>
     <x:t>create table store(
     Breg_number number not null primary key,
     Store_name varchar2(40) not null,
@@ -320,16 +330,6 @@
   </x:si>
   <x:si>
     <x:t>Drink_name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>create table customer(
-    Fname varchar2(2),
-    Lname varchar2(4),
-    Phone_number varchar2(11),
-    Customer_email varchar2(50) not null primary key,
-    Sex varchar2(10) not null,
-    Age number not null
-);</x:t>
   </x:si>
   <x:si>
     <x:t>DDL</x:t>
@@ -536,7 +536,7 @@
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="16">
+  <x:cellXfs count="17">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
@@ -709,6 +709,19 @@
       <mc:Fallback>
         <x:xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
@@ -1479,7 +1492,7 @@
   <x:sheetPr codeName="Sheet1"/>
   <x:dimension ref="A1:M24"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A1" zoomScaleNormal="125" workbookViewId="0">
+    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="125" workbookViewId="0">
       <x:selection activeCell="A12" activeCellId="0" sqref="A12:K21"/>
     </x:sheetView>
   </x:sheetViews>
@@ -1487,7 +1500,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:11">
       <x:c r="A1" s="6" t="s">
-        <x:v>68</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="B1" s="6"/>
       <x:c r="C1" s="6"/>
@@ -1515,7 +1528,7 @@
     </x:row>
     <x:row r="3" spans="1:11">
       <x:c r="A3" s="7" t="s">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B3" s="7"/>
       <x:c r="C3" s="7"/>
@@ -1530,34 +1543,34 @@
     </x:row>
     <x:row r="4" spans="1:11">
       <x:c r="A4" s="6" t="s">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="B4" s="6"/>
       <x:c r="C4" s="6" t="s">
-        <x:v>67</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="D4" s="6"/>
       <x:c r="E4" s="8" t="s">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="F4" s="9"/>
       <x:c r="G4" s="6" t="s">
-        <x:v>84</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="H4" s="6"/>
       <x:c r="I4" s="6" t="s">
-        <x:v>81</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="J4" s="6"/>
       <x:c r="K4" s="6"/>
     </x:row>
     <x:row r="5" spans="1:11">
       <x:c r="A5" s="10" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="B5" s="10"/>
       <x:c r="C5" s="10" t="s">
-        <x:v>71</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="D5" s="10"/>
       <x:c r="E5" s="10">
@@ -1567,18 +1580,18 @@
       <x:c r="G5" s="10"/>
       <x:c r="H5" s="10"/>
       <x:c r="I5" s="10" t="s">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="J5" s="10"/>
       <x:c r="K5" s="10"/>
     </x:row>
     <x:row r="6" spans="1:11">
       <x:c r="A6" s="10" t="s">
-        <x:v>45</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="B6" s="10"/>
       <x:c r="C6" s="10" t="s">
-        <x:v>71</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="D6" s="10"/>
       <x:c r="E6" s="10">
@@ -1588,18 +1601,18 @@
       <x:c r="G6" s="10"/>
       <x:c r="H6" s="10"/>
       <x:c r="I6" s="10" t="s">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="J6" s="10"/>
       <x:c r="K6" s="10"/>
     </x:row>
     <x:row r="7" spans="1:11">
       <x:c r="A7" s="10" t="s">
-        <x:v>57</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="B7" s="10"/>
       <x:c r="C7" s="10" t="s">
-        <x:v>71</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="D7" s="10"/>
       <x:c r="E7" s="10">
@@ -1609,18 +1622,18 @@
       <x:c r="G7" s="10"/>
       <x:c r="H7" s="10"/>
       <x:c r="I7" s="10" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="J7" s="10"/>
       <x:c r="K7" s="10"/>
     </x:row>
     <x:row r="8" spans="1:11">
       <x:c r="A8" s="10" t="s">
-        <x:v>58</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="B8" s="10"/>
       <x:c r="C8" s="10" t="s">
-        <x:v>71</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="D8" s="10"/>
       <x:c r="E8" s="10">
@@ -1632,7 +1645,7 @@
       </x:c>
       <x:c r="H8" s="10"/>
       <x:c r="I8" s="10" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="J8" s="10"/>
       <x:c r="K8" s="10"/>
@@ -1643,7 +1656,7 @@
       </x:c>
       <x:c r="B9" s="10"/>
       <x:c r="C9" s="10" t="s">
-        <x:v>71</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="D9" s="10"/>
       <x:c r="E9" s="10">
@@ -1651,11 +1664,11 @@
       </x:c>
       <x:c r="F9" s="10"/>
       <x:c r="G9" s="10" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="H9" s="10"/>
       <x:c r="I9" s="10" t="s">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="J9" s="10"/>
       <x:c r="K9" s="10"/>
@@ -1666,7 +1679,7 @@
       </x:c>
       <x:c r="B10" s="10"/>
       <x:c r="C10" s="10" t="s">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D10" s="10"/>
       <x:c r="E10" s="10" t="s">
@@ -1674,11 +1687,11 @@
       </x:c>
       <x:c r="F10" s="10"/>
       <x:c r="G10" s="10" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="H10" s="10"/>
       <x:c r="I10" s="10" t="s">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="J10" s="10"/>
       <x:c r="K10" s="10"/>
@@ -1699,8 +1712,8 @@
       <x:c r="K11" s="11"/>
     </x:row>
     <x:row r="12" spans="1:11">
-      <x:c r="A12" s="12" t="s">
-        <x:v>86</x:v>
+      <x:c r="A12" s="16" t="s">
+        <x:v>0</x:v>
       </x:c>
       <x:c r="B12" s="10"/>
       <x:c r="C12" s="10"/>
@@ -1893,7 +1906,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:11">
       <x:c r="A1" s="6" t="s">
-        <x:v>66</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="B1" s="6"/>
       <x:c r="C1" s="6"/>
@@ -1936,34 +1949,34 @@
     </x:row>
     <x:row r="4" spans="1:11">
       <x:c r="A4" s="6" t="s">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="B4" s="6"/>
       <x:c r="C4" s="6" t="s">
-        <x:v>67</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="D4" s="6"/>
       <x:c r="E4" s="8" t="s">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="F4" s="9"/>
       <x:c r="G4" s="6" t="s">
-        <x:v>84</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="H4" s="6"/>
       <x:c r="I4" s="6" t="s">
-        <x:v>81</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="J4" s="6"/>
       <x:c r="K4" s="6"/>
     </x:row>
     <x:row r="5" spans="1:11">
       <x:c r="A5" s="10" t="s">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="B5" s="10"/>
       <x:c r="C5" s="10" t="s">
-        <x:v>71</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="D5" s="10"/>
       <x:c r="E5" s="10">
@@ -1971,22 +1984,22 @@
       </x:c>
       <x:c r="F5" s="10"/>
       <x:c r="G5" s="10" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="H5" s="10"/>
       <x:c r="I5" s="10" t="s">
-        <x:v>64</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="J5" s="10"/>
       <x:c r="K5" s="10"/>
     </x:row>
     <x:row r="6" spans="1:11">
       <x:c r="A6" s="10" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="B6" s="10"/>
       <x:c r="C6" s="10" t="s">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D6" s="10"/>
       <x:c r="E6" s="10" t="s">
@@ -1994,22 +2007,22 @@
       </x:c>
       <x:c r="F6" s="10"/>
       <x:c r="G6" s="10" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="H6" s="10"/>
       <x:c r="I6" s="10" t="s">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="J6" s="10"/>
       <x:c r="K6" s="10"/>
     </x:row>
     <x:row r="7" spans="1:11">
       <x:c r="A7" s="10" t="s">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="B7" s="10"/>
       <x:c r="C7" s="10" t="s">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="D7" s="10"/>
       <x:c r="E7" s="10" t="s">
@@ -2017,11 +2030,11 @@
       </x:c>
       <x:c r="F7" s="10"/>
       <x:c r="G7" s="10" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="H7" s="10"/>
       <x:c r="I7" s="10" t="s">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="J7" s="10"/>
       <x:c r="K7" s="10"/>
@@ -2043,7 +2056,7 @@
     </x:row>
     <x:row r="9" spans="1:11">
       <x:c r="A9" s="12" t="s">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="B9" s="10"/>
       <x:c r="C9" s="10"/>
@@ -2221,7 +2234,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:11">
       <x:c r="A1" s="6" t="s">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B1" s="6"/>
       <x:c r="C1" s="6"/>
@@ -2249,7 +2262,7 @@
     </x:row>
     <x:row r="3" spans="1:11">
       <x:c r="A3" s="7" t="s">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="B3" s="7"/>
       <x:c r="C3" s="7"/>
@@ -2264,34 +2277,34 @@
     </x:row>
     <x:row r="4" spans="1:11">
       <x:c r="A4" s="6" t="s">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="B4" s="6"/>
       <x:c r="C4" s="6" t="s">
-        <x:v>67</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="D4" s="6"/>
       <x:c r="E4" s="8" t="s">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="F4" s="9"/>
       <x:c r="G4" s="6" t="s">
-        <x:v>84</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="H4" s="6"/>
       <x:c r="I4" s="6" t="s">
-        <x:v>81</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="J4" s="6"/>
       <x:c r="K4" s="6"/>
     </x:row>
     <x:row r="5" spans="1:11">
       <x:c r="A5" s="10" t="s">
-        <x:v>74</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="B5" s="10"/>
       <x:c r="C5" s="10" t="s">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D5" s="10"/>
       <x:c r="E5" s="10" t="s">
@@ -2303,18 +2316,18 @@
       </x:c>
       <x:c r="H5" s="10"/>
       <x:c r="I5" s="10" t="s">
-        <x:v>82</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="J5" s="10"/>
       <x:c r="K5" s="10"/>
     </x:row>
     <x:row r="6" spans="1:11">
       <x:c r="A6" s="10" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="B6" s="10"/>
       <x:c r="C6" s="10" t="s">
-        <x:v>71</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="D6" s="10"/>
       <x:c r="E6" s="10">
@@ -2322,22 +2335,22 @@
       </x:c>
       <x:c r="F6" s="10"/>
       <x:c r="G6" s="10" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="H6" s="10"/>
       <x:c r="I6" s="10" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="J6" s="10"/>
       <x:c r="K6" s="10"/>
     </x:row>
     <x:row r="7" spans="1:11">
       <x:c r="A7" s="10" t="s">
-        <x:v>78</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="B7" s="10"/>
       <x:c r="C7" s="10" t="s">
-        <x:v>71</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="D7" s="10"/>
       <x:c r="E7" s="10">
@@ -2347,18 +2360,18 @@
       <x:c r="G7" s="10"/>
       <x:c r="H7" s="10"/>
       <x:c r="I7" s="10" t="s">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="J7" s="10"/>
       <x:c r="K7" s="10"/>
     </x:row>
     <x:row r="8" spans="1:11">
       <x:c r="A8" s="10" t="s">
-        <x:v>70</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="B8" s="10"/>
       <x:c r="C8" s="10" t="s">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D8" s="10"/>
       <x:c r="E8" s="10" t="s">
@@ -2366,22 +2379,22 @@
       </x:c>
       <x:c r="F8" s="10"/>
       <x:c r="G8" s="10" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="H8" s="10"/>
       <x:c r="I8" s="10" t="s">
-        <x:v>50</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="J8" s="10"/>
       <x:c r="K8" s="10"/>
     </x:row>
     <x:row r="9" spans="1:11">
       <x:c r="A9" s="10" t="s">
-        <x:v>76</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="B9" s="10"/>
       <x:c r="C9" s="10" t="s">
-        <x:v>71</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="D9" s="10"/>
       <x:c r="E9" s="10">
@@ -2389,11 +2402,11 @@
       </x:c>
       <x:c r="F9" s="10"/>
       <x:c r="G9" s="10" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="H9" s="10"/>
       <x:c r="I9" s="10" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="J9" s="10"/>
       <x:c r="K9" s="10"/>
@@ -2415,7 +2428,7 @@
     </x:row>
     <x:row r="11" spans="1:11">
       <x:c r="A11" s="12" t="s">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="B11" s="10"/>
       <x:c r="C11" s="10"/>
@@ -2595,15 +2608,15 @@
   <x:sheetPr codeName="Sheet4"/>
   <x:dimension ref="A1:M22"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="125" workbookViewId="0">
-      <x:selection activeCell="A10" activeCellId="0" sqref="A10:K19"/>
+    <x:sheetView topLeftCell="A1" zoomScaleNormal="125" workbookViewId="0">
+      <x:selection activeCell="A26" activeCellId="0" sqref="A26:A26"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.399999999999999"/>
   <x:sheetData>
     <x:row r="1" spans="1:11">
       <x:c r="A1" s="6" t="s">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="B1" s="6"/>
       <x:c r="C1" s="6"/>
@@ -2631,7 +2644,7 @@
     </x:row>
     <x:row r="3" spans="1:11">
       <x:c r="A3" s="7" t="s">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="B3" s="7"/>
       <x:c r="C3" s="7"/>
@@ -2646,34 +2659,34 @@
     </x:row>
     <x:row r="4" spans="1:11">
       <x:c r="A4" s="6" t="s">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="B4" s="6"/>
       <x:c r="C4" s="6" t="s">
-        <x:v>67</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="D4" s="6"/>
       <x:c r="E4" s="8" t="s">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="F4" s="9"/>
       <x:c r="G4" s="6" t="s">
-        <x:v>84</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="H4" s="6"/>
       <x:c r="I4" s="6" t="s">
-        <x:v>81</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="J4" s="6"/>
       <x:c r="K4" s="6"/>
     </x:row>
     <x:row r="5" spans="1:11">
       <x:c r="A5" s="10" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="B5" s="10"/>
       <x:c r="C5" s="10" t="s">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D5" s="10"/>
       <x:c r="E5" s="10" t="s">
@@ -2681,22 +2694,22 @@
       </x:c>
       <x:c r="F5" s="10"/>
       <x:c r="G5" s="10" t="s">
-        <x:v>79</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="H5" s="10"/>
       <x:c r="I5" s="10" t="s">
-        <x:v>56</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="J5" s="10"/>
       <x:c r="K5" s="10"/>
     </x:row>
     <x:row r="6" spans="1:11">
       <x:c r="A6" s="10" t="s">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="B6" s="10"/>
       <x:c r="C6" s="10" t="s">
-        <x:v>71</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="D6" s="10"/>
       <x:c r="E6" s="10">
@@ -2704,26 +2717,26 @@
       </x:c>
       <x:c r="F6" s="10"/>
       <x:c r="G6" s="10" t="s">
-        <x:v>79</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="H6" s="10"/>
       <x:c r="I6" s="10" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="J6" s="10"/>
       <x:c r="K6" s="10"/>
     </x:row>
     <x:row r="7" spans="1:11">
       <x:c r="A7" s="10" t="s">
-        <x:v>47</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="B7" s="10"/>
       <x:c r="C7" s="10" t="s">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D7" s="10"/>
       <x:c r="E7" s="10" t="s">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="F7" s="10"/>
       <x:c r="G7" s="10"/>
@@ -2740,7 +2753,7 @@
       </x:c>
       <x:c r="B8" s="10"/>
       <x:c r="C8" s="10" t="s">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D8" s="10"/>
       <x:c r="E8" s="10" t="s">
@@ -2752,7 +2765,7 @@
       </x:c>
       <x:c r="H8" s="10"/>
       <x:c r="I8" s="10" t="s">
-        <x:v>61</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="J8" s="10"/>
       <x:c r="K8" s="10"/>
@@ -2772,7 +2785,7 @@
     </x:row>
     <x:row r="10" spans="1:11">
       <x:c r="A10" s="15" t="s">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="B10" s="10"/>
       <x:c r="C10" s="10"/>
@@ -2955,7 +2968,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:11">
       <x:c r="A1" s="6" t="s">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="B1" s="6"/>
       <x:c r="C1" s="6"/>
@@ -2983,7 +2996,7 @@
     </x:row>
     <x:row r="3" spans="1:11">
       <x:c r="A3" s="7" t="s">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="B3" s="7"/>
       <x:c r="C3" s="7"/>
@@ -2998,34 +3011,34 @@
     </x:row>
     <x:row r="4" spans="1:11">
       <x:c r="A4" s="6" t="s">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="B4" s="6"/>
       <x:c r="C4" s="6" t="s">
-        <x:v>67</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="D4" s="6"/>
       <x:c r="E4" s="8" t="s">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="F4" s="9"/>
       <x:c r="G4" s="6" t="s">
-        <x:v>84</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="H4" s="6"/>
       <x:c r="I4" s="6" t="s">
-        <x:v>81</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="J4" s="6"/>
       <x:c r="K4" s="6"/>
     </x:row>
     <x:row r="5" spans="1:11">
       <x:c r="A5" s="10" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="B5" s="10"/>
       <x:c r="C5" s="10" t="s">
-        <x:v>71</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="D5" s="10"/>
       <x:c r="E5" s="10" t="s">
@@ -3033,11 +3046,11 @@
       </x:c>
       <x:c r="F5" s="10"/>
       <x:c r="G5" s="10" t="s">
-        <x:v>60</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="H5" s="10"/>
       <x:c r="I5" s="10" t="s">
-        <x:v>82</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="J5" s="10"/>
       <x:c r="K5" s="10"/>
@@ -3048,7 +3061,7 @@
       </x:c>
       <x:c r="B6" s="10"/>
       <x:c r="C6" s="10" t="s">
-        <x:v>71</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="D6" s="10"/>
       <x:c r="E6" s="10" t="s">
@@ -3056,22 +3069,22 @@
       </x:c>
       <x:c r="F6" s="10"/>
       <x:c r="G6" s="10" t="s">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H6" s="10"/>
       <x:c r="I6" s="10" t="s">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="J6" s="10"/>
       <x:c r="K6" s="10"/>
     </x:row>
     <x:row r="7" spans="1:11">
       <x:c r="A7" s="10" t="s">
-        <x:v>40</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="B7" s="10"/>
       <x:c r="C7" s="10" t="s">
-        <x:v>71</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="D7" s="10"/>
       <x:c r="E7" s="10" t="s">
@@ -3079,22 +3092,22 @@
       </x:c>
       <x:c r="F7" s="10"/>
       <x:c r="G7" s="10" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="H7" s="10"/>
       <x:c r="I7" s="10" t="s">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="J7" s="10"/>
       <x:c r="K7" s="10"/>
     </x:row>
     <x:row r="8" spans="1:11">
       <x:c r="A8" s="10" t="s">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="B8" s="10"/>
       <x:c r="C8" s="10" t="s">
-        <x:v>71</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="D8" s="10"/>
       <x:c r="E8" s="10">
@@ -3102,11 +3115,11 @@
       </x:c>
       <x:c r="F8" s="10"/>
       <x:c r="G8" s="10" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="H8" s="10"/>
       <x:c r="I8" s="10" t="s">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="J8" s="10"/>
       <x:c r="K8" s="10"/>
@@ -3128,7 +3141,7 @@
     </x:row>
     <x:row r="10" spans="1:11">
       <x:c r="A10" s="12" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="B10" s="10"/>
       <x:c r="C10" s="10"/>
@@ -3311,7 +3324,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:11">
       <x:c r="A1" s="6" t="s">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="B1" s="6"/>
       <x:c r="C1" s="6"/>
@@ -3339,7 +3352,7 @@
     </x:row>
     <x:row r="3" spans="1:11">
       <x:c r="A3" s="7" t="s">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="B3" s="7"/>
       <x:c r="C3" s="7"/>
@@ -3354,23 +3367,23 @@
     </x:row>
     <x:row r="4" spans="1:11">
       <x:c r="A4" s="6" t="s">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="B4" s="6"/>
       <x:c r="C4" s="6" t="s">
-        <x:v>67</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="D4" s="6"/>
       <x:c r="E4" s="8" t="s">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="F4" s="9"/>
       <x:c r="G4" s="6" t="s">
-        <x:v>84</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="H4" s="6"/>
       <x:c r="I4" s="6" t="s">
-        <x:v>81</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="J4" s="6"/>
       <x:c r="K4" s="6"/>
@@ -3381,7 +3394,7 @@
       </x:c>
       <x:c r="B5" s="10"/>
       <x:c r="C5" s="10" t="s">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D5" s="10"/>
       <x:c r="E5" s="10" t="s">
@@ -3393,18 +3406,18 @@
       </x:c>
       <x:c r="H5" s="10"/>
       <x:c r="I5" s="10" t="s">
-        <x:v>63</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="J5" s="10"/>
       <x:c r="K5" s="10"/>
     </x:row>
     <x:row r="6" spans="1:11">
       <x:c r="A6" s="10" t="s">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="B6" s="10"/>
       <x:c r="C6" s="10" t="s">
-        <x:v>71</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="D6" s="10"/>
       <x:c r="E6" s="10">
@@ -3416,7 +3429,7 @@
       </x:c>
       <x:c r="H6" s="10"/>
       <x:c r="I6" s="10" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="J6" s="10"/>
       <x:c r="K6" s="10"/>
@@ -3438,7 +3451,7 @@
     </x:row>
     <x:row r="8" spans="1:11">
       <x:c r="A8" s="12" t="s">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B8" s="10"/>
       <x:c r="C8" s="10"/>
@@ -3611,7 +3624,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:11">
       <x:c r="A1" s="6" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="B1" s="6"/>
       <x:c r="C1" s="6"/>
@@ -3639,7 +3652,7 @@
     </x:row>
     <x:row r="3" spans="1:11">
       <x:c r="A3" s="7" t="s">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="B3" s="7"/>
       <x:c r="C3" s="7"/>
@@ -3654,34 +3667,34 @@
     </x:row>
     <x:row r="4" spans="1:11">
       <x:c r="A4" s="6" t="s">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="B4" s="6"/>
       <x:c r="C4" s="6" t="s">
-        <x:v>67</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="D4" s="6"/>
       <x:c r="E4" s="8" t="s">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="F4" s="9"/>
       <x:c r="G4" s="6" t="s">
-        <x:v>84</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="H4" s="6"/>
       <x:c r="I4" s="6" t="s">
-        <x:v>81</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="J4" s="6"/>
       <x:c r="K4" s="6"/>
     </x:row>
     <x:row r="5" spans="1:11">
       <x:c r="A5" s="10" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="B5" s="10"/>
       <x:c r="C5" s="10" t="s">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D5" s="10"/>
       <x:c r="E5" s="10" t="s">
@@ -3689,11 +3702,11 @@
       </x:c>
       <x:c r="F5" s="10"/>
       <x:c r="G5" s="10" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="H5" s="10"/>
       <x:c r="I5" s="10" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="J5" s="10"/>
       <x:c r="K5" s="10"/>
@@ -3704,7 +3717,7 @@
       </x:c>
       <x:c r="B6" s="10"/>
       <x:c r="C6" s="10" t="s">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D6" s="10"/>
       <x:c r="E6" s="10" t="s">
@@ -3716,18 +3729,18 @@
       </x:c>
       <x:c r="H6" s="10"/>
       <x:c r="I6" s="10" t="s">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="J6" s="10"/>
       <x:c r="K6" s="10"/>
     </x:row>
     <x:row r="7" spans="1:11">
       <x:c r="A7" s="10" t="s">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="B7" s="10"/>
       <x:c r="C7" s="10" t="s">
-        <x:v>71</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="D7" s="10"/>
       <x:c r="E7" s="10">
@@ -3737,18 +3750,18 @@
       <x:c r="G7" s="10"/>
       <x:c r="H7" s="10"/>
       <x:c r="I7" s="10" t="s">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="J7" s="10"/>
       <x:c r="K7" s="10"/>
     </x:row>
     <x:row r="8" spans="1:11">
       <x:c r="A8" s="10" t="s">
-        <x:v>85</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="B8" s="10"/>
       <x:c r="C8" s="10" t="s">
-        <x:v>71</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="D8" s="10"/>
       <x:c r="E8" s="10">
@@ -3756,22 +3769,22 @@
       </x:c>
       <x:c r="F8" s="10"/>
       <x:c r="G8" s="10" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="H8" s="10"/>
       <x:c r="I8" s="10" t="s">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="J8" s="10"/>
       <x:c r="K8" s="10"/>
     </x:row>
     <x:row r="9" spans="1:11">
       <x:c r="A9" s="10" t="s">
-        <x:v>40</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="B9" s="10"/>
       <x:c r="C9" s="10" t="s">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D9" s="10"/>
       <x:c r="E9" s="10" t="s">
@@ -3779,11 +3792,11 @@
       </x:c>
       <x:c r="F9" s="10"/>
       <x:c r="G9" s="10" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="H9" s="10"/>
       <x:c r="I9" s="10" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="J9" s="10"/>
       <x:c r="K9" s="10"/>
@@ -3805,7 +3818,7 @@
     </x:row>
     <x:row r="11" spans="1:11">
       <x:c r="A11" s="12" t="s">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="B11" s="10"/>
       <x:c r="C11" s="10"/>
@@ -3993,7 +4006,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:11">
       <x:c r="A1" s="6" t="s">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="B1" s="6"/>
       <x:c r="C1" s="6"/>
@@ -4021,7 +4034,7 @@
     </x:row>
     <x:row r="3" spans="1:11">
       <x:c r="A3" s="7" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="B3" s="7"/>
       <x:c r="C3" s="7"/>
@@ -4036,34 +4049,34 @@
     </x:row>
     <x:row r="4" spans="1:11">
       <x:c r="A4" s="6" t="s">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="B4" s="6"/>
       <x:c r="C4" s="6" t="s">
-        <x:v>67</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="D4" s="6"/>
       <x:c r="E4" s="8" t="s">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="F4" s="9"/>
       <x:c r="G4" s="6" t="s">
-        <x:v>84</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="H4" s="6"/>
       <x:c r="I4" s="6" t="s">
-        <x:v>81</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="J4" s="6"/>
       <x:c r="K4" s="6"/>
     </x:row>
     <x:row r="5" spans="1:11">
       <x:c r="A5" s="10" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="B5" s="10"/>
       <x:c r="C5" s="10" t="s">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D5" s="10"/>
       <x:c r="E5" s="10" t="s">
@@ -4071,22 +4084,22 @@
       </x:c>
       <x:c r="F5" s="10"/>
       <x:c r="G5" s="10" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="H5" s="10"/>
       <x:c r="I5" s="10" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="J5" s="10"/>
       <x:c r="K5" s="10"/>
     </x:row>
     <x:row r="6" spans="1:11">
       <x:c r="A6" s="10" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="B6" s="10"/>
       <x:c r="C6" s="10" t="s">
-        <x:v>71</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="D6" s="10"/>
       <x:c r="E6" s="10">
@@ -4096,18 +4109,18 @@
       <x:c r="G6" s="13"/>
       <x:c r="H6" s="14"/>
       <x:c r="I6" s="10" t="s">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="J6" s="10"/>
       <x:c r="K6" s="10"/>
     </x:row>
     <x:row r="7" spans="1:11">
       <x:c r="A7" s="10" t="s">
-        <x:v>45</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="B7" s="10"/>
       <x:c r="C7" s="10" t="s">
-        <x:v>71</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="D7" s="10"/>
       <x:c r="E7" s="10">
@@ -4117,18 +4130,18 @@
       <x:c r="G7" s="10"/>
       <x:c r="H7" s="10"/>
       <x:c r="I7" s="10" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="J7" s="10"/>
       <x:c r="K7" s="10"/>
     </x:row>
     <x:row r="8" spans="1:11">
       <x:c r="A8" s="10" t="s">
-        <x:v>57</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="B8" s="10"/>
       <x:c r="C8" s="10" t="s">
-        <x:v>71</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="D8" s="10"/>
       <x:c r="E8" s="10">
@@ -4138,18 +4151,18 @@
       <x:c r="G8" s="10"/>
       <x:c r="H8" s="10"/>
       <x:c r="I8" s="10" t="s">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="J8" s="10"/>
       <x:c r="K8" s="10"/>
     </x:row>
     <x:row r="9" spans="1:11">
       <x:c r="A9" s="10" t="s">
-        <x:v>83</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="B9" s="10"/>
       <x:c r="C9" s="10" t="s">
-        <x:v>71</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="D9" s="10"/>
       <x:c r="E9" s="10">
@@ -4161,7 +4174,7 @@
       </x:c>
       <x:c r="H9" s="10"/>
       <x:c r="I9" s="10" t="s">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="J9" s="10"/>
       <x:c r="K9" s="10"/>
@@ -4172,7 +4185,7 @@
       </x:c>
       <x:c r="B10" s="10"/>
       <x:c r="C10" s="10" t="s">
-        <x:v>71</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="D10" s="10"/>
       <x:c r="E10" s="10">
@@ -4180,11 +4193,11 @@
       </x:c>
       <x:c r="F10" s="10"/>
       <x:c r="G10" s="10" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="H10" s="10"/>
       <x:c r="I10" s="10" t="s">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="J10" s="10"/>
       <x:c r="K10" s="10"/>
@@ -4195,7 +4208,7 @@
       </x:c>
       <x:c r="B11" s="10"/>
       <x:c r="C11" s="10" t="s">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D11" s="10"/>
       <x:c r="E11" s="10" t="s">
@@ -4203,11 +4216,11 @@
       </x:c>
       <x:c r="F11" s="10"/>
       <x:c r="G11" s="10" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="H11" s="10"/>
       <x:c r="I11" s="10" t="s">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="J11" s="10"/>
       <x:c r="K11" s="10"/>
@@ -4229,7 +4242,7 @@
     </x:row>
     <x:row r="13" spans="1:11">
       <x:c r="A13" s="12" t="s">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="B13" s="10"/>
       <x:c r="C13" s="10"/>
